--- a/日本版コアインボイス/日本版コアインボイス2021-01-27.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B44F01-C2D3-428D-BA52-8AB431303B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCF89A-3135-384B-8C2A-09B4E6AEE500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="20370" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="20380" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="2121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="2120">
   <si>
     <t>ID</t>
   </si>
@@ -6311,16 +6311,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（参照）出荷案内書（納品書）番号
-Receiving advice reference</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（参照）出荷案内書明細行番号
-Referenced receiving advice line reference</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Invoice line allowance amount</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8735,6 +8725,11 @@
   <si>
     <t>品目取引単価(税抜き)
 Item net price without Tax</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（参照）出荷案内書明細行番号
+Referenced despatch advice line reference</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11251,253 +11246,265 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11506,18 +11513,6 @@
     <xf numFmtId="0" fontId="8" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11525,13 +11520,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14120,86 +14115,86 @@
   </sheetPr>
   <dimension ref="A1:AK596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R274" sqref="R274:S274"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q91" sqref="Q91:S91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="287" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="288" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="288" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="24" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="3.875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="308" customWidth="1"/>
-    <col min="14" max="14" width="5.375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="308" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="24" customWidth="1"/>
     <col min="15" max="15" width="4" style="24" customWidth="1"/>
-    <col min="16" max="18" width="1.875" style="24" customWidth="1"/>
-    <col min="19" max="19" width="30.875" style="24" customWidth="1"/>
-    <col min="20" max="20" width="30.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="3.375" style="298" customWidth="1"/>
-    <col min="22" max="22" width="5.375" style="24" customWidth="1"/>
-    <col min="23" max="23" width="3.875" style="24" customWidth="1"/>
-    <col min="24" max="26" width="1.875" style="24" customWidth="1"/>
-    <col min="27" max="27" width="24.875" style="292" customWidth="1"/>
-    <col min="28" max="28" width="30.875" style="291" customWidth="1"/>
-    <col min="29" max="31" width="3.375" style="348" customWidth="1"/>
-    <col min="32" max="16384" width="12.625" style="24"/>
+    <col min="16" max="18" width="1.83203125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="30.83203125" style="24" customWidth="1"/>
+    <col min="20" max="20" width="30.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" style="298" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="24" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" style="24" customWidth="1"/>
+    <col min="24" max="26" width="1.83203125" style="24" customWidth="1"/>
+    <col min="27" max="27" width="24.83203125" style="292" customWidth="1"/>
+    <col min="28" max="28" width="30.83203125" style="291" customWidth="1"/>
+    <col min="29" max="31" width="3.33203125" style="348" customWidth="1"/>
+    <col min="32" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="532" t="s">
+      <c r="A1" s="542" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="537" t="s">
+      <c r="B1" s="535" t="s">
         <v>863</v>
       </c>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="542" t="s">
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="579" t="s">
         <v>1144</v>
       </c>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
       <c r="J1" s="381"/>
       <c r="K1" s="381"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="539" t="s">
+      <c r="M1" s="576" t="s">
         <v>1644</v>
       </c>
-      <c r="N1" s="540"/>
-      <c r="O1" s="540"/>
-      <c r="P1" s="540"/>
-      <c r="Q1" s="540"/>
-      <c r="R1" s="540"/>
-      <c r="S1" s="540"/>
-      <c r="T1" s="540"/>
-      <c r="U1" s="541"/>
-      <c r="V1" s="542" t="s">
+      <c r="N1" s="577"/>
+      <c r="O1" s="577"/>
+      <c r="P1" s="577"/>
+      <c r="Q1" s="577"/>
+      <c r="R1" s="577"/>
+      <c r="S1" s="577"/>
+      <c r="T1" s="577"/>
+      <c r="U1" s="578"/>
+      <c r="V1" s="579" t="s">
         <v>895</v>
       </c>
-      <c r="W1" s="543"/>
-      <c r="X1" s="543"/>
-      <c r="Y1" s="543"/>
-      <c r="Z1" s="543"/>
-      <c r="AA1" s="543"/>
-      <c r="AB1" s="543"/>
-      <c r="AC1" s="543"/>
-      <c r="AD1" s="543"/>
-      <c r="AE1" s="544"/>
-    </row>
-    <row r="2" spans="1:31" s="287" customFormat="1" ht="96">
-      <c r="A2" s="533"/>
+      <c r="W1" s="580"/>
+      <c r="X1" s="580"/>
+      <c r="Y1" s="580"/>
+      <c r="Z1" s="580"/>
+      <c r="AA1" s="580"/>
+      <c r="AB1" s="580"/>
+      <c r="AC1" s="580"/>
+      <c r="AD1" s="580"/>
+      <c r="AE1" s="581"/>
+    </row>
+    <row r="2" spans="1:31" s="287" customFormat="1" ht="78" customHeight="1">
+      <c r="A2" s="545"/>
       <c r="B2" s="356" t="s">
         <v>0</v>
       </c>
@@ -14242,12 +14237,12 @@
       <c r="O2" s="360" t="s">
         <v>927</v>
       </c>
-      <c r="P2" s="534" t="s">
+      <c r="P2" s="573" t="s">
         <v>869</v>
       </c>
-      <c r="Q2" s="535"/>
-      <c r="R2" s="535"/>
-      <c r="S2" s="536"/>
+      <c r="Q2" s="574"/>
+      <c r="R2" s="574"/>
+      <c r="S2" s="575"/>
       <c r="T2" s="30" t="s">
         <v>3</v>
       </c>
@@ -14260,12 +14255,12 @@
       <c r="W2" s="360" t="s">
         <v>927</v>
       </c>
-      <c r="X2" s="534" t="s">
+      <c r="X2" s="573" t="s">
         <v>928</v>
       </c>
-      <c r="Y2" s="535"/>
-      <c r="Z2" s="535"/>
-      <c r="AA2" s="536"/>
+      <c r="Y2" s="574"/>
+      <c r="Z2" s="574"/>
+      <c r="AA2" s="575"/>
       <c r="AB2" s="316" t="s">
         <v>939</v>
       </c>
@@ -14279,7 +14274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="40.5">
+    <row r="3" spans="1:31" ht="45">
       <c r="A3" s="32">
         <f>ROW()-2</f>
         <v>1</v>
@@ -14337,7 +14332,7 @@
       <c r="AD3" s="318"/>
       <c r="AE3" s="318"/>
     </row>
-    <row r="4" spans="1:31" ht="15">
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A76" si="0">ROW()-2</f>
         <v>2</v>
@@ -14395,7 +14390,7 @@
       <c r="AD4" s="318"/>
       <c r="AE4" s="318"/>
     </row>
-    <row r="5" spans="1:31" ht="15">
+    <row r="5" spans="1:31" ht="16">
       <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14453,7 +14448,7 @@
       <c r="AD5" s="318"/>
       <c r="AE5" s="318"/>
     </row>
-    <row r="6" spans="1:31" ht="15">
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14511,7 +14506,7 @@
       <c r="AD6" s="318"/>
       <c r="AE6" s="318"/>
     </row>
-    <row r="7" spans="1:31" ht="15">
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14569,7 +14564,7 @@
       <c r="AD7" s="318"/>
       <c r="AE7" s="318"/>
     </row>
-    <row r="8" spans="1:31" ht="15">
+    <row r="8" spans="1:31" ht="16">
       <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14627,7 +14622,7 @@
       <c r="AD8" s="318"/>
       <c r="AE8" s="318"/>
     </row>
-    <row r="9" spans="1:31" ht="27">
+    <row r="9" spans="1:31" ht="30">
       <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14685,7 +14680,7 @@
       <c r="AD9" s="318"/>
       <c r="AE9" s="318"/>
     </row>
-    <row r="10" spans="1:31" ht="27">
+    <row r="10" spans="1:31" ht="30">
       <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14743,7 +14738,7 @@
       <c r="AD10" s="318"/>
       <c r="AE10" s="318"/>
     </row>
-    <row r="11" spans="1:31" ht="15">
+    <row r="11" spans="1:31" ht="16">
       <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14801,7 +14796,7 @@
       <c r="AD11" s="318"/>
       <c r="AE11" s="318"/>
     </row>
-    <row r="12" spans="1:31" ht="15">
+    <row r="12" spans="1:31" ht="16">
       <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14859,7 +14854,7 @@
       <c r="AD12" s="318"/>
       <c r="AE12" s="318"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" ht="15">
       <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14903,7 +14898,7 @@
       <c r="AD13" s="320"/>
       <c r="AE13" s="320"/>
     </row>
-    <row r="14" spans="1:31" ht="27">
+    <row r="14" spans="1:31" ht="30">
       <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14948,12 +14943,12 @@
       <c r="O14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="518" t="s">
-        <v>1735</v>
-      </c>
-      <c r="Q14" s="514"/>
-      <c r="R14" s="514"/>
-      <c r="S14" s="515"/>
+      <c r="P14" s="572" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q14" s="526"/>
+      <c r="R14" s="526"/>
+      <c r="S14" s="571"/>
       <c r="T14" s="70" t="s">
         <v>42</v>
       </c>
@@ -14979,7 +14974,7 @@
       <c r="AD14" s="160"/>
       <c r="AE14" s="160"/>
     </row>
-    <row r="15" spans="1:31" ht="15">
+    <row r="15" spans="1:31" ht="16">
       <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15037,7 +15032,7 @@
       <c r="AD15" s="160"/>
       <c r="AE15" s="160"/>
     </row>
-    <row r="16" spans="1:31" ht="27">
+    <row r="16" spans="1:31" ht="30">
       <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15082,12 +15077,12 @@
       <c r="O16" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="518" t="s">
-        <v>1736</v>
-      </c>
-      <c r="Q16" s="514"/>
-      <c r="R16" s="514"/>
-      <c r="S16" s="515"/>
+      <c r="P16" s="572" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Q16" s="526"/>
+      <c r="R16" s="526"/>
+      <c r="S16" s="571"/>
       <c r="T16" s="70" t="s">
         <v>49</v>
       </c>
@@ -15113,7 +15108,7 @@
       <c r="AD16" s="160"/>
       <c r="AE16" s="160"/>
     </row>
-    <row r="17" spans="1:31" ht="364.5">
+    <row r="17" spans="1:31" ht="398">
       <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15158,14 +15153,14 @@
       <c r="O17" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="518" t="s">
-        <v>1737</v>
-      </c>
-      <c r="Q17" s="514"/>
-      <c r="R17" s="514"/>
-      <c r="S17" s="515"/>
+      <c r="P17" s="572" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Q17" s="526"/>
+      <c r="R17" s="526"/>
+      <c r="S17" s="571"/>
       <c r="T17" s="70" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="U17" s="71"/>
       <c r="V17" s="72" t="s">
@@ -15189,7 +15184,7 @@
       <c r="AD17" s="160"/>
       <c r="AE17" s="160"/>
     </row>
-    <row r="18" spans="1:31" ht="81">
+    <row r="18" spans="1:31" ht="90">
       <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15224,14 +15219,14 @@
       <c r="O18" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="521" t="s">
-        <v>1739</v>
-      </c>
-      <c r="Q18" s="512"/>
-      <c r="R18" s="512"/>
-      <c r="S18" s="513"/>
+      <c r="P18" s="511" t="s">
+        <v>1737</v>
+      </c>
+      <c r="Q18" s="509"/>
+      <c r="R18" s="509"/>
+      <c r="S18" s="510"/>
       <c r="T18" s="92" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="U18" s="93"/>
       <c r="V18" s="72" t="s">
@@ -15255,7 +15250,7 @@
       <c r="AD18" s="160"/>
       <c r="AE18" s="160"/>
     </row>
-    <row r="19" spans="1:31" ht="135">
+    <row r="19" spans="1:31" ht="150">
       <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15290,14 +15285,14 @@
       <c r="O19" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="521" t="s">
-        <v>1738</v>
-      </c>
-      <c r="Q19" s="512"/>
-      <c r="R19" s="512"/>
-      <c r="S19" s="513"/>
+      <c r="P19" s="511" t="s">
+        <v>1736</v>
+      </c>
+      <c r="Q19" s="509"/>
+      <c r="R19" s="509"/>
+      <c r="S19" s="510"/>
       <c r="T19" s="92" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="U19" s="93"/>
       <c r="V19" s="72" t="s">
@@ -15323,7 +15318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" ht="15">
       <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15367,7 +15362,7 @@
       <c r="AD20" s="183"/>
       <c r="AE20" s="183"/>
     </row>
-    <row r="21" spans="1:31" ht="54">
+    <row r="21" spans="1:31" ht="60">
       <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15412,12 +15407,12 @@
       <c r="O21" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="529" t="s">
-        <v>1740</v>
-      </c>
-      <c r="Q21" s="530"/>
-      <c r="R21" s="530"/>
-      <c r="S21" s="531"/>
+      <c r="P21" s="582" t="s">
+        <v>1738</v>
+      </c>
+      <c r="Q21" s="583"/>
+      <c r="R21" s="583"/>
+      <c r="S21" s="584"/>
       <c r="T21" s="177" t="s">
         <v>60</v>
       </c>
@@ -15443,7 +15438,7 @@
       <c r="AD21" s="160"/>
       <c r="AE21" s="160"/>
     </row>
-    <row r="22" spans="1:31" ht="54">
+    <row r="22" spans="1:31" ht="60">
       <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15488,12 +15483,12 @@
       <c r="O22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="526" t="s">
-        <v>1741</v>
-      </c>
-      <c r="Q22" s="527"/>
-      <c r="R22" s="527"/>
-      <c r="S22" s="528"/>
+      <c r="P22" s="530" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q22" s="531"/>
+      <c r="R22" s="531"/>
+      <c r="S22" s="532"/>
       <c r="T22" s="321" t="s">
         <v>64</v>
       </c>
@@ -15519,7 +15514,7 @@
       <c r="AD22" s="160"/>
       <c r="AE22" s="160"/>
     </row>
-    <row r="23" spans="1:31" ht="96.95" customHeight="1">
+    <row r="23" spans="1:31" ht="97" customHeight="1">
       <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -15546,16 +15541,16 @@
       <c r="M23" s="111" t="s">
         <v>1274</v>
       </c>
-      <c r="N23" s="562" t="s">
-        <v>1690</v>
-      </c>
-      <c r="O23" s="563"/>
-      <c r="P23" s="563"/>
-      <c r="Q23" s="563"/>
-      <c r="R23" s="563"/>
-      <c r="S23" s="563"/>
-      <c r="T23" s="563"/>
-      <c r="U23" s="564"/>
+      <c r="N23" s="556" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O23" s="557"/>
+      <c r="P23" s="557"/>
+      <c r="Q23" s="557"/>
+      <c r="R23" s="557"/>
+      <c r="S23" s="557"/>
+      <c r="T23" s="557"/>
+      <c r="U23" s="558"/>
       <c r="V23" s="72" t="s">
         <v>903</v>
       </c>
@@ -15577,7 +15572,7 @@
       <c r="AD23" s="324"/>
       <c r="AE23" s="324"/>
     </row>
-    <row r="24" spans="1:31" ht="15">
+    <row r="24" spans="1:31" ht="16">
       <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15633,7 +15628,7 @@
       <c r="AD24" s="324"/>
       <c r="AE24" s="324"/>
     </row>
-    <row r="25" spans="1:31" ht="81">
+    <row r="25" spans="1:31" ht="90">
       <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -15691,7 +15686,7 @@
       <c r="AD25" s="325"/>
       <c r="AE25" s="325"/>
     </row>
-    <row r="26" spans="1:31" ht="40.5">
+    <row r="26" spans="1:31" ht="45">
       <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15794,12 +15789,12 @@
       <c r="O27" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="526" t="s">
-        <v>1742</v>
-      </c>
-      <c r="Q27" s="527"/>
-      <c r="R27" s="527"/>
-      <c r="S27" s="528"/>
+      <c r="P27" s="530" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q27" s="531"/>
+      <c r="R27" s="531"/>
+      <c r="S27" s="532"/>
       <c r="T27" s="70" t="s">
         <v>73</v>
       </c>
@@ -15825,7 +15820,7 @@
       <c r="AD27" s="160"/>
       <c r="AE27" s="160"/>
     </row>
-    <row r="28" spans="1:31" ht="27">
+    <row r="28" spans="1:31" ht="30">
       <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15870,12 +15865,12 @@
       <c r="O28" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="526" t="s">
-        <v>1743</v>
-      </c>
-      <c r="Q28" s="527"/>
-      <c r="R28" s="527"/>
-      <c r="S28" s="528"/>
+      <c r="P28" s="530" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q28" s="531"/>
+      <c r="R28" s="531"/>
+      <c r="S28" s="532"/>
       <c r="T28" s="70" t="s">
         <v>79</v>
       </c>
@@ -15907,7 +15902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="15">
       <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15951,7 +15946,7 @@
       <c r="AD29" s="183"/>
       <c r="AE29" s="183"/>
     </row>
-    <row r="30" spans="1:31" ht="27">
+    <row r="30" spans="1:31" ht="30">
       <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15996,12 +15991,12 @@
       <c r="O30" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="526" t="s">
-        <v>1744</v>
-      </c>
-      <c r="Q30" s="527"/>
-      <c r="R30" s="527"/>
-      <c r="S30" s="528"/>
+      <c r="P30" s="530" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q30" s="531"/>
+      <c r="R30" s="531"/>
+      <c r="S30" s="532"/>
       <c r="T30" s="70" t="s">
         <v>85</v>
       </c>
@@ -16027,7 +16022,7 @@
       <c r="AD30" s="160"/>
       <c r="AE30" s="160"/>
     </row>
-    <row r="31" spans="1:31" ht="27">
+    <row r="31" spans="1:31" ht="30">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -16083,7 +16078,7 @@
       <c r="AD31" s="160"/>
       <c r="AE31" s="160"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" ht="15">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16127,7 +16122,7 @@
       <c r="AD32" s="183"/>
       <c r="AE32" s="183"/>
     </row>
-    <row r="33" spans="1:31" ht="27">
+    <row r="33" spans="1:31" ht="30">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -16172,12 +16167,12 @@
       <c r="O33" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P33" s="526" t="s">
-        <v>1745</v>
-      </c>
-      <c r="Q33" s="527"/>
-      <c r="R33" s="527"/>
-      <c r="S33" s="528"/>
+      <c r="P33" s="530" t="s">
+        <v>1743</v>
+      </c>
+      <c r="Q33" s="531"/>
+      <c r="R33" s="531"/>
+      <c r="S33" s="532"/>
       <c r="T33" s="70" t="s">
         <v>1635</v>
       </c>
@@ -16203,7 +16198,7 @@
       <c r="AD33" s="160"/>
       <c r="AE33" s="160"/>
     </row>
-    <row r="34" spans="1:31" ht="27">
+    <row r="34" spans="1:31" ht="30">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -16248,12 +16243,12 @@
       <c r="O34" s="69" t="s">
         <v>906</v>
       </c>
-      <c r="P34" s="526" t="s">
-        <v>1746</v>
-      </c>
-      <c r="Q34" s="527"/>
-      <c r="R34" s="527"/>
-      <c r="S34" s="528"/>
+      <c r="P34" s="530" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q34" s="531"/>
+      <c r="R34" s="531"/>
+      <c r="S34" s="532"/>
       <c r="T34" s="70" t="s">
         <v>1636</v>
       </c>
@@ -16281,7 +16276,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="27">
+    <row r="35" spans="1:31" ht="30">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -16326,12 +16321,12 @@
       <c r="O35" s="69" t="s">
         <v>906</v>
       </c>
-      <c r="P35" s="526" t="s">
-        <v>1747</v>
-      </c>
-      <c r="Q35" s="527"/>
-      <c r="R35" s="527"/>
-      <c r="S35" s="528"/>
+      <c r="P35" s="530" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Q35" s="531"/>
+      <c r="R35" s="531"/>
+      <c r="S35" s="532"/>
       <c r="T35" s="70" t="s">
         <v>1637</v>
       </c>
@@ -16349,7 +16344,7 @@
       <c r="Z35" s="66"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="326" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AC35" s="160" t="s">
         <v>16</v>
@@ -16357,7 +16352,7 @@
       <c r="AD35" s="160"/>
       <c r="AE35" s="160"/>
     </row>
-    <row r="36" spans="1:31" ht="27">
+    <row r="36" spans="1:31" ht="30">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -16402,12 +16397,12 @@
       <c r="O36" s="126" t="s">
         <v>906</v>
       </c>
-      <c r="P36" s="526" t="s">
-        <v>1748</v>
-      </c>
-      <c r="Q36" s="527"/>
-      <c r="R36" s="527"/>
-      <c r="S36" s="528"/>
+      <c r="P36" s="530" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Q36" s="531"/>
+      <c r="R36" s="531"/>
+      <c r="S36" s="532"/>
       <c r="T36" s="51" t="s">
         <v>1672</v>
       </c>
@@ -16425,7 +16420,7 @@
       <c r="AD36" s="131"/>
       <c r="AE36" s="327"/>
     </row>
-    <row r="37" spans="1:31" ht="94.5">
+    <row r="37" spans="1:31" ht="105">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -16470,14 +16465,14 @@
       <c r="O37" s="69" t="s">
         <v>906</v>
       </c>
-      <c r="P37" s="526" t="s">
-        <v>1749</v>
-      </c>
-      <c r="Q37" s="527"/>
-      <c r="R37" s="527"/>
-      <c r="S37" s="528"/>
+      <c r="P37" s="530" t="s">
+        <v>1747</v>
+      </c>
+      <c r="Q37" s="531"/>
+      <c r="R37" s="531"/>
+      <c r="S37" s="532"/>
       <c r="T37" s="70" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="U37" s="71" t="s">
         <v>80</v>
@@ -16505,7 +16500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="27">
+    <row r="38" spans="1:31" ht="30">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -16550,12 +16545,12 @@
       <c r="O38" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="P38" s="526" t="s">
-        <v>1750</v>
-      </c>
-      <c r="Q38" s="527"/>
-      <c r="R38" s="527"/>
-      <c r="S38" s="528"/>
+      <c r="P38" s="530" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q38" s="531"/>
+      <c r="R38" s="531"/>
+      <c r="S38" s="532"/>
       <c r="T38" s="132" t="s">
         <v>109</v>
       </c>
@@ -16616,12 +16611,12 @@
       <c r="O39" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="P39" s="526" t="s">
-        <v>1751</v>
-      </c>
-      <c r="Q39" s="527"/>
-      <c r="R39" s="527"/>
-      <c r="S39" s="528"/>
+      <c r="P39" s="530" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q39" s="531"/>
+      <c r="R39" s="531"/>
+      <c r="S39" s="532"/>
       <c r="T39" s="132" t="s">
         <v>1625</v>
       </c>
@@ -16639,7 +16634,7 @@
       <c r="AD39" s="131"/>
       <c r="AE39" s="327"/>
     </row>
-    <row r="40" spans="1:31" ht="81">
+    <row r="40" spans="1:31" ht="75">
       <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -16652,7 +16647,7 @@
         <v>1650</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>1651</v>
@@ -16677,11 +16672,11 @@
         <v>906</v>
       </c>
       <c r="P40" s="119"/>
-      <c r="Q40" s="507" t="s">
-        <v>1753</v>
-      </c>
-      <c r="R40" s="510"/>
-      <c r="S40" s="511"/>
+      <c r="Q40" s="512" t="s">
+        <v>1751</v>
+      </c>
+      <c r="R40" s="517"/>
+      <c r="S40" s="518"/>
       <c r="T40" s="51" t="s">
         <v>1652</v>
       </c>
@@ -16697,7 +16692,7 @@
       <c r="AD40" s="131"/>
       <c r="AE40" s="327"/>
     </row>
-    <row r="41" spans="1:31" ht="40.5">
+    <row r="41" spans="1:31" ht="45">
       <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -16718,7 +16713,7 @@
         <v>1030</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>114</v>
@@ -16742,12 +16737,12 @@
       <c r="O41" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="526" t="s">
-        <v>1755</v>
-      </c>
-      <c r="Q41" s="527"/>
-      <c r="R41" s="527"/>
-      <c r="S41" s="528"/>
+      <c r="P41" s="530" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q41" s="531"/>
+      <c r="R41" s="531"/>
+      <c r="S41" s="532"/>
       <c r="T41" s="132" t="s">
         <v>115</v>
       </c>
@@ -16765,7 +16760,7 @@
       <c r="AD41" s="131"/>
       <c r="AE41" s="327"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="15">
       <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -16809,7 +16804,7 @@
       <c r="AD42" s="212"/>
       <c r="AE42" s="212"/>
     </row>
-    <row r="43" spans="1:31" ht="283.5">
+    <row r="43" spans="1:31" ht="300">
       <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -16830,7 +16825,7 @@
         <v>1031</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>118</v>
@@ -16854,12 +16849,12 @@
       <c r="O43" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="526" t="s">
-        <v>1757</v>
-      </c>
-      <c r="Q43" s="527"/>
-      <c r="R43" s="527"/>
-      <c r="S43" s="528"/>
+      <c r="P43" s="530" t="s">
+        <v>1755</v>
+      </c>
+      <c r="Q43" s="531"/>
+      <c r="R43" s="531"/>
+      <c r="S43" s="532"/>
       <c r="T43" s="135" t="s">
         <v>966</v>
       </c>
@@ -16885,7 +16880,7 @@
       <c r="AD43" s="160"/>
       <c r="AE43" s="160"/>
     </row>
-    <row r="44" spans="1:31" ht="27">
+    <row r="44" spans="1:31" ht="30">
       <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -16951,7 +16946,7 @@
       <c r="AD44" s="160"/>
       <c r="AE44" s="160"/>
     </row>
-    <row r="45" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="45" spans="1:31" s="3" customFormat="1" ht="30">
       <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -17003,7 +16998,7 @@
       <c r="AD45" s="325"/>
       <c r="AE45" s="325"/>
     </row>
-    <row r="46" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="46" spans="1:31" s="3" customFormat="1" ht="30">
       <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -17055,7 +17050,7 @@
       <c r="AD46" s="325"/>
       <c r="AE46" s="325"/>
     </row>
-    <row r="47" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="47" spans="1:31" s="3" customFormat="1" ht="30">
       <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -17107,7 +17102,7 @@
       <c r="AD47" s="325"/>
       <c r="AE47" s="325"/>
     </row>
-    <row r="48" spans="1:31" ht="54">
+    <row r="48" spans="1:31" ht="60">
       <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -17128,7 +17123,7 @@
         <v>1032</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -17152,12 +17147,12 @@
       <c r="O48" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="P48" s="526" t="s">
-        <v>1759</v>
-      </c>
-      <c r="Q48" s="527"/>
-      <c r="R48" s="527"/>
-      <c r="S48" s="528"/>
+      <c r="P48" s="530" t="s">
+        <v>1757</v>
+      </c>
+      <c r="Q48" s="531"/>
+      <c r="R48" s="531"/>
+      <c r="S48" s="532"/>
       <c r="T48" s="70" t="s">
         <v>125</v>
       </c>
@@ -17183,7 +17178,7 @@
       <c r="AD48" s="160"/>
       <c r="AE48" s="160"/>
     </row>
-    <row r="49" spans="1:31" ht="27">
+    <row r="49" spans="1:31" ht="30">
       <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -17204,7 +17199,7 @@
         <v>1033</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>1034</v>
@@ -17231,11 +17226,11 @@
       <c r="P49" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q49" s="524" t="s">
-        <v>1761</v>
-      </c>
-      <c r="R49" s="524"/>
-      <c r="S49" s="525"/>
+      <c r="Q49" s="533" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R49" s="533"/>
+      <c r="S49" s="534"/>
       <c r="T49" s="70" t="s">
         <v>130</v>
       </c>
@@ -17263,7 +17258,7 @@
       <c r="AD49" s="160"/>
       <c r="AE49" s="160"/>
     </row>
-    <row r="50" spans="1:31" ht="40.5">
+    <row r="50" spans="1:31" ht="45">
       <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -17311,11 +17306,11 @@
       <c r="P50" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="524" t="s">
-        <v>1762</v>
-      </c>
-      <c r="R50" s="524"/>
-      <c r="S50" s="525"/>
+      <c r="Q50" s="533" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R50" s="533"/>
+      <c r="S50" s="534"/>
       <c r="T50" s="70" t="s">
         <v>135</v>
       </c>
@@ -17343,7 +17338,7 @@
       <c r="AD50" s="160"/>
       <c r="AE50" s="160"/>
     </row>
-    <row r="51" spans="1:31" ht="15">
+    <row r="51" spans="1:31" ht="16">
       <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -17401,7 +17396,7 @@
       <c r="AD51" s="160"/>
       <c r="AE51" s="160"/>
     </row>
-    <row r="52" spans="1:31" ht="54">
+    <row r="52" spans="1:31" ht="60">
       <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -17422,7 +17417,7 @@
         <v>1036</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>140</v>
@@ -17446,12 +17441,12 @@
       <c r="O52" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="P52" s="526" t="s">
-        <v>1764</v>
-      </c>
-      <c r="Q52" s="527"/>
-      <c r="R52" s="527"/>
-      <c r="S52" s="528"/>
+      <c r="P52" s="530" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q52" s="531"/>
+      <c r="R52" s="531"/>
+      <c r="S52" s="532"/>
       <c r="T52" s="70" t="s">
         <v>142</v>
       </c>
@@ -17477,7 +17472,7 @@
       <c r="AD52" s="160"/>
       <c r="AE52" s="160"/>
     </row>
-    <row r="53" spans="1:31" ht="337.5">
+    <row r="53" spans="1:31" ht="370">
       <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -17498,7 +17493,7 @@
         <v>1037</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>1670</v>
@@ -17523,11 +17518,11 @@
         <v>41</v>
       </c>
       <c r="P53" s="65"/>
-      <c r="Q53" s="524" t="s">
-        <v>1766</v>
-      </c>
-      <c r="R53" s="524"/>
-      <c r="S53" s="525"/>
+      <c r="Q53" s="533" t="s">
+        <v>1764</v>
+      </c>
+      <c r="R53" s="533"/>
+      <c r="S53" s="534"/>
       <c r="T53" s="70" t="s">
         <v>146</v>
       </c>
@@ -17553,7 +17548,7 @@
       <c r="AD53" s="160"/>
       <c r="AE53" s="160"/>
     </row>
-    <row r="54" spans="1:31" ht="409.5">
+    <row r="54" spans="1:31" ht="409.6">
       <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -17599,13 +17594,13 @@
         <v>41</v>
       </c>
       <c r="P54" s="65"/>
-      <c r="Q54" s="524" t="s">
-        <v>1767</v>
-      </c>
-      <c r="R54" s="524"/>
-      <c r="S54" s="525"/>
+      <c r="Q54" s="533" t="s">
+        <v>1765</v>
+      </c>
+      <c r="R54" s="533"/>
+      <c r="S54" s="534"/>
       <c r="T54" s="70" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="U54" s="71"/>
       <c r="V54" s="140" t="s">
@@ -17629,7 +17624,7 @@
       <c r="AD54" s="160"/>
       <c r="AE54" s="160"/>
     </row>
-    <row r="55" spans="1:31" ht="40.5">
+    <row r="55" spans="1:31" ht="45">
       <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -17650,7 +17645,7 @@
         <v>1039</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>153</v>
@@ -17674,12 +17669,12 @@
       <c r="O55" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P55" s="518" t="s">
-        <v>1769</v>
-      </c>
-      <c r="Q55" s="514"/>
-      <c r="R55" s="514"/>
-      <c r="S55" s="515"/>
+      <c r="P55" s="572" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q55" s="526"/>
+      <c r="R55" s="526"/>
+      <c r="S55" s="571"/>
       <c r="T55" s="51" t="s">
         <v>154</v>
       </c>
@@ -17695,7 +17690,7 @@
       <c r="AD55" s="325"/>
       <c r="AE55" s="325"/>
     </row>
-    <row r="56" spans="1:31" ht="27">
+    <row r="56" spans="1:31" ht="30">
       <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -17716,7 +17711,7 @@
         <v>1040</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>157</v>
@@ -17741,11 +17736,11 @@
         <v>41</v>
       </c>
       <c r="P56" s="65"/>
-      <c r="Q56" s="514" t="s">
-        <v>1771</v>
-      </c>
-      <c r="R56" s="514"/>
-      <c r="S56" s="515"/>
+      <c r="Q56" s="526" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R56" s="526"/>
+      <c r="S56" s="571"/>
       <c r="T56" s="51" t="s">
         <v>159</v>
       </c>
@@ -17761,7 +17756,7 @@
       <c r="AD56" s="325"/>
       <c r="AE56" s="325"/>
     </row>
-    <row r="57" spans="1:31" ht="27">
+    <row r="57" spans="1:31" ht="30">
       <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -17782,7 +17777,7 @@
         <v>1041</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>162</v>
@@ -17807,11 +17802,11 @@
         <v>41</v>
       </c>
       <c r="P57" s="65"/>
-      <c r="Q57" s="514" t="s">
-        <v>1773</v>
-      </c>
-      <c r="R57" s="514"/>
-      <c r="S57" s="515"/>
+      <c r="Q57" s="526" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R57" s="526"/>
+      <c r="S57" s="571"/>
       <c r="T57" s="51" t="s">
         <v>163</v>
       </c>
@@ -17827,7 +17822,7 @@
       <c r="AD57" s="325"/>
       <c r="AE57" s="325"/>
     </row>
-    <row r="58" spans="1:31" ht="27">
+    <row r="58" spans="1:31" ht="30">
       <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -17848,7 +17843,7 @@
         <v>1042</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>166</v>
@@ -17872,12 +17867,12 @@
       <c r="O58" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="P58" s="518" t="s">
-        <v>1775</v>
-      </c>
-      <c r="Q58" s="514"/>
-      <c r="R58" s="514"/>
-      <c r="S58" s="515"/>
+      <c r="P58" s="572" t="s">
+        <v>1773</v>
+      </c>
+      <c r="Q58" s="526"/>
+      <c r="R58" s="526"/>
+      <c r="S58" s="571"/>
       <c r="T58" s="70" t="s">
         <v>167</v>
       </c>
@@ -17901,7 +17896,7 @@
       <c r="AD58" s="160"/>
       <c r="AE58" s="160"/>
     </row>
-    <row r="59" spans="1:31" ht="67.5">
+    <row r="59" spans="1:31" ht="75">
       <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -17922,7 +17917,7 @@
         <v>1044</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>1045</v>
@@ -17949,11 +17944,11 @@
       <c r="P59" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q59" s="514" t="s">
-        <v>1777</v>
-      </c>
-      <c r="R59" s="514"/>
-      <c r="S59" s="515"/>
+      <c r="Q59" s="526" t="s">
+        <v>1775</v>
+      </c>
+      <c r="R59" s="526"/>
+      <c r="S59" s="571"/>
       <c r="T59" s="70" t="s">
         <v>171</v>
       </c>
@@ -18029,11 +18024,11 @@
         <v>13</v>
       </c>
       <c r="P60" s="119"/>
-      <c r="Q60" s="507" t="s">
-        <v>1778</v>
-      </c>
-      <c r="R60" s="507"/>
-      <c r="S60" s="508"/>
+      <c r="Q60" s="512" t="s">
+        <v>1776</v>
+      </c>
+      <c r="R60" s="512"/>
+      <c r="S60" s="513"/>
       <c r="T60" s="115" t="s">
         <v>11</v>
       </c>
@@ -18051,7 +18046,7 @@
       <c r="AD60" s="159"/>
       <c r="AE60" s="85"/>
     </row>
-    <row r="61" spans="1:31" ht="27">
+    <row r="61" spans="1:31" ht="30">
       <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -18072,7 +18067,7 @@
         <v>1048</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>1049</v>
@@ -18099,11 +18094,11 @@
       <c r="P61" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q61" s="514" t="s">
-        <v>1780</v>
-      </c>
-      <c r="R61" s="514"/>
-      <c r="S61" s="515"/>
+      <c r="Q61" s="526" t="s">
+        <v>1778</v>
+      </c>
+      <c r="R61" s="526"/>
+      <c r="S61" s="571"/>
       <c r="T61" s="70" t="s">
         <v>176</v>
       </c>
@@ -18131,7 +18126,7 @@
       <c r="AD61" s="160"/>
       <c r="AE61" s="160"/>
     </row>
-    <row r="62" spans="1:31" ht="54">
+    <row r="62" spans="1:31" ht="60">
       <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -18144,7 +18139,7 @@
         <v>1653</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>1655</v>
@@ -18170,10 +18165,10 @@
       </c>
       <c r="P62" s="119"/>
       <c r="Q62" s="120"/>
-      <c r="R62" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S62" s="508"/>
+      <c r="R62" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S62" s="513"/>
       <c r="T62" s="51" t="s">
         <v>1662</v>
       </c>
@@ -18189,7 +18184,7 @@
       <c r="AD62" s="325"/>
       <c r="AE62" s="325"/>
     </row>
-    <row r="63" spans="1:31" ht="40.5">
+    <row r="63" spans="1:31" ht="45">
       <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -18210,7 +18205,7 @@
         <v>1050</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>1051</v>
@@ -18237,11 +18232,11 @@
       <c r="P63" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q63" s="514" t="s">
-        <v>1785</v>
-      </c>
-      <c r="R63" s="514"/>
-      <c r="S63" s="515"/>
+      <c r="Q63" s="526" t="s">
+        <v>1783</v>
+      </c>
+      <c r="R63" s="526"/>
+      <c r="S63" s="571"/>
       <c r="T63" s="70" t="s">
         <v>993</v>
       </c>
@@ -18269,7 +18264,7 @@
       <c r="AD63" s="160"/>
       <c r="AE63" s="160"/>
     </row>
-    <row r="64" spans="1:31" ht="54">
+    <row r="64" spans="1:31" ht="60">
       <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -18308,10 +18303,10 @@
       </c>
       <c r="P64" s="119"/>
       <c r="Q64" s="120"/>
-      <c r="R64" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S64" s="508"/>
+      <c r="R64" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S64" s="513"/>
       <c r="T64" s="51" t="s">
         <v>1664</v>
       </c>
@@ -18327,7 +18322,7 @@
       <c r="AD64" s="325"/>
       <c r="AE64" s="325"/>
     </row>
-    <row r="65" spans="1:31" ht="40.5">
+    <row r="65" spans="1:31" ht="30">
       <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -18348,7 +18343,7 @@
         <v>1544</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>1545</v>
@@ -18373,11 +18368,11 @@
         <v>13</v>
       </c>
       <c r="P65" s="154"/>
-      <c r="Q65" s="522" t="s">
-        <v>1787</v>
-      </c>
-      <c r="R65" s="522"/>
-      <c r="S65" s="523"/>
+      <c r="Q65" s="585" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R65" s="585"/>
+      <c r="S65" s="586"/>
       <c r="T65" s="157" t="s">
         <v>11</v>
       </c>
@@ -18395,7 +18390,7 @@
       <c r="AD65" s="159"/>
       <c r="AE65" s="85"/>
     </row>
-    <row r="66" spans="1:31" ht="67.5">
+    <row r="66" spans="1:31" ht="75">
       <c r="A66" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -18416,7 +18411,7 @@
         <v>1546</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>1547</v>
@@ -18443,11 +18438,11 @@
       <c r="P66" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="507" t="s">
-        <v>1789</v>
-      </c>
-      <c r="R66" s="510"/>
-      <c r="S66" s="511"/>
+      <c r="Q66" s="512" t="s">
+        <v>1787</v>
+      </c>
+      <c r="R66" s="517"/>
+      <c r="S66" s="518"/>
       <c r="T66" s="70" t="s">
         <v>185</v>
       </c>
@@ -18461,11 +18456,11 @@
       <c r="X66" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Y66" s="577" t="s">
+      <c r="Y66" s="515" t="s">
         <v>1632</v>
       </c>
-      <c r="Z66" s="578"/>
-      <c r="AA66" s="579"/>
+      <c r="Z66" s="524"/>
+      <c r="AA66" s="525"/>
       <c r="AB66" s="321" t="s">
         <v>185</v>
       </c>
@@ -18477,7 +18472,7 @@
       </c>
       <c r="AE66" s="160"/>
     </row>
-    <row r="67" spans="1:31" ht="27">
+    <row r="67" spans="1:31" ht="30">
       <c r="A67" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -18498,7 +18493,7 @@
         <v>1054</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>1055</v>
@@ -18523,11 +18518,11 @@
         <v>13</v>
       </c>
       <c r="P67" s="154"/>
-      <c r="Q67" s="522" t="s">
-        <v>1791</v>
-      </c>
-      <c r="R67" s="522"/>
-      <c r="S67" s="523"/>
+      <c r="Q67" s="585" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R67" s="585"/>
+      <c r="S67" s="586"/>
       <c r="T67" s="161" t="s">
         <v>11</v>
       </c>
@@ -18543,7 +18538,7 @@
       <c r="AD67" s="159"/>
       <c r="AE67" s="85"/>
     </row>
-    <row r="68" spans="1:31" ht="54">
+    <row r="68" spans="1:31" ht="60">
       <c r="A68" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -18564,7 +18559,7 @@
         <v>1056</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>1057</v>
@@ -18589,11 +18584,11 @@
         <v>13</v>
       </c>
       <c r="P68" s="119"/>
-      <c r="Q68" s="507" t="s">
-        <v>1793</v>
-      </c>
-      <c r="R68" s="510"/>
-      <c r="S68" s="511"/>
+      <c r="Q68" s="512" t="s">
+        <v>1791</v>
+      </c>
+      <c r="R68" s="517"/>
+      <c r="S68" s="518"/>
       <c r="T68" s="51" t="s">
         <v>864</v>
       </c>
@@ -18611,7 +18606,7 @@
       <c r="AD68" s="159"/>
       <c r="AE68" s="85"/>
     </row>
-    <row r="69" spans="1:31" ht="40.5">
+    <row r="69" spans="1:31" ht="45">
       <c r="A69" s="32">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -18650,10 +18645,10 @@
       </c>
       <c r="P69" s="119"/>
       <c r="Q69" s="120"/>
-      <c r="R69" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S69" s="508"/>
+      <c r="R69" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S69" s="513"/>
       <c r="T69" s="51" t="s">
         <v>1665</v>
       </c>
@@ -18669,7 +18664,7 @@
       <c r="AD69" s="325"/>
       <c r="AE69" s="325"/>
     </row>
-    <row r="70" spans="1:31" ht="40.5">
+    <row r="70" spans="1:31" ht="45">
       <c r="A70" s="32">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -18690,7 +18685,7 @@
         <v>1043</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>192</v>
@@ -18715,11 +18710,11 @@
         <v>13</v>
       </c>
       <c r="P70" s="65"/>
-      <c r="Q70" s="514" t="s">
-        <v>1795</v>
-      </c>
-      <c r="R70" s="514"/>
-      <c r="S70" s="515"/>
+      <c r="Q70" s="526" t="s">
+        <v>1793</v>
+      </c>
+      <c r="R70" s="526"/>
+      <c r="S70" s="571"/>
       <c r="T70" s="51" t="s">
         <v>840</v>
       </c>
@@ -18747,7 +18742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="29.1" customHeight="1">
+    <row r="71" spans="1:31" ht="29" customHeight="1">
       <c r="A71" s="32">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -18768,7 +18763,7 @@
         <v>1059</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>1060</v>
@@ -18794,10 +18789,10 @@
       </c>
       <c r="P71" s="149"/>
       <c r="Q71" s="150"/>
-      <c r="R71" s="507" t="s">
-        <v>1797</v>
-      </c>
-      <c r="S71" s="508"/>
+      <c r="R71" s="512" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S71" s="513"/>
       <c r="T71" s="120" t="s">
         <v>841</v>
       </c>
@@ -18827,7 +18822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="54">
+    <row r="72" spans="1:31" ht="45">
       <c r="A72" s="32">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -18848,7 +18843,7 @@
         <v>1061</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>199</v>
@@ -18874,10 +18869,10 @@
       </c>
       <c r="P72" s="119"/>
       <c r="Q72" s="120"/>
-      <c r="R72" s="507" t="s">
-        <v>1799</v>
-      </c>
-      <c r="S72" s="508"/>
+      <c r="R72" s="512" t="s">
+        <v>1797</v>
+      </c>
+      <c r="S72" s="513"/>
       <c r="T72" s="120" t="s">
         <v>842</v>
       </c>
@@ -18893,7 +18888,7 @@
       <c r="AD72" s="159"/>
       <c r="AE72" s="85"/>
     </row>
-    <row r="73" spans="1:31" ht="54">
+    <row r="73" spans="1:31" ht="45">
       <c r="A73" s="32">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -18914,7 +18909,7 @@
         <v>1062</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>199</v>
@@ -18940,10 +18935,10 @@
       </c>
       <c r="P73" s="119"/>
       <c r="Q73" s="120"/>
-      <c r="R73" s="507" t="s">
-        <v>1801</v>
-      </c>
-      <c r="S73" s="508"/>
+      <c r="R73" s="512" t="s">
+        <v>1799</v>
+      </c>
+      <c r="S73" s="513"/>
       <c r="T73" s="120" t="s">
         <v>843</v>
       </c>
@@ -18980,7 +18975,7 @@
         <v>1063</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>204</v>
@@ -19006,10 +19001,10 @@
       </c>
       <c r="P74" s="119"/>
       <c r="Q74" s="120"/>
-      <c r="R74" s="507" t="s">
-        <v>1803</v>
-      </c>
-      <c r="S74" s="508"/>
+      <c r="R74" s="512" t="s">
+        <v>1801</v>
+      </c>
+      <c r="S74" s="513"/>
       <c r="T74" s="120" t="s">
         <v>844</v>
       </c>
@@ -19025,7 +19020,7 @@
       <c r="AD74" s="159"/>
       <c r="AE74" s="85"/>
     </row>
-    <row r="75" spans="1:31" ht="40.5">
+    <row r="75" spans="1:31" ht="45">
       <c r="A75" s="32">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -19046,7 +19041,7 @@
         <v>1064</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>207</v>
@@ -19072,10 +19067,10 @@
       </c>
       <c r="P75" s="149"/>
       <c r="Q75" s="150"/>
-      <c r="R75" s="507" t="s">
-        <v>1805</v>
-      </c>
-      <c r="S75" s="508"/>
+      <c r="R75" s="512" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S75" s="513"/>
       <c r="T75" s="120" t="s">
         <v>845</v>
       </c>
@@ -19105,7 +19100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="30.95" customHeight="1">
+    <row r="76" spans="1:31" ht="31" customHeight="1">
       <c r="A76" s="32">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -19126,7 +19121,7 @@
         <v>1065</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>381</v>
@@ -19152,10 +19147,10 @@
       </c>
       <c r="P76" s="119"/>
       <c r="Q76" s="120"/>
-      <c r="R76" s="507" t="s">
-        <v>1807</v>
-      </c>
-      <c r="S76" s="508"/>
+      <c r="R76" s="512" t="s">
+        <v>1805</v>
+      </c>
+      <c r="S76" s="513"/>
       <c r="T76" s="120" t="s">
         <v>846</v>
       </c>
@@ -19171,7 +19166,7 @@
       <c r="AD76" s="159"/>
       <c r="AE76" s="85"/>
     </row>
-    <row r="77" spans="1:31" ht="30.95" customHeight="1">
+    <row r="77" spans="1:31" ht="31" customHeight="1">
       <c r="A77" s="32">
         <f t="shared" ref="A77:A145" si="1">ROW()-2</f>
         <v>75</v>
@@ -19180,7 +19175,7 @@
         <v>211</v>
       </c>
       <c r="C77" s="137" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D77" s="65" t="s">
         <v>158</v>
@@ -19218,10 +19213,10 @@
       </c>
       <c r="P77" s="119"/>
       <c r="Q77" s="120"/>
-      <c r="R77" s="507" t="s">
-        <v>1809</v>
-      </c>
-      <c r="S77" s="508"/>
+      <c r="R77" s="512" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S77" s="513"/>
       <c r="T77" s="51" t="s">
         <v>847</v>
       </c>
@@ -19237,7 +19232,7 @@
       <c r="AD77" s="159"/>
       <c r="AE77" s="85"/>
     </row>
-    <row r="78" spans="1:31" ht="27">
+    <row r="78" spans="1:31" ht="30">
       <c r="A78" s="32">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19258,7 +19253,7 @@
         <v>1068</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>1069</v>
@@ -19285,11 +19280,11 @@
       <c r="P78" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q78" s="514" t="s">
-        <v>1811</v>
-      </c>
-      <c r="R78" s="514"/>
-      <c r="S78" s="515"/>
+      <c r="Q78" s="526" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R78" s="526"/>
+      <c r="S78" s="571"/>
       <c r="T78" s="70" t="s">
         <v>216</v>
       </c>
@@ -19356,10 +19351,10 @@
       <c r="Q79" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R79" s="512" t="s">
+      <c r="R79" s="509" t="s">
         <v>1674</v>
       </c>
-      <c r="S79" s="580"/>
+      <c r="S79" s="529"/>
       <c r="T79" s="92" t="s">
         <v>218</v>
       </c>
@@ -19389,7 +19384,7 @@
       <c r="AD79" s="160"/>
       <c r="AE79" s="160"/>
     </row>
-    <row r="80" spans="1:31" ht="29.1" customHeight="1">
+    <row r="80" spans="1:31" ht="29" customHeight="1">
       <c r="A80" s="32">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19430,10 +19425,10 @@
       <c r="Q80" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R80" s="512" t="s">
+      <c r="R80" s="509" t="s">
         <v>1675</v>
       </c>
-      <c r="S80" s="580"/>
+      <c r="S80" s="529"/>
       <c r="T80" s="92" t="s">
         <v>225</v>
       </c>
@@ -19463,7 +19458,7 @@
       <c r="AD80" s="160"/>
       <c r="AE80" s="160"/>
     </row>
-    <row r="81" spans="1:31" ht="27">
+    <row r="81" spans="1:31" ht="30">
       <c r="A81" s="32">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19484,7 +19479,7 @@
         <v>1070</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>221</v>
@@ -19514,10 +19509,10 @@
       <c r="Q81" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R81" s="507" t="s">
-        <v>1813</v>
-      </c>
-      <c r="S81" s="508"/>
+      <c r="R81" s="512" t="s">
+        <v>1811</v>
+      </c>
+      <c r="S81" s="513"/>
       <c r="T81" s="70" t="s">
         <v>223</v>
       </c>
@@ -19547,7 +19542,7 @@
       <c r="AD81" s="160"/>
       <c r="AE81" s="160"/>
     </row>
-    <row r="82" spans="1:31" ht="27">
+    <row r="82" spans="1:31" ht="30">
       <c r="A82" s="32">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19568,7 +19563,7 @@
         <v>1071</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>1072</v>
@@ -19598,10 +19593,10 @@
       <c r="Q82" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R82" s="507" t="s">
-        <v>1815</v>
-      </c>
-      <c r="S82" s="508"/>
+      <c r="R82" s="512" t="s">
+        <v>1813</v>
+      </c>
+      <c r="S82" s="513"/>
       <c r="T82" s="70" t="s">
         <v>229</v>
       </c>
@@ -19631,7 +19626,7 @@
       <c r="AD82" s="160"/>
       <c r="AE82" s="160"/>
     </row>
-    <row r="83" spans="1:31" ht="27">
+    <row r="83" spans="1:31" ht="30">
       <c r="A83" s="32">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19652,7 +19647,7 @@
         <v>1073</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>1074</v>
@@ -19678,10 +19673,10 @@
       </c>
       <c r="P83" s="65"/>
       <c r="Q83" s="66"/>
-      <c r="R83" s="507" t="s">
-        <v>1817</v>
-      </c>
-      <c r="S83" s="508"/>
+      <c r="R83" s="512" t="s">
+        <v>1815</v>
+      </c>
+      <c r="S83" s="513"/>
       <c r="T83" s="70" t="s">
         <v>232</v>
       </c>
@@ -19713,7 +19708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="27">
+    <row r="84" spans="1:31" ht="30">
       <c r="A84" s="32">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19734,7 +19729,7 @@
         <v>1075</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>1076</v>
@@ -19758,12 +19753,12 @@
       <c r="O84" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P84" s="518" t="s">
-        <v>1819</v>
-      </c>
-      <c r="Q84" s="514"/>
-      <c r="R84" s="514"/>
-      <c r="S84" s="515"/>
+      <c r="P84" s="572" t="s">
+        <v>1817</v>
+      </c>
+      <c r="Q84" s="526"/>
+      <c r="R84" s="526"/>
+      <c r="S84" s="571"/>
       <c r="T84" s="70" t="s">
         <v>235</v>
       </c>
@@ -19789,7 +19784,7 @@
       <c r="AD84" s="160"/>
       <c r="AE84" s="160"/>
     </row>
-    <row r="85" spans="1:31" ht="27">
+    <row r="85" spans="1:31" ht="30">
       <c r="A85" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19810,7 +19805,7 @@
         <v>1077</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>1078</v>
@@ -19837,11 +19832,11 @@
       <c r="P85" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q85" s="507" t="s">
-        <v>1821</v>
-      </c>
-      <c r="R85" s="507"/>
-      <c r="S85" s="508"/>
+      <c r="Q85" s="512" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R85" s="512"/>
+      <c r="S85" s="513"/>
       <c r="T85" s="70" t="s">
         <v>239</v>
       </c>
@@ -19871,7 +19866,7 @@
       </c>
       <c r="AE85" s="160"/>
     </row>
-    <row r="86" spans="1:31" ht="40.5">
+    <row r="86" spans="1:31" ht="45">
       <c r="A86" s="32">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19892,7 +19887,7 @@
         <v>1079</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>242</v>
@@ -19917,11 +19912,11 @@
         <v>13</v>
       </c>
       <c r="P86" s="119"/>
-      <c r="Q86" s="507" t="s">
-        <v>1823</v>
-      </c>
-      <c r="R86" s="507"/>
-      <c r="S86" s="508"/>
+      <c r="Q86" s="512" t="s">
+        <v>1821</v>
+      </c>
+      <c r="R86" s="512"/>
+      <c r="S86" s="513"/>
       <c r="T86" s="115" t="s">
         <v>11</v>
       </c>
@@ -19939,7 +19934,7 @@
       <c r="AD86" s="159"/>
       <c r="AE86" s="85"/>
     </row>
-    <row r="87" spans="1:31" ht="27">
+    <row r="87" spans="1:31" ht="30">
       <c r="A87" s="32">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19960,7 +19955,7 @@
         <v>1080</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>1081</v>
@@ -19987,11 +19982,11 @@
       <c r="P87" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q87" s="507" t="s">
-        <v>1825</v>
-      </c>
-      <c r="R87" s="507"/>
-      <c r="S87" s="508"/>
+      <c r="Q87" s="512" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R87" s="512"/>
+      <c r="S87" s="513"/>
       <c r="T87" s="70" t="s">
         <v>246</v>
       </c>
@@ -20019,7 +20014,7 @@
       <c r="AD87" s="160"/>
       <c r="AE87" s="160"/>
     </row>
-    <row r="88" spans="1:31" ht="54">
+    <row r="88" spans="1:31" ht="60">
       <c r="A88" s="32">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20058,10 +20053,10 @@
       </c>
       <c r="P88" s="119"/>
       <c r="Q88" s="120"/>
-      <c r="R88" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S88" s="508"/>
+      <c r="R88" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S88" s="513"/>
       <c r="T88" s="51" t="s">
         <v>1664</v>
       </c>
@@ -20098,7 +20093,7 @@
         <v>1083</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>1084</v>
@@ -20125,11 +20120,11 @@
       <c r="P89" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q89" s="507" t="s">
-        <v>1827</v>
-      </c>
-      <c r="R89" s="507"/>
-      <c r="S89" s="508"/>
+      <c r="Q89" s="512" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R89" s="512"/>
+      <c r="S89" s="513"/>
       <c r="T89" s="70" t="s">
         <v>994</v>
       </c>
@@ -20157,7 +20152,7 @@
       <c r="AD89" s="160"/>
       <c r="AE89" s="160"/>
     </row>
-    <row r="90" spans="1:31" ht="54">
+    <row r="90" spans="1:31" ht="60">
       <c r="A90" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20196,10 +20191,10 @@
       </c>
       <c r="P90" s="459"/>
       <c r="Q90" s="459"/>
-      <c r="R90" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S90" s="508"/>
+      <c r="R90" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S90" s="513"/>
       <c r="T90" s="51" t="s">
         <v>1664</v>
       </c>
@@ -20215,7 +20210,7 @@
       <c r="AD90" s="325"/>
       <c r="AE90" s="325"/>
     </row>
-    <row r="91" spans="1:31" ht="40.5">
+    <row r="91" spans="1:31" ht="30">
       <c r="A91" s="32">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20236,7 +20231,7 @@
         <v>1548</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>1549</v>
@@ -20263,11 +20258,11 @@
       <c r="P91" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="514" t="s">
-        <v>1829</v>
-      </c>
-      <c r="R91" s="519"/>
-      <c r="S91" s="520"/>
+      <c r="Q91" s="526" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R91" s="527"/>
+      <c r="S91" s="528"/>
       <c r="T91" s="70" t="s">
         <v>257</v>
       </c>
@@ -20281,11 +20276,11 @@
       <c r="X91" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Y91" s="514" t="s">
+      <c r="Y91" s="526" t="s">
         <v>1631</v>
       </c>
-      <c r="Z91" s="519"/>
-      <c r="AA91" s="520"/>
+      <c r="Z91" s="527"/>
+      <c r="AA91" s="528"/>
       <c r="AB91" s="321" t="s">
         <v>257</v>
       </c>
@@ -20297,7 +20292,7 @@
       </c>
       <c r="AE91" s="160"/>
     </row>
-    <row r="92" spans="1:31" ht="40.5">
+    <row r="92" spans="1:31" ht="45">
       <c r="A92" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20318,7 +20313,7 @@
         <v>1086</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>1087</v>
@@ -20343,11 +20338,11 @@
         <v>13</v>
       </c>
       <c r="P92" s="119"/>
-      <c r="Q92" s="507" t="s">
-        <v>1831</v>
-      </c>
-      <c r="R92" s="510"/>
-      <c r="S92" s="511"/>
+      <c r="Q92" s="512" t="s">
+        <v>1829</v>
+      </c>
+      <c r="R92" s="517"/>
+      <c r="S92" s="518"/>
       <c r="T92" s="132" t="s">
         <v>256</v>
       </c>
@@ -20365,7 +20360,7 @@
       <c r="AD92" s="159"/>
       <c r="AE92" s="85"/>
     </row>
-    <row r="93" spans="1:31" ht="40.5">
+    <row r="93" spans="1:31" ht="45">
       <c r="A93" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20404,10 +20399,10 @@
       </c>
       <c r="P93" s="459"/>
       <c r="Q93" s="459"/>
-      <c r="R93" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S93" s="508"/>
+      <c r="R93" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S93" s="513"/>
       <c r="T93" s="51" t="s">
         <v>1665</v>
       </c>
@@ -20423,7 +20418,7 @@
       <c r="AD93" s="159"/>
       <c r="AE93" s="85"/>
     </row>
-    <row r="94" spans="1:31" ht="40.5">
+    <row r="94" spans="1:31" ht="45">
       <c r="A94" s="32">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20444,7 +20439,7 @@
         <v>1089</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>260</v>
@@ -20469,11 +20464,11 @@
         <v>13</v>
       </c>
       <c r="P94" s="65"/>
-      <c r="Q94" s="514" t="s">
-        <v>1833</v>
-      </c>
-      <c r="R94" s="519"/>
-      <c r="S94" s="520"/>
+      <c r="Q94" s="526" t="s">
+        <v>1831</v>
+      </c>
+      <c r="R94" s="527"/>
+      <c r="S94" s="528"/>
       <c r="T94" s="70" t="s">
         <v>262</v>
       </c>
@@ -20503,7 +20498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="30.95" customHeight="1">
+    <row r="95" spans="1:31" ht="31" customHeight="1">
       <c r="A95" s="32">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20524,7 +20519,7 @@
         <v>1090</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>1060</v>
@@ -20550,10 +20545,10 @@
       </c>
       <c r="P95" s="149"/>
       <c r="Q95" s="150"/>
-      <c r="R95" s="507" t="s">
-        <v>1835</v>
-      </c>
-      <c r="S95" s="508"/>
+      <c r="R95" s="512" t="s">
+        <v>1833</v>
+      </c>
+      <c r="S95" s="513"/>
       <c r="T95" s="151" t="s">
         <v>834</v>
       </c>
@@ -20583,7 +20578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="54">
+    <row r="96" spans="1:31" ht="45">
       <c r="A96" s="32">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20630,10 +20625,10 @@
       </c>
       <c r="P96" s="119"/>
       <c r="Q96" s="120"/>
-      <c r="R96" s="507" t="s">
-        <v>1836</v>
-      </c>
-      <c r="S96" s="508"/>
+      <c r="R96" s="512" t="s">
+        <v>1834</v>
+      </c>
+      <c r="S96" s="513"/>
       <c r="T96" s="120" t="s">
         <v>835</v>
       </c>
@@ -20649,7 +20644,7 @@
       <c r="AD96" s="159"/>
       <c r="AE96" s="85"/>
     </row>
-    <row r="97" spans="1:31" ht="54">
+    <row r="97" spans="1:31" ht="45">
       <c r="A97" s="32">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20696,10 +20691,10 @@
       </c>
       <c r="P97" s="119"/>
       <c r="Q97" s="120"/>
-      <c r="R97" s="507" t="s">
-        <v>1837</v>
-      </c>
-      <c r="S97" s="508"/>
+      <c r="R97" s="512" t="s">
+        <v>1835</v>
+      </c>
+      <c r="S97" s="513"/>
       <c r="T97" s="120" t="s">
         <v>836</v>
       </c>
@@ -20715,7 +20710,7 @@
       <c r="AD97" s="159"/>
       <c r="AE97" s="85"/>
     </row>
-    <row r="98" spans="1:31" ht="40.5">
+    <row r="98" spans="1:31" ht="45">
       <c r="A98" s="32">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20736,7 +20731,7 @@
         <v>1093</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>271</v>
@@ -20762,10 +20757,10 @@
       </c>
       <c r="P98" s="119"/>
       <c r="Q98" s="120"/>
-      <c r="R98" s="507" t="s">
-        <v>1839</v>
-      </c>
-      <c r="S98" s="508"/>
+      <c r="R98" s="512" t="s">
+        <v>1837</v>
+      </c>
+      <c r="S98" s="513"/>
       <c r="T98" s="120" t="s">
         <v>837</v>
       </c>
@@ -20781,7 +20776,7 @@
       <c r="AD98" s="159"/>
       <c r="AE98" s="85"/>
     </row>
-    <row r="99" spans="1:31" ht="40.5">
+    <row r="99" spans="1:31" ht="45">
       <c r="A99" s="32">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20802,7 +20797,7 @@
         <v>1094</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>207</v>
@@ -20828,10 +20823,10 @@
       </c>
       <c r="P99" s="149"/>
       <c r="Q99" s="150"/>
-      <c r="R99" s="507" t="s">
-        <v>1841</v>
-      </c>
-      <c r="S99" s="508"/>
+      <c r="R99" s="512" t="s">
+        <v>1839</v>
+      </c>
+      <c r="S99" s="513"/>
       <c r="T99" s="120" t="s">
         <v>838</v>
       </c>
@@ -20861,7 +20856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="29.1" customHeight="1">
+    <row r="100" spans="1:31" ht="29" customHeight="1">
       <c r="A100" s="32">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20882,7 +20877,7 @@
         <v>1095</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>381</v>
@@ -20908,10 +20903,10 @@
       </c>
       <c r="P100" s="119"/>
       <c r="Q100" s="120"/>
-      <c r="R100" s="507" t="s">
-        <v>1843</v>
-      </c>
-      <c r="S100" s="508"/>
+      <c r="R100" s="512" t="s">
+        <v>1841</v>
+      </c>
+      <c r="S100" s="513"/>
       <c r="T100" s="120" t="s">
         <v>277</v>
       </c>
@@ -20927,7 +20922,7 @@
       <c r="AD100" s="159"/>
       <c r="AE100" s="85"/>
     </row>
-    <row r="101" spans="1:31" ht="29.1" customHeight="1">
+    <row r="101" spans="1:31" ht="29" customHeight="1">
       <c r="A101" s="32">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -20948,7 +20943,7 @@
         <v>1096</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>212</v>
@@ -20974,10 +20969,10 @@
       </c>
       <c r="P101" s="119"/>
       <c r="Q101" s="120"/>
-      <c r="R101" s="507" t="s">
-        <v>1845</v>
-      </c>
-      <c r="S101" s="508"/>
+      <c r="R101" s="512" t="s">
+        <v>1843</v>
+      </c>
+      <c r="S101" s="513"/>
       <c r="T101" s="51" t="s">
         <v>839</v>
       </c>
@@ -20993,7 +20988,7 @@
       <c r="AD101" s="159"/>
       <c r="AE101" s="85"/>
     </row>
-    <row r="102" spans="1:31" ht="40.5">
+    <row r="102" spans="1:31" ht="45">
       <c r="A102" s="32">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -21014,7 +21009,7 @@
         <v>1097</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>282</v>
@@ -21041,11 +21036,11 @@
       <c r="P102" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q102" s="507" t="s">
-        <v>1847</v>
-      </c>
-      <c r="R102" s="507"/>
-      <c r="S102" s="508"/>
+      <c r="Q102" s="512" t="s">
+        <v>1845</v>
+      </c>
+      <c r="R102" s="512"/>
+      <c r="S102" s="513"/>
       <c r="T102" s="70" t="s">
         <v>216</v>
       </c>
@@ -21071,7 +21066,7 @@
       <c r="AD102" s="160"/>
       <c r="AE102" s="160"/>
     </row>
-    <row r="103" spans="1:31" ht="30.95" customHeight="1">
+    <row r="103" spans="1:31" ht="31" customHeight="1">
       <c r="A103" s="32">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -21112,10 +21107,10 @@
       <c r="Q103" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R103" s="512" t="s">
+      <c r="R103" s="509" t="s">
         <v>1676</v>
       </c>
-      <c r="S103" s="513"/>
+      <c r="S103" s="510"/>
       <c r="T103" s="92" t="s">
         <v>285</v>
       </c>
@@ -21145,7 +21140,7 @@
       <c r="AD103" s="160"/>
       <c r="AE103" s="160"/>
     </row>
-    <row r="104" spans="1:31" ht="29.1" customHeight="1">
+    <row r="104" spans="1:31" ht="29" customHeight="1">
       <c r="A104" s="32">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -21186,10 +21181,10 @@
       <c r="Q104" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R104" s="512" t="s">
+      <c r="R104" s="509" t="s">
         <v>1677</v>
       </c>
-      <c r="S104" s="513"/>
+      <c r="S104" s="510"/>
       <c r="T104" s="92" t="s">
         <v>287</v>
       </c>
@@ -21219,7 +21214,7 @@
       <c r="AD104" s="160"/>
       <c r="AE104" s="160"/>
     </row>
-    <row r="105" spans="1:31" ht="27">
+    <row r="105" spans="1:31" ht="30">
       <c r="A105" s="32">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -21240,7 +21235,7 @@
         <v>1098</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>221</v>
@@ -21270,10 +21265,10 @@
       <c r="Q105" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R105" s="507" t="s">
-        <v>1849</v>
-      </c>
-      <c r="S105" s="508"/>
+      <c r="R105" s="512" t="s">
+        <v>1847</v>
+      </c>
+      <c r="S105" s="513"/>
       <c r="T105" s="70" t="s">
         <v>291</v>
       </c>
@@ -21303,7 +21298,7 @@
       <c r="AD105" s="160"/>
       <c r="AE105" s="160"/>
     </row>
-    <row r="106" spans="1:31" ht="27">
+    <row r="106" spans="1:31" ht="30">
       <c r="A106" s="32">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -21324,7 +21319,7 @@
         <v>1099</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>1072</v>
@@ -21354,10 +21349,10 @@
       <c r="Q106" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R106" s="507" t="s">
-        <v>1851</v>
-      </c>
-      <c r="S106" s="508"/>
+      <c r="R106" s="512" t="s">
+        <v>1849</v>
+      </c>
+      <c r="S106" s="513"/>
       <c r="T106" s="70" t="s">
         <v>295</v>
       </c>
@@ -21387,7 +21382,7 @@
       <c r="AD106" s="160"/>
       <c r="AE106" s="160"/>
     </row>
-    <row r="107" spans="1:31" ht="27">
+    <row r="107" spans="1:31" ht="30">
       <c r="A107" s="32">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -21408,7 +21403,7 @@
         <v>1100</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>1074</v>
@@ -21434,10 +21429,10 @@
       </c>
       <c r="P107" s="65"/>
       <c r="Q107" s="66"/>
-      <c r="R107" s="507" t="s">
-        <v>1853</v>
-      </c>
-      <c r="S107" s="508"/>
+      <c r="R107" s="512" t="s">
+        <v>1851</v>
+      </c>
+      <c r="S107" s="513"/>
       <c r="T107" s="70" t="s">
         <v>298</v>
       </c>
@@ -21469,7 +21464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="40.5">
+    <row r="108" spans="1:31" ht="45">
       <c r="A108" s="32">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -21490,7 +21485,7 @@
         <v>1101</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>301</v>
@@ -21514,12 +21509,12 @@
       <c r="O108" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P108" s="518" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Q108" s="514"/>
-      <c r="R108" s="514"/>
-      <c r="S108" s="515"/>
+      <c r="P108" s="572" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Q108" s="526"/>
+      <c r="R108" s="526"/>
+      <c r="S108" s="571"/>
       <c r="T108" s="70" t="s">
         <v>975</v>
       </c>
@@ -21545,7 +21540,7 @@
       <c r="AD108" s="160"/>
       <c r="AE108" s="160"/>
     </row>
-    <row r="109" spans="1:31" ht="33.950000000000003" customHeight="1">
+    <row r="109" spans="1:31" ht="34" customHeight="1">
       <c r="A109" s="32">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -21566,7 +21561,7 @@
         <v>1102</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>305</v>
@@ -21593,11 +21588,11 @@
       <c r="P109" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q109" s="514" t="s">
-        <v>1857</v>
-      </c>
-      <c r="R109" s="514"/>
-      <c r="S109" s="515"/>
+      <c r="Q109" s="526" t="s">
+        <v>1855</v>
+      </c>
+      <c r="R109" s="526"/>
+      <c r="S109" s="571"/>
       <c r="T109" s="70" t="s">
         <v>891</v>
       </c>
@@ -21625,7 +21620,7 @@
       <c r="AD109" s="160"/>
       <c r="AE109" s="160"/>
     </row>
-    <row r="110" spans="1:31" ht="27">
+    <row r="110" spans="1:31" ht="30">
       <c r="A110" s="32">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -21646,7 +21641,7 @@
         <v>1103</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>1104</v>
@@ -21673,11 +21668,11 @@
       <c r="P110" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q110" s="514" t="s">
-        <v>1859</v>
-      </c>
-      <c r="R110" s="514"/>
-      <c r="S110" s="515"/>
+      <c r="Q110" s="526" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R110" s="526"/>
+      <c r="S110" s="571"/>
       <c r="T110" s="70" t="s">
         <v>310</v>
       </c>
@@ -21705,7 +21700,7 @@
       <c r="AD110" s="160"/>
       <c r="AE110" s="160"/>
     </row>
-    <row r="111" spans="1:31" ht="54">
+    <row r="111" spans="1:31" ht="60">
       <c r="A111" s="32">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -21744,10 +21739,10 @@
       </c>
       <c r="P111" s="459"/>
       <c r="Q111" s="459"/>
-      <c r="R111" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S111" s="508"/>
+      <c r="R111" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S111" s="513"/>
       <c r="T111" s="51" t="s">
         <v>1664</v>
       </c>
@@ -21763,7 +21758,7 @@
       <c r="AD111" s="325"/>
       <c r="AE111" s="325"/>
     </row>
-    <row r="112" spans="1:31" ht="40.5">
+    <row r="112" spans="1:31" ht="45">
       <c r="A112" s="32">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -21784,7 +21779,7 @@
         <v>1106</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>1107</v>
@@ -21811,11 +21806,11 @@
       <c r="P112" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q112" s="514" t="s">
-        <v>1861</v>
-      </c>
-      <c r="R112" s="514"/>
-      <c r="S112" s="515"/>
+      <c r="Q112" s="526" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R112" s="526"/>
+      <c r="S112" s="571"/>
       <c r="T112" s="70" t="s">
         <v>976</v>
       </c>
@@ -21843,7 +21838,7 @@
       <c r="AD112" s="160"/>
       <c r="AE112" s="160"/>
     </row>
-    <row r="113" spans="1:31" ht="54">
+    <row r="113" spans="1:31" ht="60">
       <c r="A113" s="32">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -21882,10 +21877,10 @@
       </c>
       <c r="P113" s="459"/>
       <c r="Q113" s="459"/>
-      <c r="R113" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S113" s="508"/>
+      <c r="R113" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S113" s="513"/>
       <c r="T113" s="460" t="s">
         <v>1663</v>
       </c>
@@ -21931,11 +21926,11 @@
       <c r="P114" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q114" s="512" t="s">
-        <v>1862</v>
-      </c>
-      <c r="R114" s="512"/>
-      <c r="S114" s="513"/>
+      <c r="Q114" s="509" t="s">
+        <v>1860</v>
+      </c>
+      <c r="R114" s="509"/>
+      <c r="S114" s="510"/>
       <c r="T114" s="92" t="s">
         <v>302</v>
       </c>
@@ -22004,10 +21999,10 @@
       <c r="Q115" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R115" s="512" t="s">
-        <v>1863</v>
-      </c>
-      <c r="S115" s="513"/>
+      <c r="R115" s="509" t="s">
+        <v>1861</v>
+      </c>
+      <c r="S115" s="510"/>
       <c r="T115" s="92" t="s">
         <v>317</v>
       </c>
@@ -22078,10 +22073,10 @@
       <c r="Q116" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R116" s="512" t="s">
-        <v>1864</v>
-      </c>
-      <c r="S116" s="513"/>
+      <c r="R116" s="509" t="s">
+        <v>1862</v>
+      </c>
+      <c r="S116" s="510"/>
       <c r="T116" s="92" t="s">
         <v>321</v>
       </c>
@@ -22152,10 +22147,10 @@
       <c r="Q117" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R117" s="512" t="s">
-        <v>1865</v>
-      </c>
-      <c r="S117" s="513"/>
+      <c r="R117" s="509" t="s">
+        <v>1863</v>
+      </c>
+      <c r="S117" s="510"/>
       <c r="T117" s="92" t="s">
         <v>319</v>
       </c>
@@ -22226,10 +22221,10 @@
       <c r="Q118" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R118" s="512" t="s">
-        <v>1866</v>
-      </c>
-      <c r="S118" s="513"/>
+      <c r="R118" s="509" t="s">
+        <v>1864</v>
+      </c>
+      <c r="S118" s="510"/>
       <c r="T118" s="92" t="s">
         <v>323</v>
       </c>
@@ -22259,7 +22254,7 @@
       <c r="AD118" s="160"/>
       <c r="AE118" s="160"/>
     </row>
-    <row r="119" spans="1:31" ht="54">
+    <row r="119" spans="1:31" ht="60">
       <c r="A119" s="32">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -22294,14 +22289,14 @@
       <c r="O119" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="P119" s="521" t="s">
-        <v>1867</v>
-      </c>
-      <c r="Q119" s="512"/>
-      <c r="R119" s="512"/>
-      <c r="S119" s="513"/>
+      <c r="P119" s="511" t="s">
+        <v>1865</v>
+      </c>
+      <c r="Q119" s="509"/>
+      <c r="R119" s="509"/>
+      <c r="S119" s="510"/>
       <c r="T119" s="92" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="U119" s="93"/>
       <c r="V119" s="62" t="s">
@@ -22323,7 +22318,7 @@
       <c r="AD119" s="160"/>
       <c r="AE119" s="160"/>
     </row>
-    <row r="120" spans="1:31" ht="32.1" customHeight="1">
+    <row r="120" spans="1:31" ht="32" customHeight="1">
       <c r="A120" s="32">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -22350,7 +22345,7 @@
         <v>23</v>
       </c>
       <c r="M120" s="68" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="N120" s="167" t="s">
         <v>128</v>
@@ -22361,13 +22356,13 @@
       <c r="P120" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q120" s="512" t="s">
-        <v>1868</v>
-      </c>
-      <c r="R120" s="512"/>
-      <c r="S120" s="513"/>
+      <c r="Q120" s="509" t="s">
+        <v>1866</v>
+      </c>
+      <c r="R120" s="509"/>
+      <c r="S120" s="510"/>
       <c r="T120" s="92" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="U120" s="93"/>
       <c r="V120" s="72" t="s">
@@ -22393,7 +22388,7 @@
       <c r="AD120" s="160"/>
       <c r="AE120" s="160"/>
     </row>
-    <row r="121" spans="1:31" ht="32.1" customHeight="1">
+    <row r="121" spans="1:31" ht="32" customHeight="1">
       <c r="A121" s="32">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -22420,7 +22415,7 @@
         <v>53</v>
       </c>
       <c r="M121" s="68" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="N121" s="167" t="s">
         <v>128</v>
@@ -22431,13 +22426,13 @@
       <c r="P121" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q121" s="512" t="s">
-        <v>1872</v>
-      </c>
-      <c r="R121" s="512"/>
-      <c r="S121" s="513"/>
+      <c r="Q121" s="509" t="s">
+        <v>1870</v>
+      </c>
+      <c r="R121" s="509"/>
+      <c r="S121" s="510"/>
       <c r="T121" s="92" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="U121" s="93"/>
       <c r="V121" s="72" t="s">
@@ -22463,7 +22458,7 @@
       <c r="AD121" s="160"/>
       <c r="AE121" s="160"/>
     </row>
-    <row r="122" spans="1:31" ht="32.1" customHeight="1">
+    <row r="122" spans="1:31" ht="32" customHeight="1">
       <c r="A122" s="32">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -22490,7 +22485,7 @@
         <v>53</v>
       </c>
       <c r="M122" s="68" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="N122" s="167" t="s">
         <v>128</v>
@@ -22501,13 +22496,13 @@
       <c r="P122" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q122" s="512" t="s">
-        <v>1873</v>
-      </c>
-      <c r="R122" s="512"/>
-      <c r="S122" s="513"/>
+      <c r="Q122" s="509" t="s">
+        <v>1871</v>
+      </c>
+      <c r="R122" s="509"/>
+      <c r="S122" s="510"/>
       <c r="T122" s="92" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="U122" s="93"/>
       <c r="V122" s="72" t="s">
@@ -22533,7 +22528,7 @@
       <c r="AD122" s="160"/>
       <c r="AE122" s="160"/>
     </row>
-    <row r="123" spans="1:31" ht="32.1" customHeight="1">
+    <row r="123" spans="1:31" ht="32" customHeight="1">
       <c r="A123" s="32">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -22571,13 +22566,13 @@
       <c r="P123" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q123" s="512" t="s">
-        <v>1875</v>
-      </c>
-      <c r="R123" s="512"/>
-      <c r="S123" s="513"/>
+      <c r="Q123" s="509" t="s">
+        <v>1873</v>
+      </c>
+      <c r="R123" s="509"/>
+      <c r="S123" s="510"/>
       <c r="T123" s="92" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="U123" s="93"/>
       <c r="V123" s="72" t="s">
@@ -22601,7 +22596,7 @@
       <c r="AD123" s="160"/>
       <c r="AE123" s="160"/>
     </row>
-    <row r="124" spans="1:31" ht="32.1" customHeight="1">
+    <row r="124" spans="1:31" ht="32" customHeight="1">
       <c r="A124" s="32">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -22642,12 +22637,12 @@
       <c r="Q124" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R124" s="512" t="s">
-        <v>1886</v>
-      </c>
-      <c r="S124" s="513"/>
+      <c r="R124" s="509" t="s">
+        <v>1884</v>
+      </c>
+      <c r="S124" s="510"/>
       <c r="T124" s="92" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="U124" s="93"/>
       <c r="V124" s="72" t="s">
@@ -22675,7 +22670,7 @@
       <c r="AD124" s="160"/>
       <c r="AE124" s="160"/>
     </row>
-    <row r="125" spans="1:31" ht="32.1" customHeight="1">
+    <row r="125" spans="1:31" ht="32" customHeight="1">
       <c r="A125" s="32">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -22702,7 +22697,7 @@
         <v>23</v>
       </c>
       <c r="M125" s="68" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="N125" s="167" t="s">
         <v>158</v>
@@ -22716,12 +22711,12 @@
       <c r="Q125" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R125" s="512" t="s">
-        <v>1887</v>
-      </c>
-      <c r="S125" s="513"/>
+      <c r="R125" s="509" t="s">
+        <v>1885</v>
+      </c>
+      <c r="S125" s="510"/>
       <c r="T125" s="92" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="U125" s="93"/>
       <c r="V125" s="72" t="s">
@@ -22749,7 +22744,7 @@
       <c r="AD125" s="160"/>
       <c r="AE125" s="160"/>
     </row>
-    <row r="126" spans="1:31" ht="32.1" customHeight="1">
+    <row r="126" spans="1:31" ht="32" customHeight="1">
       <c r="A126" s="32">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -22776,7 +22771,7 @@
         <v>23</v>
       </c>
       <c r="M126" s="68" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N126" s="167" t="s">
         <v>158</v>
@@ -22790,12 +22785,12 @@
       <c r="Q126" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R126" s="512" t="s">
-        <v>1888</v>
-      </c>
-      <c r="S126" s="513"/>
+      <c r="R126" s="509" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S126" s="510"/>
       <c r="T126" s="92" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="U126" s="93"/>
       <c r="V126" s="72" t="s">
@@ -22823,7 +22818,7 @@
       <c r="AD126" s="160"/>
       <c r="AE126" s="160"/>
     </row>
-    <row r="127" spans="1:31" ht="32.1" customHeight="1">
+    <row r="127" spans="1:31" ht="32" customHeight="1">
       <c r="A127" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -22864,12 +22859,12 @@
       <c r="Q127" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R127" s="512" t="s">
-        <v>1889</v>
-      </c>
-      <c r="S127" s="513"/>
+      <c r="R127" s="509" t="s">
+        <v>1887</v>
+      </c>
+      <c r="S127" s="510"/>
       <c r="T127" s="92" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="U127" s="93"/>
       <c r="V127" s="72" t="s">
@@ -22897,7 +22892,7 @@
       <c r="AD127" s="160"/>
       <c r="AE127" s="160"/>
     </row>
-    <row r="128" spans="1:31" ht="40.5">
+    <row r="128" spans="1:31" ht="45">
       <c r="A128" s="32">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -22918,7 +22913,7 @@
         <v>1109</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>341</v>
@@ -22942,12 +22937,12 @@
       <c r="O128" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P128" s="518" t="s">
-        <v>1891</v>
-      </c>
-      <c r="Q128" s="514"/>
-      <c r="R128" s="514"/>
-      <c r="S128" s="515"/>
+      <c r="P128" s="572" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Q128" s="526"/>
+      <c r="R128" s="526"/>
+      <c r="S128" s="571"/>
       <c r="T128" s="70" t="s">
         <v>342</v>
       </c>
@@ -22971,7 +22966,7 @@
       <c r="AD128" s="160"/>
       <c r="AE128" s="160"/>
     </row>
-    <row r="129" spans="1:31" ht="29.1" customHeight="1">
+    <row r="129" spans="1:31" ht="29" customHeight="1">
       <c r="A129" s="32">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -23009,11 +23004,11 @@
       <c r="P129" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q129" s="512" t="s">
-        <v>1894</v>
-      </c>
-      <c r="R129" s="512"/>
-      <c r="S129" s="513"/>
+      <c r="Q129" s="509" t="s">
+        <v>1892</v>
+      </c>
+      <c r="R129" s="509"/>
+      <c r="S129" s="510"/>
       <c r="T129" s="92" t="s">
         <v>344</v>
       </c>
@@ -23041,7 +23036,7 @@
       <c r="AD129" s="160"/>
       <c r="AE129" s="160"/>
     </row>
-    <row r="130" spans="1:31" ht="44.1" customHeight="1">
+    <row r="130" spans="1:31" ht="44" customHeight="1">
       <c r="A130" s="32">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -23079,11 +23074,11 @@
       <c r="P130" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q130" s="512" t="s">
-        <v>1895</v>
-      </c>
-      <c r="R130" s="512"/>
-      <c r="S130" s="513"/>
+      <c r="Q130" s="509" t="s">
+        <v>1893</v>
+      </c>
+      <c r="R130" s="509"/>
+      <c r="S130" s="510"/>
       <c r="T130" s="92" t="s">
         <v>977</v>
       </c>
@@ -23111,7 +23106,7 @@
       <c r="AD130" s="160"/>
       <c r="AE130" s="160"/>
     </row>
-    <row r="131" spans="1:31" ht="27">
+    <row r="131" spans="1:31" ht="30">
       <c r="A131" s="32">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -23120,7 +23115,7 @@
         <v>347</v>
       </c>
       <c r="C131" s="137" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D131" s="65" t="s">
         <v>128</v>
@@ -23159,11 +23154,11 @@
       <c r="P131" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q131" s="514" t="s">
-        <v>1896</v>
-      </c>
-      <c r="R131" s="514"/>
-      <c r="S131" s="515"/>
+      <c r="Q131" s="526" t="s">
+        <v>1894</v>
+      </c>
+      <c r="R131" s="526"/>
+      <c r="S131" s="571"/>
       <c r="T131" s="70" t="s">
         <v>350</v>
       </c>
@@ -23241,11 +23236,11 @@
       <c r="P132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q132" s="514" t="s">
-        <v>1897</v>
-      </c>
-      <c r="R132" s="514"/>
-      <c r="S132" s="515"/>
+      <c r="Q132" s="526" t="s">
+        <v>1895</v>
+      </c>
+      <c r="R132" s="526"/>
+      <c r="S132" s="571"/>
       <c r="T132" s="70" t="s">
         <v>185</v>
       </c>
@@ -23259,11 +23254,11 @@
       <c r="X132" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Y132" s="514" t="s">
+      <c r="Y132" s="526" t="s">
         <v>1630</v>
       </c>
-      <c r="Z132" s="519"/>
-      <c r="AA132" s="520"/>
+      <c r="Z132" s="527"/>
+      <c r="AA132" s="528"/>
       <c r="AB132" s="321" t="s">
         <v>185</v>
       </c>
@@ -23275,7 +23270,7 @@
       </c>
       <c r="AE132" s="160"/>
     </row>
-    <row r="133" spans="1:31" ht="50.1" customHeight="1">
+    <row r="133" spans="1:31" ht="50" customHeight="1">
       <c r="A133" s="32">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -23313,11 +23308,11 @@
       <c r="P133" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q133" s="512" t="s">
-        <v>1898</v>
-      </c>
-      <c r="R133" s="512"/>
-      <c r="S133" s="513"/>
+      <c r="Q133" s="509" t="s">
+        <v>1896</v>
+      </c>
+      <c r="R133" s="509"/>
+      <c r="S133" s="510"/>
       <c r="T133" s="92" t="s">
         <v>354</v>
       </c>
@@ -23343,7 +23338,7 @@
       <c r="AD133" s="160"/>
       <c r="AE133" s="160"/>
     </row>
-    <row r="134" spans="1:31" ht="48.95" customHeight="1">
+    <row r="134" spans="1:31" ht="49" customHeight="1">
       <c r="A134" s="32">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -23384,10 +23379,10 @@
       <c r="Q134" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R134" s="512" t="s">
-        <v>1899</v>
-      </c>
-      <c r="S134" s="513"/>
+      <c r="R134" s="509" t="s">
+        <v>1897</v>
+      </c>
+      <c r="S134" s="510"/>
       <c r="T134" s="92" t="s">
         <v>356</v>
       </c>
@@ -23417,7 +23412,7 @@
       <c r="AD134" s="160"/>
       <c r="AE134" s="160"/>
     </row>
-    <row r="135" spans="1:31" ht="48.95" customHeight="1">
+    <row r="135" spans="1:31" ht="49" customHeight="1">
       <c r="A135" s="32">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -23458,10 +23453,10 @@
       <c r="Q135" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R135" s="512" t="s">
-        <v>1900</v>
-      </c>
-      <c r="S135" s="513"/>
+      <c r="R135" s="509" t="s">
+        <v>1898</v>
+      </c>
+      <c r="S135" s="510"/>
       <c r="T135" s="92" t="s">
         <v>360</v>
       </c>
@@ -23491,7 +23486,7 @@
       <c r="AD135" s="160"/>
       <c r="AE135" s="160"/>
     </row>
-    <row r="136" spans="1:31" ht="32.1" customHeight="1">
+    <row r="136" spans="1:31" ht="32" customHeight="1">
       <c r="A136" s="32">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -23532,10 +23527,10 @@
       <c r="Q136" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R136" s="512" t="s">
-        <v>1901</v>
-      </c>
-      <c r="S136" s="513"/>
+      <c r="R136" s="509" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S136" s="510"/>
       <c r="T136" s="92" t="s">
         <v>358</v>
       </c>
@@ -23565,7 +23560,7 @@
       <c r="AD136" s="160"/>
       <c r="AE136" s="160"/>
     </row>
-    <row r="137" spans="1:31" ht="50.1" customHeight="1">
+    <row r="137" spans="1:31" ht="50" customHeight="1">
       <c r="A137" s="32">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -23606,10 +23601,10 @@
       <c r="Q137" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R137" s="512" t="s">
-        <v>1902</v>
-      </c>
-      <c r="S137" s="513"/>
+      <c r="R137" s="509" t="s">
+        <v>1900</v>
+      </c>
+      <c r="S137" s="510"/>
       <c r="T137" s="92" t="s">
         <v>830</v>
       </c>
@@ -23639,7 +23634,7 @@
       <c r="AD137" s="160"/>
       <c r="AE137" s="160"/>
     </row>
-    <row r="138" spans="1:31" ht="40.5">
+    <row r="138" spans="1:31" ht="45">
       <c r="A138" s="32">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -23660,7 +23655,7 @@
         <v>1111</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>364</v>
@@ -23685,11 +23680,11 @@
         <v>13</v>
       </c>
       <c r="P138" s="119"/>
-      <c r="Q138" s="507" t="s">
-        <v>1904</v>
-      </c>
-      <c r="R138" s="507"/>
-      <c r="S138" s="508"/>
+      <c r="Q138" s="512" t="s">
+        <v>1902</v>
+      </c>
+      <c r="R138" s="512"/>
+      <c r="S138" s="513"/>
       <c r="T138" s="70" t="s">
         <v>831</v>
       </c>
@@ -23717,7 +23712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="27">
+    <row r="139" spans="1:31" ht="30">
       <c r="A139" s="32">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -23764,10 +23759,10 @@
       </c>
       <c r="P139" s="119"/>
       <c r="Q139" s="120"/>
-      <c r="R139" s="507" t="s">
-        <v>1905</v>
-      </c>
-      <c r="S139" s="508"/>
+      <c r="R139" s="512" t="s">
+        <v>1903</v>
+      </c>
+      <c r="S139" s="513"/>
       <c r="T139" s="151" t="s">
         <v>848</v>
       </c>
@@ -23797,7 +23792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="54">
+    <row r="140" spans="1:31" ht="45">
       <c r="A140" s="32">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -23844,10 +23839,10 @@
       </c>
       <c r="P140" s="119"/>
       <c r="Q140" s="120"/>
-      <c r="R140" s="507" t="s">
-        <v>1906</v>
-      </c>
-      <c r="S140" s="508"/>
+      <c r="R140" s="512" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S140" s="513"/>
       <c r="T140" s="120" t="s">
         <v>849</v>
       </c>
@@ -23863,7 +23858,7 @@
       <c r="AD140" s="159"/>
       <c r="AE140" s="85"/>
     </row>
-    <row r="141" spans="1:31" ht="54">
+    <row r="141" spans="1:31" ht="45">
       <c r="A141" s="32">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -23910,10 +23905,10 @@
       </c>
       <c r="P141" s="119"/>
       <c r="Q141" s="120"/>
-      <c r="R141" s="507" t="s">
-        <v>1907</v>
-      </c>
-      <c r="S141" s="508"/>
+      <c r="R141" s="512" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S141" s="513"/>
       <c r="T141" s="120" t="s">
         <v>850</v>
       </c>
@@ -23929,7 +23924,7 @@
       <c r="AD141" s="159"/>
       <c r="AE141" s="85"/>
     </row>
-    <row r="142" spans="1:31" ht="40.5">
+    <row r="142" spans="1:31" ht="45">
       <c r="A142" s="32">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -23976,10 +23971,10 @@
       </c>
       <c r="P142" s="119"/>
       <c r="Q142" s="120"/>
-      <c r="R142" s="507" t="s">
-        <v>1908</v>
-      </c>
-      <c r="S142" s="508"/>
+      <c r="R142" s="512" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S142" s="513"/>
       <c r="T142" s="120" t="s">
         <v>851</v>
       </c>
@@ -23995,7 +23990,7 @@
       <c r="AD142" s="159"/>
       <c r="AE142" s="85"/>
     </row>
-    <row r="143" spans="1:31" ht="40.5">
+    <row r="143" spans="1:31" ht="45">
       <c r="A143" s="32">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -24042,10 +24037,10 @@
       </c>
       <c r="P143" s="119"/>
       <c r="Q143" s="120"/>
-      <c r="R143" s="507" t="s">
-        <v>1909</v>
-      </c>
-      <c r="S143" s="508"/>
+      <c r="R143" s="512" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S143" s="513"/>
       <c r="T143" s="120" t="s">
         <v>852</v>
       </c>
@@ -24075,7 +24070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="44.1" customHeight="1">
+    <row r="144" spans="1:31" ht="44" customHeight="1">
       <c r="A144" s="32">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -24122,10 +24117,10 @@
       </c>
       <c r="P144" s="119"/>
       <c r="Q144" s="120"/>
-      <c r="R144" s="507" t="s">
-        <v>1910</v>
-      </c>
-      <c r="S144" s="508"/>
+      <c r="R144" s="512" t="s">
+        <v>1908</v>
+      </c>
+      <c r="S144" s="513"/>
       <c r="T144" s="120" t="s">
         <v>854</v>
       </c>
@@ -24141,7 +24136,7 @@
       <c r="AD144" s="159"/>
       <c r="AE144" s="85"/>
     </row>
-    <row r="145" spans="1:31" ht="27">
+    <row r="145" spans="1:31" ht="30">
       <c r="A145" s="32">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -24188,10 +24183,10 @@
       </c>
       <c r="P145" s="119"/>
       <c r="Q145" s="120"/>
-      <c r="R145" s="507" t="s">
-        <v>1935</v>
-      </c>
-      <c r="S145" s="508"/>
+      <c r="R145" s="512" t="s">
+        <v>1933</v>
+      </c>
+      <c r="S145" s="513"/>
       <c r="T145" s="51" t="s">
         <v>853</v>
       </c>
@@ -24207,7 +24202,7 @@
       <c r="AD145" s="159"/>
       <c r="AE145" s="85"/>
     </row>
-    <row r="146" spans="1:31" ht="54">
+    <row r="146" spans="1:31" ht="60">
       <c r="A146" s="32">
         <f t="shared" ref="A146:A218" si="2">ROW()-2</f>
         <v>144</v>
@@ -24228,7 +24223,7 @@
         <v>1122</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>386</v>
@@ -24252,12 +24247,12 @@
       <c r="O146" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P146" s="518" t="s">
-        <v>1912</v>
-      </c>
-      <c r="Q146" s="514"/>
-      <c r="R146" s="514"/>
-      <c r="S146" s="515"/>
+      <c r="P146" s="572" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q146" s="526"/>
+      <c r="R146" s="526"/>
+      <c r="S146" s="571"/>
       <c r="T146" s="70" t="s">
         <v>388</v>
       </c>
@@ -24281,7 +24276,7 @@
       <c r="AD146" s="160"/>
       <c r="AE146" s="160"/>
     </row>
-    <row r="147" spans="1:31" ht="27">
+    <row r="147" spans="1:31" ht="30">
       <c r="A147" s="32">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -24302,7 +24297,7 @@
         <v>1123</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>391</v>
@@ -24329,11 +24324,11 @@
       <c r="P147" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q147" s="514" t="s">
-        <v>1914</v>
-      </c>
-      <c r="R147" s="514"/>
-      <c r="S147" s="515"/>
+      <c r="Q147" s="526" t="s">
+        <v>1912</v>
+      </c>
+      <c r="R147" s="526"/>
+      <c r="S147" s="571"/>
       <c r="T147" s="70" t="s">
         <v>393</v>
       </c>
@@ -24361,7 +24356,7 @@
       <c r="AD147" s="160"/>
       <c r="AE147" s="160"/>
     </row>
-    <row r="148" spans="1:31" ht="27">
+    <row r="148" spans="1:31" ht="30">
       <c r="A148" s="32">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -24382,7 +24377,7 @@
         <v>1124</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>1125</v>
@@ -24409,11 +24404,11 @@
       <c r="P148" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q148" s="514" t="s">
-        <v>1916</v>
-      </c>
-      <c r="R148" s="514"/>
-      <c r="S148" s="515"/>
+      <c r="Q148" s="526" t="s">
+        <v>1914</v>
+      </c>
+      <c r="R148" s="526"/>
+      <c r="S148" s="571"/>
       <c r="T148" s="70" t="s">
         <v>397</v>
       </c>
@@ -24441,7 +24436,7 @@
       <c r="AD148" s="160"/>
       <c r="AE148" s="160"/>
     </row>
-    <row r="149" spans="1:31" ht="54">
+    <row r="149" spans="1:31" ht="60">
       <c r="A149" s="32">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -24480,10 +24475,10 @@
       </c>
       <c r="P149" s="459"/>
       <c r="Q149" s="459"/>
-      <c r="R149" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S149" s="508"/>
+      <c r="R149" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S149" s="513"/>
       <c r="T149" s="460" t="s">
         <v>1663</v>
       </c>
@@ -24499,7 +24494,7 @@
       <c r="AD149" s="325"/>
       <c r="AE149" s="325"/>
     </row>
-    <row r="150" spans="1:31" ht="27">
+    <row r="150" spans="1:31" ht="30">
       <c r="A150" s="32">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -24537,11 +24532,11 @@
       <c r="P150" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="Q150" s="512" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R150" s="512"/>
-      <c r="S150" s="513"/>
+      <c r="Q150" s="509" t="s">
+        <v>1915</v>
+      </c>
+      <c r="R150" s="509"/>
+      <c r="S150" s="510"/>
       <c r="T150" s="173" t="s">
         <v>978</v>
       </c>
@@ -24569,7 +24564,7 @@
       <c r="AD150" s="160"/>
       <c r="AE150" s="160"/>
     </row>
-    <row r="151" spans="1:31" ht="40.5">
+    <row r="151" spans="1:31" ht="30">
       <c r="A151" s="32">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -24590,7 +24585,7 @@
         <v>1127</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>400</v>
@@ -24615,11 +24610,11 @@
         <v>13</v>
       </c>
       <c r="P151" s="107"/>
-      <c r="Q151" s="514" t="s">
-        <v>1919</v>
-      </c>
-      <c r="R151" s="514"/>
-      <c r="S151" s="515"/>
+      <c r="Q151" s="526" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R151" s="526"/>
+      <c r="S151" s="571"/>
       <c r="T151" s="177" t="s">
         <v>401</v>
       </c>
@@ -24649,7 +24644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="27">
+    <row r="152" spans="1:31" ht="30">
       <c r="A152" s="32">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -24670,7 +24665,7 @@
         <v>1128</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>405</v>
@@ -24697,11 +24692,11 @@
       <c r="P152" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q152" s="514" t="s">
-        <v>1921</v>
-      </c>
-      <c r="R152" s="514"/>
-      <c r="S152" s="515"/>
+      <c r="Q152" s="526" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R152" s="526"/>
+      <c r="S152" s="571"/>
       <c r="T152" s="70" t="s">
         <v>407</v>
       </c>
@@ -24727,7 +24722,7 @@
       <c r="AD152" s="160"/>
       <c r="AE152" s="160"/>
     </row>
-    <row r="153" spans="1:31" ht="27">
+    <row r="153" spans="1:31" ht="30">
       <c r="A153" s="32">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -24748,7 +24743,7 @@
         <v>1129</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>410</v>
@@ -24778,10 +24773,10 @@
       <c r="Q153" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R153" s="514" t="s">
-        <v>1923</v>
-      </c>
-      <c r="S153" s="515"/>
+      <c r="R153" s="526" t="s">
+        <v>1921</v>
+      </c>
+      <c r="S153" s="571"/>
       <c r="T153" s="70" t="s">
         <v>412</v>
       </c>
@@ -24811,7 +24806,7 @@
       <c r="AD153" s="160"/>
       <c r="AE153" s="160"/>
     </row>
-    <row r="154" spans="1:31" ht="27">
+    <row r="154" spans="1:31" ht="30">
       <c r="A154" s="32">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -24862,10 +24857,10 @@
       <c r="Q154" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R154" s="514" t="s">
-        <v>1924</v>
-      </c>
-      <c r="S154" s="515"/>
+      <c r="R154" s="526" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S154" s="571"/>
       <c r="T154" s="70" t="s">
         <v>417</v>
       </c>
@@ -24895,7 +24890,7 @@
       <c r="AD154" s="160"/>
       <c r="AE154" s="160"/>
     </row>
-    <row r="155" spans="1:31" ht="54">
+    <row r="155" spans="1:31" ht="60">
       <c r="A155" s="32">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -24916,7 +24911,7 @@
         <v>1131</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>420</v>
@@ -24941,11 +24936,11 @@
         <v>13</v>
       </c>
       <c r="P155" s="65"/>
-      <c r="Q155" s="514" t="s">
-        <v>1926</v>
-      </c>
-      <c r="R155" s="514"/>
-      <c r="S155" s="515"/>
+      <c r="Q155" s="526" t="s">
+        <v>1924</v>
+      </c>
+      <c r="R155" s="526"/>
+      <c r="S155" s="571"/>
       <c r="T155" s="70" t="s">
         <v>422</v>
       </c>
@@ -24994,7 +24989,7 @@
         <v>1132</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>1060</v>
@@ -25020,10 +25015,10 @@
       </c>
       <c r="P156" s="65"/>
       <c r="Q156" s="66"/>
-      <c r="R156" s="514" t="s">
-        <v>1928</v>
-      </c>
-      <c r="S156" s="515"/>
+      <c r="R156" s="526" t="s">
+        <v>1926</v>
+      </c>
+      <c r="S156" s="571"/>
       <c r="T156" s="151" t="s">
         <v>855</v>
       </c>
@@ -25053,7 +25048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="54">
+    <row r="157" spans="1:31" ht="45">
       <c r="A157" s="32">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -25100,10 +25095,10 @@
       </c>
       <c r="P157" s="119"/>
       <c r="Q157" s="120"/>
-      <c r="R157" s="514" t="s">
-        <v>1929</v>
-      </c>
-      <c r="S157" s="515"/>
+      <c r="R157" s="526" t="s">
+        <v>1927</v>
+      </c>
+      <c r="S157" s="571"/>
       <c r="T157" s="114" t="s">
         <v>856</v>
       </c>
@@ -25119,7 +25114,7 @@
       <c r="AD157" s="159"/>
       <c r="AE157" s="85"/>
     </row>
-    <row r="158" spans="1:31" ht="54">
+    <row r="158" spans="1:31" ht="45">
       <c r="A158" s="32">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -25166,10 +25161,10 @@
       </c>
       <c r="P158" s="119"/>
       <c r="Q158" s="120"/>
-      <c r="R158" s="514" t="s">
-        <v>1930</v>
-      </c>
-      <c r="S158" s="515"/>
+      <c r="R158" s="526" t="s">
+        <v>1928</v>
+      </c>
+      <c r="S158" s="571"/>
       <c r="T158" s="114" t="s">
         <v>857</v>
       </c>
@@ -25185,7 +25180,7 @@
       <c r="AD158" s="159"/>
       <c r="AE158" s="85"/>
     </row>
-    <row r="159" spans="1:31" ht="40.5">
+    <row r="159" spans="1:31" ht="45">
       <c r="A159" s="32">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -25232,10 +25227,10 @@
       </c>
       <c r="P159" s="119"/>
       <c r="Q159" s="120"/>
-      <c r="R159" s="514" t="s">
-        <v>1931</v>
-      </c>
-      <c r="S159" s="515"/>
+      <c r="R159" s="526" t="s">
+        <v>1929</v>
+      </c>
+      <c r="S159" s="571"/>
       <c r="T159" s="114" t="s">
         <v>858</v>
       </c>
@@ -25298,10 +25293,10 @@
       </c>
       <c r="P160" s="149"/>
       <c r="Q160" s="150"/>
-      <c r="R160" s="514" t="s">
-        <v>1932</v>
-      </c>
-      <c r="S160" s="515"/>
+      <c r="R160" s="526" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S160" s="571"/>
       <c r="T160" s="151" t="s">
         <v>859</v>
       </c>
@@ -25331,7 +25326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="30.95" customHeight="1">
+    <row r="161" spans="1:31" ht="31" customHeight="1">
       <c r="A161" s="32">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -25378,10 +25373,10 @@
       </c>
       <c r="P161" s="119"/>
       <c r="Q161" s="120"/>
-      <c r="R161" s="514" t="s">
-        <v>1933</v>
-      </c>
-      <c r="S161" s="515"/>
+      <c r="R161" s="526" t="s">
+        <v>1931</v>
+      </c>
+      <c r="S161" s="571"/>
       <c r="T161" s="114" t="s">
         <v>437</v>
       </c>
@@ -25397,7 +25392,7 @@
       <c r="AD161" s="159"/>
       <c r="AE161" s="85"/>
     </row>
-    <row r="162" spans="1:31" ht="30.95" customHeight="1">
+    <row r="162" spans="1:31" ht="31" customHeight="1">
       <c r="A162" s="32">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -25444,10 +25439,10 @@
       </c>
       <c r="P162" s="119"/>
       <c r="Q162" s="120"/>
-      <c r="R162" s="514" t="s">
-        <v>1934</v>
-      </c>
-      <c r="S162" s="515"/>
+      <c r="R162" s="526" t="s">
+        <v>1932</v>
+      </c>
+      <c r="S162" s="571"/>
       <c r="T162" s="132" t="s">
         <v>860</v>
       </c>
@@ -25463,7 +25458,7 @@
       <c r="AD162" s="159"/>
       <c r="AE162" s="85"/>
     </row>
-    <row r="163" spans="1:31" ht="27">
+    <row r="163" spans="1:31" ht="30">
       <c r="A163" s="32">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -25484,7 +25479,7 @@
         <v>1141</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>1142</v>
@@ -25508,12 +25503,12 @@
       <c r="O163" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P163" s="518" t="s">
-        <v>1937</v>
-      </c>
-      <c r="Q163" s="514"/>
-      <c r="R163" s="514"/>
-      <c r="S163" s="515"/>
+      <c r="P163" s="572" t="s">
+        <v>1935</v>
+      </c>
+      <c r="Q163" s="526"/>
+      <c r="R163" s="526"/>
+      <c r="S163" s="571"/>
       <c r="T163" s="70" t="s">
         <v>833</v>
       </c>
@@ -25537,7 +25532,7 @@
       <c r="AD163" s="160"/>
       <c r="AE163" s="160"/>
     </row>
-    <row r="164" spans="1:31" ht="40.5">
+    <row r="164" spans="1:31" ht="45">
       <c r="A164" s="32">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -25558,7 +25553,7 @@
         <v>1143</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="H164" s="22" t="s">
         <v>444</v>
@@ -25585,11 +25580,11 @@
       <c r="P164" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q164" s="514" t="s">
-        <v>1939</v>
-      </c>
-      <c r="R164" s="514"/>
-      <c r="S164" s="515"/>
+      <c r="Q164" s="526" t="s">
+        <v>1937</v>
+      </c>
+      <c r="R164" s="526"/>
+      <c r="S164" s="571"/>
       <c r="T164" s="70" t="s">
         <v>446</v>
       </c>
@@ -25617,7 +25612,7 @@
       <c r="AD164" s="160"/>
       <c r="AE164" s="160"/>
     </row>
-    <row r="165" spans="1:31" ht="15">
+    <row r="165" spans="1:31" ht="16">
       <c r="A165" s="32">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -25649,9 +25644,9 @@
       <c r="N165" s="220"/>
       <c r="O165" s="75"/>
       <c r="P165" s="76"/>
-      <c r="Q165" s="516"/>
-      <c r="R165" s="516"/>
-      <c r="S165" s="517"/>
+      <c r="Q165" s="589"/>
+      <c r="R165" s="589"/>
+      <c r="S165" s="590"/>
       <c r="T165" s="57"/>
       <c r="U165" s="50"/>
       <c r="V165" s="72" t="s">
@@ -25677,7 +25672,7 @@
       <c r="AD165" s="160"/>
       <c r="AE165" s="160"/>
     </row>
-    <row r="166" spans="1:31" ht="40.5">
+    <row r="166" spans="1:31" ht="45">
       <c r="A166" s="32">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -25698,7 +25693,7 @@
         <v>1558</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="H166" s="22" t="s">
         <v>1559</v>
@@ -25725,11 +25720,11 @@
         <v>13</v>
       </c>
       <c r="P166" s="119"/>
-      <c r="Q166" s="514" t="s">
-        <v>1942</v>
-      </c>
-      <c r="R166" s="514"/>
-      <c r="S166" s="515"/>
+      <c r="Q166" s="526" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R166" s="526"/>
+      <c r="S166" s="571"/>
       <c r="T166" s="132" t="s">
         <v>453</v>
       </c>
@@ -25774,7 +25769,7 @@
         <v>974</v>
       </c>
       <c r="M167" s="124" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="N167" s="227" t="s">
         <v>828</v>
@@ -25784,10 +25779,10 @@
       </c>
       <c r="P167" s="119"/>
       <c r="Q167" s="120"/>
-      <c r="R167" s="507" t="s">
-        <v>1783</v>
-      </c>
-      <c r="S167" s="508"/>
+      <c r="R167" s="512" t="s">
+        <v>1781</v>
+      </c>
+      <c r="S167" s="513"/>
       <c r="T167" s="51"/>
       <c r="U167" s="71"/>
       <c r="V167" s="168"/>
@@ -25801,7 +25796,7 @@
       <c r="AD167" s="325"/>
       <c r="AE167" s="325"/>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" ht="15">
       <c r="A168" s="32">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -25861,7 +25856,7 @@
       <c r="AD168" s="160"/>
       <c r="AE168" s="160"/>
     </row>
-    <row r="169" spans="1:31" ht="27">
+    <row r="169" spans="1:31" ht="30">
       <c r="A169" s="32">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -25927,7 +25922,7 @@
       <c r="AD169" s="160"/>
       <c r="AE169" s="160"/>
     </row>
-    <row r="170" spans="1:31" ht="27">
+    <row r="170" spans="1:31" ht="30">
       <c r="A170" s="32">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -25993,7 +25988,7 @@
       <c r="AD170" s="160"/>
       <c r="AE170" s="160"/>
     </row>
-    <row r="171" spans="1:31" ht="15">
+    <row r="171" spans="1:31" ht="16">
       <c r="A171" s="32">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -26059,7 +26054,7 @@
       <c r="AD171" s="160"/>
       <c r="AE171" s="160"/>
     </row>
-    <row r="172" spans="1:31" ht="27">
+    <row r="172" spans="1:31" ht="30">
       <c r="A172" s="32">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -26125,7 +26120,7 @@
       <c r="AD172" s="160"/>
       <c r="AE172" s="160"/>
     </row>
-    <row r="173" spans="1:31" ht="15">
+    <row r="173" spans="1:31" ht="16">
       <c r="A173" s="32">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -26191,7 +26186,7 @@
       <c r="AD173" s="160"/>
       <c r="AE173" s="160"/>
     </row>
-    <row r="174" spans="1:31" ht="15">
+    <row r="174" spans="1:31" ht="16">
       <c r="A174" s="32">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -26257,7 +26252,7 @@
       <c r="AD174" s="160"/>
       <c r="AE174" s="160"/>
     </row>
-    <row r="175" spans="1:31" ht="27">
+    <row r="175" spans="1:31" ht="30">
       <c r="A175" s="32">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -26323,7 +26318,7 @@
       <c r="AD175" s="160"/>
       <c r="AE175" s="160"/>
     </row>
-    <row r="176" spans="1:31" ht="27">
+    <row r="176" spans="1:31" ht="30">
       <c r="A176" s="32">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -26401,7 +26396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" ht="15">
       <c r="A177" s="32">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -26439,7 +26434,7 @@
       <c r="AD177" s="337"/>
       <c r="AE177" s="337"/>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" ht="15">
       <c r="A178" s="32">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -26477,7 +26472,7 @@
       <c r="AD178" s="337"/>
       <c r="AE178" s="337"/>
     </row>
-    <row r="179" spans="1:31" ht="67.5">
+    <row r="179" spans="1:31" ht="75">
       <c r="A179" s="32">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -26545,7 +26540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="27">
+    <row r="180" spans="1:31" ht="30">
       <c r="A180" s="32">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -26589,7 +26584,7 @@
       <c r="AD180" s="337"/>
       <c r="AE180" s="337"/>
     </row>
-    <row r="181" spans="1:31" ht="27">
+    <row r="181" spans="1:31" ht="30">
       <c r="A181" s="32">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -26657,7 +26652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="54">
+    <row r="182" spans="1:31" ht="60">
       <c r="A182" s="32">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -26725,7 +26720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="67.5">
+    <row r="183" spans="1:31" ht="75">
       <c r="A183" s="32">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -26803,7 +26798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="108">
+    <row r="184" spans="1:31" ht="120">
       <c r="A184" s="32">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -26871,7 +26866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:31" ht="15">
       <c r="A185" s="32">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -26939,7 +26934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="94.5">
+    <row r="186" spans="1:31" ht="105">
       <c r="A186" s="32">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -27017,7 +27012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="67.5">
+    <row r="187" spans="1:31" ht="75">
       <c r="A187" s="32">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -27085,7 +27080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="67.5">
+    <row r="188" spans="1:31" ht="75">
       <c r="A188" s="32">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -27163,7 +27158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="27">
+    <row r="189" spans="1:31" ht="30">
       <c r="A189" s="32">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -27231,7 +27226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="54">
+    <row r="190" spans="1:31" ht="60">
       <c r="A190" s="32">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -27252,7 +27247,7 @@
         <v>1153</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>508</v>
@@ -27276,12 +27271,12 @@
       <c r="O190" s="126" t="s">
         <v>1634</v>
       </c>
-      <c r="P190" s="509" t="s">
-        <v>2106</v>
-      </c>
-      <c r="Q190" s="507"/>
-      <c r="R190" s="507"/>
-      <c r="S190" s="508"/>
+      <c r="P190" s="591" t="s">
+        <v>2104</v>
+      </c>
+      <c r="Q190" s="512"/>
+      <c r="R190" s="512"/>
+      <c r="S190" s="513"/>
       <c r="T190" s="132" t="s">
         <v>991</v>
       </c>
@@ -27297,7 +27292,7 @@
       <c r="AD190" s="131"/>
       <c r="AE190" s="327"/>
     </row>
-    <row r="191" spans="1:31" ht="47.1" customHeight="1">
+    <row r="191" spans="1:31" ht="47" customHeight="1">
       <c r="A191" s="32">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -27318,7 +27313,7 @@
         <v>1154</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>1155</v>
@@ -27343,11 +27338,11 @@
         <v>41</v>
       </c>
       <c r="P191" s="119"/>
-      <c r="Q191" s="507" t="s">
-        <v>2000</v>
-      </c>
-      <c r="R191" s="507"/>
-      <c r="S191" s="508"/>
+      <c r="Q191" s="512" t="s">
+        <v>1998</v>
+      </c>
+      <c r="R191" s="512"/>
+      <c r="S191" s="513"/>
       <c r="T191" s="132" t="s">
         <v>512</v>
       </c>
@@ -27391,11 +27386,11 @@
         <v>41</v>
       </c>
       <c r="P192" s="240"/>
-      <c r="Q192" s="512" t="s">
-        <v>2107</v>
-      </c>
-      <c r="R192" s="512"/>
-      <c r="S192" s="513"/>
+      <c r="Q192" s="509" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R192" s="509"/>
+      <c r="S192" s="510"/>
       <c r="T192" s="226" t="s">
         <v>1638</v>
       </c>
@@ -27411,7 +27406,7 @@
       <c r="AD192" s="131"/>
       <c r="AE192" s="327"/>
     </row>
-    <row r="193" spans="1:31" ht="32.1" customHeight="1">
+    <row r="193" spans="1:31" ht="32" customHeight="1">
       <c r="A193" s="32"/>
       <c r="B193" s="56"/>
       <c r="C193" s="164"/>
@@ -27436,11 +27431,11 @@
         <v>1642</v>
       </c>
       <c r="P193" s="240"/>
-      <c r="Q193" s="512" t="s">
-        <v>2113</v>
-      </c>
-      <c r="R193" s="512"/>
-      <c r="S193" s="513"/>
+      <c r="Q193" s="509" t="s">
+        <v>2111</v>
+      </c>
+      <c r="R193" s="509"/>
+      <c r="S193" s="510"/>
       <c r="T193" s="92"/>
       <c r="U193" s="93"/>
       <c r="V193" s="185"/>
@@ -27454,7 +27449,7 @@
       <c r="AD193" s="131"/>
       <c r="AE193" s="327"/>
     </row>
-    <row r="194" spans="1:31" ht="67.5">
+    <row r="194" spans="1:31" ht="60">
       <c r="A194" s="32">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -27475,7 +27470,7 @@
         <v>1156</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>515</v>
@@ -27500,11 +27495,11 @@
         <v>13</v>
       </c>
       <c r="P194" s="119"/>
-      <c r="Q194" s="507" t="s">
-        <v>1946</v>
-      </c>
-      <c r="R194" s="510"/>
-      <c r="S194" s="511"/>
+      <c r="Q194" s="512" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R194" s="517"/>
+      <c r="S194" s="518"/>
       <c r="T194" s="132" t="s">
         <v>516</v>
       </c>
@@ -27520,7 +27515,7 @@
       <c r="AD194" s="131"/>
       <c r="AE194" s="327"/>
     </row>
-    <row r="195" spans="1:31" ht="67.5">
+    <row r="195" spans="1:31" ht="60">
       <c r="A195" s="32">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -27541,7 +27536,7 @@
         <v>1157</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>519</v>
@@ -27566,11 +27561,11 @@
         <v>13</v>
       </c>
       <c r="P195" s="119"/>
-      <c r="Q195" s="507" t="s">
-        <v>1948</v>
-      </c>
-      <c r="R195" s="510"/>
-      <c r="S195" s="511"/>
+      <c r="Q195" s="512" t="s">
+        <v>1946</v>
+      </c>
+      <c r="R195" s="517"/>
+      <c r="S195" s="518"/>
       <c r="T195" s="132" t="s">
         <v>521</v>
       </c>
@@ -27586,7 +27581,7 @@
       <c r="AD195" s="131"/>
       <c r="AE195" s="327"/>
     </row>
-    <row r="196" spans="1:31" ht="59.1" customHeight="1">
+    <row r="196" spans="1:31" ht="59" customHeight="1">
       <c r="A196" s="32">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -27607,7 +27602,7 @@
         <v>1568</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="H196" s="22" t="s">
         <v>1569</v>
@@ -27632,11 +27627,11 @@
         <v>13</v>
       </c>
       <c r="P196" s="119"/>
-      <c r="Q196" s="507" t="s">
-        <v>1950</v>
-      </c>
-      <c r="R196" s="510"/>
-      <c r="S196" s="511"/>
+      <c r="Q196" s="512" t="s">
+        <v>1948</v>
+      </c>
+      <c r="R196" s="517"/>
+      <c r="S196" s="518"/>
       <c r="T196" s="132" t="s">
         <v>524</v>
       </c>
@@ -27652,7 +27647,7 @@
       <c r="AD196" s="131"/>
       <c r="AE196" s="327"/>
     </row>
-    <row r="197" spans="1:31" ht="40.5">
+    <row r="197" spans="1:31" ht="45">
       <c r="A197" s="32">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -27673,7 +27668,7 @@
         <v>1570</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="H197" s="22" t="s">
         <v>1571</v>
@@ -27698,11 +27693,11 @@
         <v>13</v>
       </c>
       <c r="P197" s="119"/>
-      <c r="Q197" s="507" t="s">
-        <v>1952</v>
-      </c>
-      <c r="R197" s="510"/>
-      <c r="S197" s="511"/>
+      <c r="Q197" s="512" t="s">
+        <v>1950</v>
+      </c>
+      <c r="R197" s="517"/>
+      <c r="S197" s="518"/>
       <c r="T197" s="132" t="s">
         <v>527</v>
       </c>
@@ -27718,7 +27713,7 @@
       <c r="AD197" s="131"/>
       <c r="AE197" s="327"/>
     </row>
-    <row r="198" spans="1:31" ht="27">
+    <row r="198" spans="1:31" ht="30">
       <c r="A198" s="32">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -27739,7 +27734,7 @@
         <v>1158</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>1159</v>
@@ -27764,11 +27759,11 @@
         <v>13</v>
       </c>
       <c r="P198" s="119"/>
-      <c r="Q198" s="507" t="s">
-        <v>1954</v>
-      </c>
-      <c r="R198" s="510"/>
-      <c r="S198" s="511"/>
+      <c r="Q198" s="512" t="s">
+        <v>1952</v>
+      </c>
+      <c r="R198" s="517"/>
+      <c r="S198" s="518"/>
       <c r="T198" s="132" t="s">
         <v>530</v>
       </c>
@@ -27784,7 +27779,7 @@
       <c r="AD198" s="131"/>
       <c r="AE198" s="327"/>
     </row>
-    <row r="199" spans="1:31" ht="81">
+    <row r="199" spans="1:31" ht="90">
       <c r="A199" s="32">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -27805,7 +27800,7 @@
         <v>1160</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>533</v>
@@ -27830,11 +27825,11 @@
         <v>13</v>
       </c>
       <c r="P199" s="119"/>
-      <c r="Q199" s="507" t="s">
-        <v>1956</v>
-      </c>
-      <c r="R199" s="510"/>
-      <c r="S199" s="511"/>
+      <c r="Q199" s="512" t="s">
+        <v>1954</v>
+      </c>
+      <c r="R199" s="517"/>
+      <c r="S199" s="518"/>
       <c r="T199" s="132" t="s">
         <v>534</v>
       </c>
@@ -27850,7 +27845,7 @@
       <c r="AD199" s="131"/>
       <c r="AE199" s="327"/>
     </row>
-    <row r="200" spans="1:31" ht="54">
+    <row r="200" spans="1:31" ht="60">
       <c r="A200" s="32">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -27871,7 +27866,7 @@
         <v>1161</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>1162</v>
@@ -27895,14 +27890,14 @@
       <c r="O200" s="196" t="s">
         <v>1634</v>
       </c>
-      <c r="P200" s="509" t="s">
-        <v>1958</v>
-      </c>
-      <c r="Q200" s="507"/>
-      <c r="R200" s="507"/>
-      <c r="S200" s="508"/>
+      <c r="P200" s="591" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q200" s="512"/>
+      <c r="R200" s="512"/>
+      <c r="S200" s="513"/>
       <c r="T200" s="115" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="U200" s="71"/>
       <c r="V200" s="197"/>
@@ -27916,7 +27911,7 @@
       <c r="AD200" s="200"/>
       <c r="AE200" s="332"/>
     </row>
-    <row r="201" spans="1:31" ht="27">
+    <row r="201" spans="1:31" ht="30">
       <c r="A201" s="32">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -27937,7 +27932,7 @@
         <v>1163</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>1164</v>
@@ -27962,11 +27957,11 @@
         <v>41</v>
       </c>
       <c r="P201" s="119"/>
-      <c r="Q201" s="507" t="s">
-        <v>1960</v>
-      </c>
-      <c r="R201" s="510"/>
-      <c r="S201" s="511"/>
+      <c r="Q201" s="512" t="s">
+        <v>1958</v>
+      </c>
+      <c r="R201" s="517"/>
+      <c r="S201" s="518"/>
       <c r="T201" s="115" t="s">
         <v>539</v>
       </c>
@@ -28003,7 +27998,7 @@
         <v>1165</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>542</v>
@@ -28028,13 +28023,13 @@
         <v>13</v>
       </c>
       <c r="P202" s="119"/>
-      <c r="Q202" s="507" t="s">
-        <v>1962</v>
-      </c>
-      <c r="R202" s="510"/>
-      <c r="S202" s="511"/>
+      <c r="Q202" s="512" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R202" s="517"/>
+      <c r="S202" s="518"/>
       <c r="T202" s="115" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="U202" s="71"/>
       <c r="V202" s="203"/>
@@ -28048,7 +28043,7 @@
       <c r="AD202" s="200"/>
       <c r="AE202" s="332"/>
     </row>
-    <row r="203" spans="1:31" ht="54">
+    <row r="203" spans="1:31" ht="60">
       <c r="A203" s="32">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -28069,7 +28064,7 @@
         <v>1166</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>1167</v>
@@ -28094,13 +28089,13 @@
         <v>13</v>
       </c>
       <c r="P203" s="119"/>
-      <c r="Q203" s="507" t="s">
-        <v>1964</v>
-      </c>
-      <c r="R203" s="510"/>
-      <c r="S203" s="511"/>
+      <c r="Q203" s="512" t="s">
+        <v>1962</v>
+      </c>
+      <c r="R203" s="517"/>
+      <c r="S203" s="518"/>
       <c r="T203" s="115" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="U203" s="71"/>
       <c r="V203" s="203"/>
@@ -28114,7 +28109,7 @@
       <c r="AD203" s="200"/>
       <c r="AE203" s="332"/>
     </row>
-    <row r="204" spans="1:31" ht="40.5">
+    <row r="204" spans="1:31" ht="45">
       <c r="A204" s="32">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -28135,7 +28130,7 @@
         <v>1572</v>
       </c>
       <c r="G204" s="22" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="H204" s="22" t="s">
         <v>1573</v>
@@ -28160,13 +28155,13 @@
         <v>13</v>
       </c>
       <c r="P204" s="119"/>
-      <c r="Q204" s="507" t="s">
-        <v>1966</v>
-      </c>
-      <c r="R204" s="510"/>
-      <c r="S204" s="511"/>
+      <c r="Q204" s="512" t="s">
+        <v>1964</v>
+      </c>
+      <c r="R204" s="517"/>
+      <c r="S204" s="518"/>
       <c r="T204" s="132" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="U204" s="71"/>
       <c r="V204" s="203"/>
@@ -28180,7 +28175,7 @@
       <c r="AD204" s="200"/>
       <c r="AE204" s="332"/>
     </row>
-    <row r="205" spans="1:31" ht="40.5">
+    <row r="205" spans="1:31" ht="45">
       <c r="A205" s="32">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -28201,7 +28196,7 @@
         <v>1574</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="H205" s="22" t="s">
         <v>1575</v>
@@ -28226,13 +28221,13 @@
         <v>13</v>
       </c>
       <c r="P205" s="119"/>
-      <c r="Q205" s="507" t="s">
-        <v>1968</v>
-      </c>
-      <c r="R205" s="510"/>
-      <c r="S205" s="511"/>
+      <c r="Q205" s="512" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R205" s="517"/>
+      <c r="S205" s="518"/>
       <c r="T205" s="115" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="U205" s="71"/>
       <c r="V205" s="203"/>
@@ -28246,7 +28241,7 @@
       <c r="AD205" s="200"/>
       <c r="AE205" s="332"/>
     </row>
-    <row r="206" spans="1:31" ht="27">
+    <row r="206" spans="1:31" ht="30">
       <c r="A206" s="32">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -28267,7 +28262,7 @@
         <v>1168</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>551</v>
@@ -28292,13 +28287,13 @@
         <v>13</v>
       </c>
       <c r="P206" s="119"/>
-      <c r="Q206" s="507" t="s">
-        <v>1970</v>
-      </c>
-      <c r="R206" s="510"/>
-      <c r="S206" s="511"/>
+      <c r="Q206" s="512" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R206" s="517"/>
+      <c r="S206" s="518"/>
       <c r="T206" s="115" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="U206" s="71"/>
       <c r="V206" s="203"/>
@@ -28312,7 +28307,7 @@
       <c r="AD206" s="200"/>
       <c r="AE206" s="332"/>
     </row>
-    <row r="207" spans="1:31" ht="54">
+    <row r="207" spans="1:31" ht="60">
       <c r="A207" s="32">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -28333,7 +28328,7 @@
         <v>1169</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>554</v>
@@ -28358,13 +28353,13 @@
         <v>13</v>
       </c>
       <c r="P207" s="119"/>
-      <c r="Q207" s="507" t="s">
-        <v>1972</v>
-      </c>
-      <c r="R207" s="510"/>
-      <c r="S207" s="511"/>
+      <c r="Q207" s="512" t="s">
+        <v>1970</v>
+      </c>
+      <c r="R207" s="517"/>
+      <c r="S207" s="518"/>
       <c r="T207" s="115" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="U207" s="71"/>
       <c r="V207" s="203"/>
@@ -28378,7 +28373,7 @@
       <c r="AD207" s="200"/>
       <c r="AE207" s="332"/>
     </row>
-    <row r="208" spans="1:31" ht="27">
+    <row r="208" spans="1:31" ht="30">
       <c r="A208" s="32">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -28399,7 +28394,7 @@
         <v>1170</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>1171</v>
@@ -28423,12 +28418,12 @@
       <c r="O208" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="P208" s="509" t="s">
-        <v>1974</v>
-      </c>
-      <c r="Q208" s="507"/>
-      <c r="R208" s="507"/>
-      <c r="S208" s="508"/>
+      <c r="P208" s="591" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q208" s="512"/>
+      <c r="R208" s="512"/>
+      <c r="S208" s="513"/>
       <c r="T208" s="70" t="s">
         <v>558</v>
       </c>
@@ -28452,7 +28447,7 @@
       <c r="AD208" s="160"/>
       <c r="AE208" s="160"/>
     </row>
-    <row r="209" spans="1:31" ht="67.5">
+    <row r="209" spans="1:31" ht="75">
       <c r="A209" s="32">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -28473,7 +28468,7 @@
         <v>1172</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>1173</v>
@@ -28500,11 +28495,11 @@
       <c r="P209" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="Q209" s="507" t="s">
-        <v>2108</v>
-      </c>
-      <c r="R209" s="510"/>
-      <c r="S209" s="511"/>
+      <c r="Q209" s="512" t="s">
+        <v>2106</v>
+      </c>
+      <c r="R209" s="517"/>
+      <c r="S209" s="518"/>
       <c r="T209" s="177" t="s">
         <v>1621</v>
       </c>
@@ -28524,7 +28519,7 @@
       <c r="Z209" s="108"/>
       <c r="AA209" s="108"/>
       <c r="AB209" s="321" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AC209" s="160" t="s">
         <v>43</v>
@@ -28553,7 +28548,7 @@
         <v>1174</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>563</v>
@@ -28578,11 +28573,11 @@
         <v>13</v>
       </c>
       <c r="P210" s="295"/>
-      <c r="Q210" s="507" t="s">
-        <v>1989</v>
-      </c>
-      <c r="R210" s="510"/>
-      <c r="S210" s="511"/>
+      <c r="Q210" s="512" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R210" s="517"/>
+      <c r="S210" s="518"/>
       <c r="T210" s="211" t="s">
         <v>818</v>
       </c>
@@ -28612,7 +28607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:31" ht="57.95" customHeight="1">
+    <row r="211" spans="1:31" ht="58" customHeight="1">
       <c r="A211" s="32">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -28640,11 +28635,11 @@
         <v>13</v>
       </c>
       <c r="P211" s="395"/>
-      <c r="Q211" s="574" t="s">
-        <v>1990</v>
-      </c>
-      <c r="R211" s="575"/>
-      <c r="S211" s="576"/>
+      <c r="Q211" s="568" t="s">
+        <v>1988</v>
+      </c>
+      <c r="R211" s="569"/>
+      <c r="S211" s="570"/>
       <c r="T211" s="396"/>
       <c r="U211" s="397"/>
       <c r="V211" s="434"/>
@@ -28658,7 +28653,7 @@
       <c r="AD211" s="415"/>
       <c r="AE211" s="415"/>
     </row>
-    <row r="212" spans="1:31" ht="67.5">
+    <row r="212" spans="1:31" ht="75">
       <c r="A212" s="32">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -28679,7 +28674,7 @@
         <v>1175</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>566</v>
@@ -28704,13 +28699,13 @@
         <v>13</v>
       </c>
       <c r="P212" s="295"/>
-      <c r="Q212" s="507" t="s">
-        <v>2003</v>
-      </c>
-      <c r="R212" s="510"/>
-      <c r="S212" s="511"/>
+      <c r="Q212" s="512" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R212" s="517"/>
+      <c r="S212" s="518"/>
       <c r="T212" s="214" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="U212" s="165"/>
       <c r="V212" s="428" t="s">
@@ -28721,12 +28716,12 @@
       </c>
       <c r="X212" s="430"/>
       <c r="Y212" s="431" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="Z212" s="431"/>
       <c r="AA212" s="431"/>
       <c r="AB212" s="432" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AC212" s="433" t="s">
         <v>815</v>
@@ -28766,11 +28761,11 @@
         <v>13</v>
       </c>
       <c r="P213" s="398"/>
-      <c r="Q213" s="581" t="s">
-        <v>1993</v>
-      </c>
-      <c r="R213" s="581"/>
-      <c r="S213" s="582"/>
+      <c r="Q213" s="587" t="s">
+        <v>1991</v>
+      </c>
+      <c r="R213" s="587"/>
+      <c r="S213" s="588"/>
       <c r="T213" s="399"/>
       <c r="U213" s="397"/>
       <c r="V213" s="434"/>
@@ -28784,7 +28779,7 @@
       <c r="AD213" s="415"/>
       <c r="AE213" s="415"/>
     </row>
-    <row r="214" spans="1:31" ht="40.5">
+    <row r="214" spans="1:31" ht="45">
       <c r="A214" s="32">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -28805,7 +28800,7 @@
         <v>1176</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>1177</v>
@@ -28832,13 +28827,13 @@
       <c r="P214" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q214" s="507" t="s">
-        <v>1992</v>
-      </c>
-      <c r="R214" s="510"/>
-      <c r="S214" s="511"/>
+      <c r="Q214" s="512" t="s">
+        <v>1990</v>
+      </c>
+      <c r="R214" s="517"/>
+      <c r="S214" s="518"/>
       <c r="T214" s="392" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="U214" s="391"/>
       <c r="V214" s="169" t="s">
@@ -28856,7 +28851,7 @@
       <c r="Z214" s="66"/>
       <c r="AA214" s="74"/>
       <c r="AB214" s="321" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="AC214" s="160" t="s">
         <v>16</v>
@@ -28864,7 +28859,7 @@
       <c r="AD214" s="160"/>
       <c r="AE214" s="160"/>
     </row>
-    <row r="215" spans="1:31" ht="40.5">
+    <row r="215" spans="1:31" ht="30">
       <c r="A215" s="32">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -28885,7 +28880,7 @@
         <v>1178</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>1179</v>
@@ -28912,11 +28907,11 @@
       <c r="P215" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q215" s="507" t="s">
-        <v>1995</v>
-      </c>
-      <c r="R215" s="510"/>
-      <c r="S215" s="511"/>
+      <c r="Q215" s="512" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R215" s="517"/>
+      <c r="S215" s="518"/>
       <c r="T215" s="70" t="s">
         <v>1622</v>
       </c>
@@ -28944,7 +28939,7 @@
       <c r="AD215" s="160"/>
       <c r="AE215" s="160"/>
     </row>
-    <row r="216" spans="1:31" ht="40.5">
+    <row r="216" spans="1:31" ht="45">
       <c r="A216" s="32">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -28965,7 +28960,7 @@
         <v>1576</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>1577</v>
@@ -28990,11 +28985,11 @@
         <v>13</v>
       </c>
       <c r="P216" s="119"/>
-      <c r="Q216" s="507" t="s">
-        <v>1997</v>
-      </c>
-      <c r="R216" s="510"/>
-      <c r="S216" s="511"/>
+      <c r="Q216" s="512" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R216" s="517"/>
+      <c r="S216" s="518"/>
       <c r="T216" s="132" t="s">
         <v>886</v>
       </c>
@@ -29010,7 +29005,7 @@
       <c r="AD216" s="131"/>
       <c r="AE216" s="327"/>
     </row>
-    <row r="217" spans="1:31" ht="40.5">
+    <row r="217" spans="1:31" ht="45">
       <c r="A217" s="32">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -29031,7 +29026,7 @@
         <v>1180</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>1181</v>
@@ -29058,11 +29053,11 @@
       <c r="P217" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q217" s="507" t="s">
-        <v>1999</v>
-      </c>
-      <c r="R217" s="510"/>
-      <c r="S217" s="511"/>
+      <c r="Q217" s="512" t="s">
+        <v>1997</v>
+      </c>
+      <c r="R217" s="517"/>
+      <c r="S217" s="518"/>
       <c r="T217" s="70" t="s">
         <v>1623</v>
       </c>
@@ -29082,7 +29077,7 @@
       <c r="Z217" s="66"/>
       <c r="AA217" s="74"/>
       <c r="AB217" s="321" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="AC217" s="160" t="s">
         <v>16</v>
@@ -29090,7 +29085,7 @@
       <c r="AD217" s="160"/>
       <c r="AE217" s="160"/>
     </row>
-    <row r="218" spans="1:31" ht="27">
+    <row r="218" spans="1:31" ht="30">
       <c r="A218" s="32">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -29111,7 +29106,7 @@
         <v>1182</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>577</v>
@@ -29136,11 +29131,11 @@
         <v>13</v>
       </c>
       <c r="P218" s="119"/>
-      <c r="Q218" s="507" t="s">
-        <v>2005</v>
-      </c>
-      <c r="R218" s="510"/>
-      <c r="S218" s="511"/>
+      <c r="Q218" s="512" t="s">
+        <v>2003</v>
+      </c>
+      <c r="R218" s="517"/>
+      <c r="S218" s="518"/>
       <c r="T218" s="132" t="s">
         <v>578</v>
       </c>
@@ -29158,7 +29153,7 @@
       <c r="AD218" s="200"/>
       <c r="AE218" s="332"/>
     </row>
-    <row r="219" spans="1:31" ht="40.5">
+    <row r="219" spans="1:31" ht="30">
       <c r="A219" s="32">
         <f t="shared" ref="A219:A286" si="3">ROW()-2</f>
         <v>217</v>
@@ -29224,7 +29219,7 @@
       <c r="AD219" s="200"/>
       <c r="AE219" s="332"/>
     </row>
-    <row r="220" spans="1:31" ht="27">
+    <row r="220" spans="1:31" ht="30">
       <c r="A220" s="32">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -29245,7 +29240,7 @@
         <v>1184</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>585</v>
@@ -29270,11 +29265,11 @@
         <v>13</v>
       </c>
       <c r="P220" s="119"/>
-      <c r="Q220" s="507" t="s">
-        <v>2007</v>
-      </c>
-      <c r="R220" s="510"/>
-      <c r="S220" s="511"/>
+      <c r="Q220" s="512" t="s">
+        <v>2005</v>
+      </c>
+      <c r="R220" s="517"/>
+      <c r="S220" s="518"/>
       <c r="T220" s="132" t="s">
         <v>586</v>
       </c>
@@ -29292,7 +29287,7 @@
       <c r="AD220" s="200"/>
       <c r="AE220" s="332"/>
     </row>
-    <row r="221" spans="1:31" ht="94.5">
+    <row r="221" spans="1:31" ht="105">
       <c r="A221" s="32">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -29327,14 +29322,14 @@
       <c r="O221" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P221" s="521" t="s">
-        <v>2001</v>
-      </c>
-      <c r="Q221" s="512"/>
-      <c r="R221" s="512"/>
-      <c r="S221" s="513"/>
+      <c r="P221" s="511" t="s">
+        <v>1999</v>
+      </c>
+      <c r="Q221" s="509"/>
+      <c r="R221" s="509"/>
+      <c r="S221" s="510"/>
       <c r="T221" s="92" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="U221" s="93" t="s">
         <v>80</v>
@@ -29362,7 +29357,7 @@
       <c r="AD221" s="165"/>
       <c r="AE221" s="165"/>
     </row>
-    <row r="222" spans="1:31" ht="54">
+    <row r="222" spans="1:31" ht="60">
       <c r="A222" s="32">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -29383,7 +29378,7 @@
         <v>1185</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H222" s="6" t="s">
         <v>1186</v>
@@ -29407,14 +29402,14 @@
       <c r="O222" s="146" t="s">
         <v>590</v>
       </c>
-      <c r="P222" s="585" t="s">
-        <v>1734</v>
-      </c>
-      <c r="Q222" s="577"/>
-      <c r="R222" s="577"/>
-      <c r="S222" s="586"/>
+      <c r="P222" s="514" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q222" s="515"/>
+      <c r="R222" s="515"/>
+      <c r="S222" s="516"/>
       <c r="T222" s="70" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="U222" s="71"/>
       <c r="V222" s="62" t="s">
@@ -29438,7 +29433,7 @@
       <c r="AD222" s="160"/>
       <c r="AE222" s="160"/>
     </row>
-    <row r="223" spans="1:31" ht="54">
+    <row r="223" spans="1:31" ht="60">
       <c r="A223" s="32">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -29459,7 +29454,7 @@
         <v>1578</v>
       </c>
       <c r="G223" s="22" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="H223" s="22" t="s">
         <v>1579</v>
@@ -29486,13 +29481,13 @@
       <c r="P223" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q223" s="507" t="s">
-        <v>2008</v>
-      </c>
-      <c r="R223" s="507"/>
-      <c r="S223" s="508"/>
+      <c r="Q223" s="512" t="s">
+        <v>2006</v>
+      </c>
+      <c r="R223" s="512"/>
+      <c r="S223" s="513"/>
       <c r="T223" s="70" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="U223" s="71"/>
       <c r="V223" s="72" t="s">
@@ -29505,7 +29500,7 @@
         <v>11</v>
       </c>
       <c r="Y223" s="66" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="Z223" s="66"/>
       <c r="AA223" s="74"/>
@@ -29558,13 +29553,13 @@
       <c r="P224" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q224" s="512" t="s">
-        <v>2111</v>
-      </c>
-      <c r="R224" s="512"/>
-      <c r="S224" s="513"/>
+      <c r="Q224" s="509" t="s">
+        <v>2109</v>
+      </c>
+      <c r="R224" s="509"/>
+      <c r="S224" s="510"/>
       <c r="T224" s="92" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="U224" s="93"/>
       <c r="V224" s="72" t="s">
@@ -29577,7 +29572,7 @@
         <v>11</v>
       </c>
       <c r="Y224" s="66" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="Z224" s="66"/>
       <c r="AA224" s="74"/>
@@ -29592,7 +29587,7 @@
       </c>
       <c r="AE224" s="160"/>
     </row>
-    <row r="225" spans="1:31" ht="67.5">
+    <row r="225" spans="1:31" ht="60">
       <c r="A225" s="32">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -29640,11 +29635,11 @@
       <c r="P225" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q225" s="507" t="s">
-        <v>1732</v>
-      </c>
-      <c r="R225" s="507"/>
-      <c r="S225" s="508"/>
+      <c r="Q225" s="512" t="s">
+        <v>1730</v>
+      </c>
+      <c r="R225" s="512"/>
+      <c r="S225" s="513"/>
       <c r="T225" s="70" t="s">
         <v>1624</v>
       </c>
@@ -29674,7 +29669,7 @@
       </c>
       <c r="AE225" s="165"/>
     </row>
-    <row r="226" spans="1:31" ht="40.5">
+    <row r="226" spans="1:31" ht="45">
       <c r="A226" s="32">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -29693,7 +29688,7 @@
         <v>53</v>
       </c>
       <c r="M226" s="68" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="N226" s="220"/>
       <c r="O226" s="75"/>
@@ -29726,7 +29721,7 @@
       <c r="AD226" s="165"/>
       <c r="AE226" s="165"/>
     </row>
-    <row r="227" spans="1:31" ht="175.5">
+    <row r="227" spans="1:31" ht="195">
       <c r="A227" s="32">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -29763,7 +29758,7 @@
         <v>969</v>
       </c>
       <c r="M227" s="68" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="N227" s="216" t="s">
         <v>128</v>
@@ -29774,11 +29769,11 @@
       <c r="P227" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q227" s="507" t="s">
-        <v>1733</v>
-      </c>
-      <c r="R227" s="507"/>
-      <c r="S227" s="508"/>
+      <c r="Q227" s="512" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R227" s="512"/>
+      <c r="S227" s="513"/>
       <c r="T227" s="70" t="s">
         <v>1678</v>
       </c>
@@ -29810,7 +29805,7 @@
       </c>
       <c r="AE227" s="160"/>
     </row>
-    <row r="228" spans="1:31" ht="27">
+    <row r="228" spans="1:31" ht="30">
       <c r="A228" s="32">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -29829,14 +29824,14 @@
         <v>888</v>
       </c>
       <c r="M228" s="68" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="N228" s="220"/>
       <c r="O228" s="75"/>
       <c r="P228" s="76"/>
-      <c r="Q228" s="516"/>
-      <c r="R228" s="516"/>
-      <c r="S228" s="517"/>
+      <c r="Q228" s="589"/>
+      <c r="R228" s="589"/>
+      <c r="S228" s="590"/>
       <c r="T228" s="57"/>
       <c r="U228" s="50"/>
       <c r="V228" s="168"/>
@@ -29860,7 +29855,7 @@
       <c r="AD228" s="160"/>
       <c r="AE228" s="160"/>
     </row>
-    <row r="229" spans="1:31" ht="40.5">
+    <row r="229" spans="1:31" ht="45">
       <c r="A229" s="32">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -29881,7 +29876,7 @@
         <v>1586</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="H229" s="22" t="s">
         <v>1587</v>
@@ -29908,11 +29903,11 @@
       <c r="P229" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q229" s="507" t="s">
-        <v>2110</v>
-      </c>
-      <c r="R229" s="507"/>
-      <c r="S229" s="508"/>
+      <c r="Q229" s="512" t="s">
+        <v>2108</v>
+      </c>
+      <c r="R229" s="512"/>
+      <c r="S229" s="513"/>
       <c r="T229" s="70" t="s">
         <v>605</v>
       </c>
@@ -29942,7 +29937,7 @@
       </c>
       <c r="AE229" s="160"/>
     </row>
-    <row r="230" spans="1:31" ht="40.5">
+    <row r="230" spans="1:31" ht="45">
       <c r="A230" s="32">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -29998,7 +29993,7 @@
       <c r="AD230" s="325"/>
       <c r="AE230" s="325"/>
     </row>
-    <row r="231" spans="1:31" ht="40.5">
+    <row r="231" spans="1:31" ht="45">
       <c r="A231" s="32">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -30054,7 +30049,7 @@
       <c r="AD231" s="325"/>
       <c r="AE231" s="325"/>
     </row>
-    <row r="232" spans="1:31" ht="40.5">
+    <row r="232" spans="1:31" ht="45">
       <c r="A232" s="32">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -30096,7 +30091,7 @@
       <c r="Z232" s="102"/>
       <c r="AA232" s="102"/>
       <c r="AB232" s="322" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="AC232" s="183" t="s">
         <v>965</v>
@@ -30104,7 +30099,7 @@
       <c r="AD232" s="183"/>
       <c r="AE232" s="183"/>
     </row>
-    <row r="233" spans="1:31" ht="135">
+    <row r="233" spans="1:31" ht="150">
       <c r="A233" s="32">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -30125,7 +30120,7 @@
         <v>1187</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H233" s="6" t="s">
         <v>616</v>
@@ -30149,12 +30144,12 @@
       <c r="O233" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="P233" s="587" t="s">
-        <v>2010</v>
-      </c>
-      <c r="Q233" s="588"/>
-      <c r="R233" s="588"/>
-      <c r="S233" s="589"/>
+      <c r="P233" s="519" t="s">
+        <v>2008</v>
+      </c>
+      <c r="Q233" s="520"/>
+      <c r="R233" s="520"/>
+      <c r="S233" s="521"/>
       <c r="T233" s="132" t="s">
         <v>617</v>
       </c>
@@ -30170,7 +30165,7 @@
       <c r="AD233" s="131"/>
       <c r="AE233" s="327"/>
     </row>
-    <row r="234" spans="1:31" ht="27">
+    <row r="234" spans="1:31" ht="30">
       <c r="A234" s="32">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -30191,7 +30186,7 @@
         <v>1188</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H234" s="6" t="s">
         <v>1189</v>
@@ -30216,11 +30211,11 @@
         <v>41</v>
       </c>
       <c r="P234" s="119"/>
-      <c r="Q234" s="507" t="s">
-        <v>2012</v>
-      </c>
-      <c r="R234" s="507"/>
-      <c r="S234" s="508"/>
+      <c r="Q234" s="512" t="s">
+        <v>2010</v>
+      </c>
+      <c r="R234" s="512"/>
+      <c r="S234" s="513"/>
       <c r="T234" s="132" t="s">
         <v>983</v>
       </c>
@@ -30236,7 +30231,7 @@
       <c r="AD234" s="131"/>
       <c r="AE234" s="327"/>
     </row>
-    <row r="235" spans="1:31" ht="27">
+    <row r="235" spans="1:31" ht="30">
       <c r="A235" s="32">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -30257,7 +30252,7 @@
         <v>1190</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="H235" s="6" t="s">
         <v>1191</v>
@@ -30282,11 +30277,11 @@
         <v>13</v>
       </c>
       <c r="P235" s="119"/>
-      <c r="Q235" s="507" t="s">
-        <v>2014</v>
-      </c>
-      <c r="R235" s="507"/>
-      <c r="S235" s="508"/>
+      <c r="Q235" s="512" t="s">
+        <v>2012</v>
+      </c>
+      <c r="R235" s="512"/>
+      <c r="S235" s="513"/>
       <c r="T235" s="132" t="s">
         <v>622</v>
       </c>
@@ -30302,7 +30297,7 @@
       <c r="AD235" s="131"/>
       <c r="AE235" s="327"/>
     </row>
-    <row r="236" spans="1:31" ht="135">
+    <row r="236" spans="1:31" ht="150">
       <c r="A236" s="32">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -30323,7 +30318,7 @@
         <v>1192</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>625</v>
@@ -30348,11 +30343,11 @@
         <v>13</v>
       </c>
       <c r="P236" s="119"/>
-      <c r="Q236" s="507" t="s">
-        <v>2016</v>
-      </c>
-      <c r="R236" s="507"/>
-      <c r="S236" s="508"/>
+      <c r="Q236" s="512" t="s">
+        <v>2014</v>
+      </c>
+      <c r="R236" s="512"/>
+      <c r="S236" s="513"/>
       <c r="T236" s="132" t="s">
         <v>982</v>
       </c>
@@ -30368,7 +30363,7 @@
       <c r="AD236" s="131"/>
       <c r="AE236" s="327"/>
     </row>
-    <row r="237" spans="1:31" ht="40.5">
+    <row r="237" spans="1:31" ht="45">
       <c r="A237" s="32">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -30389,7 +30384,7 @@
         <v>1193</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>628</v>
@@ -30414,11 +30409,11 @@
         <v>13</v>
       </c>
       <c r="P237" s="119"/>
-      <c r="Q237" s="507" t="s">
-        <v>2018</v>
-      </c>
-      <c r="R237" s="507"/>
-      <c r="S237" s="508"/>
+      <c r="Q237" s="512" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R237" s="512"/>
+      <c r="S237" s="513"/>
       <c r="T237" s="132" t="s">
         <v>630</v>
       </c>
@@ -30434,7 +30429,7 @@
       <c r="AD237" s="131"/>
       <c r="AE237" s="327"/>
     </row>
-    <row r="238" spans="1:31" ht="135">
+    <row r="238" spans="1:31" ht="150">
       <c r="A238" s="32">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -30455,7 +30450,7 @@
         <v>1194</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H238" s="6" t="s">
         <v>1195</v>
@@ -30479,10 +30474,10 @@
       </c>
       <c r="P238" s="119"/>
       <c r="Q238" s="120"/>
-      <c r="R238" s="507" t="s">
-        <v>2020</v>
-      </c>
-      <c r="S238" s="508"/>
+      <c r="R238" s="512" t="s">
+        <v>2018</v>
+      </c>
+      <c r="S238" s="513"/>
       <c r="T238" s="132" t="s">
         <v>1626</v>
       </c>
@@ -30498,7 +30493,7 @@
       <c r="AD238" s="131"/>
       <c r="AE238" s="327"/>
     </row>
-    <row r="239" spans="1:31" ht="32.1" customHeight="1">
+    <row r="239" spans="1:31" ht="32" customHeight="1">
       <c r="A239" s="32">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -30519,7 +30514,7 @@
         <v>1196</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="13"/>
@@ -30541,10 +30536,10 @@
       </c>
       <c r="P239" s="119"/>
       <c r="Q239" s="120"/>
-      <c r="R239" s="507" t="s">
-        <v>2022</v>
-      </c>
-      <c r="S239" s="508"/>
+      <c r="R239" s="512" t="s">
+        <v>2020</v>
+      </c>
+      <c r="S239" s="513"/>
       <c r="T239" s="132" t="s">
         <v>635</v>
       </c>
@@ -30560,7 +30555,7 @@
       <c r="AD239" s="131"/>
       <c r="AE239" s="327"/>
     </row>
-    <row r="240" spans="1:31" ht="27">
+    <row r="240" spans="1:31" ht="30">
       <c r="A240" s="32">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -30581,7 +30576,7 @@
         <v>1197</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H240" s="6" t="s">
         <v>638</v>
@@ -30605,12 +30600,12 @@
       <c r="O240" s="69" t="s">
         <v>590</v>
       </c>
-      <c r="P240" s="509" t="s">
-        <v>2024</v>
-      </c>
-      <c r="Q240" s="507"/>
-      <c r="R240" s="507"/>
-      <c r="S240" s="508"/>
+      <c r="P240" s="591" t="s">
+        <v>2022</v>
+      </c>
+      <c r="Q240" s="512"/>
+      <c r="R240" s="512"/>
+      <c r="S240" s="513"/>
       <c r="T240" s="70" t="s">
         <v>640</v>
       </c>
@@ -30634,7 +30629,7 @@
       <c r="AD240" s="160"/>
       <c r="AE240" s="160"/>
     </row>
-    <row r="241" spans="1:31" ht="27">
+    <row r="241" spans="1:31" ht="30">
       <c r="A241" s="32">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -30655,7 +30650,7 @@
         <v>1198</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="H241" s="6" t="s">
         <v>1199</v>
@@ -30682,11 +30677,11 @@
       <c r="P241" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q241" s="507" t="s">
-        <v>2026</v>
-      </c>
-      <c r="R241" s="507"/>
-      <c r="S241" s="508"/>
+      <c r="Q241" s="512" t="s">
+        <v>2024</v>
+      </c>
+      <c r="R241" s="512"/>
+      <c r="S241" s="513"/>
       <c r="T241" s="70" t="s">
         <v>899</v>
       </c>
@@ -30716,7 +30711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:31" ht="135">
+    <row r="242" spans="1:31" ht="150">
       <c r="A242" s="32">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -30758,7 +30753,7 @@
       <c r="Z242" s="102"/>
       <c r="AA242" s="102"/>
       <c r="AB242" s="322" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="AC242" s="183" t="s">
         <v>900</v>
@@ -30768,7 +30763,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="243" spans="1:31" ht="15">
+    <row r="243" spans="1:31" ht="16">
       <c r="A243" s="32">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -30828,7 +30823,7 @@
       <c r="AD243" s="160"/>
       <c r="AE243" s="160"/>
     </row>
-    <row r="244" spans="1:31" ht="27">
+    <row r="244" spans="1:31" ht="30">
       <c r="A244" s="32">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -30888,7 +30883,7 @@
       <c r="AD244" s="160"/>
       <c r="AE244" s="160"/>
     </row>
-    <row r="245" spans="1:31" ht="40.5">
+    <row r="245" spans="1:31" ht="45">
       <c r="A245" s="32">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -30909,7 +30904,7 @@
         <v>1200</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="H245" s="6" t="s">
         <v>650</v>
@@ -30936,13 +30931,13 @@
       <c r="P245" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q245" s="507" t="s">
-        <v>2028</v>
-      </c>
-      <c r="R245" s="507"/>
-      <c r="S245" s="508"/>
+      <c r="Q245" s="512" t="s">
+        <v>2026</v>
+      </c>
+      <c r="R245" s="512"/>
+      <c r="S245" s="513"/>
       <c r="T245" s="70" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="U245" s="71"/>
       <c r="V245" s="72" t="s">
@@ -30968,7 +30963,7 @@
       <c r="AD245" s="160"/>
       <c r="AE245" s="160"/>
     </row>
-    <row r="246" spans="1:31" ht="40.5">
+    <row r="246" spans="1:31" ht="45">
       <c r="A246" s="32">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -30989,7 +30984,7 @@
         <v>1201</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="H246" s="6" t="s">
         <v>654</v>
@@ -31014,11 +31009,11 @@
         <v>13</v>
       </c>
       <c r="P246" s="119"/>
-      <c r="Q246" s="507" t="s">
-        <v>2031</v>
-      </c>
-      <c r="R246" s="507"/>
-      <c r="S246" s="508"/>
+      <c r="Q246" s="512" t="s">
+        <v>2029</v>
+      </c>
+      <c r="R246" s="512"/>
+      <c r="S246" s="513"/>
       <c r="T246" s="115" t="s">
         <v>861</v>
       </c>
@@ -31036,7 +31031,7 @@
       <c r="AD246" s="131"/>
       <c r="AE246" s="327"/>
     </row>
-    <row r="247" spans="1:31" ht="81">
+    <row r="247" spans="1:31" ht="75">
       <c r="A247" s="32">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -31083,10 +31078,10 @@
       </c>
       <c r="P247" s="119"/>
       <c r="Q247" s="120"/>
-      <c r="R247" s="507" t="s">
-        <v>1782</v>
-      </c>
-      <c r="S247" s="508"/>
+      <c r="R247" s="512" t="s">
+        <v>1780</v>
+      </c>
+      <c r="S247" s="513"/>
       <c r="T247" s="115" t="s">
         <v>1627</v>
       </c>
@@ -31104,7 +31099,7 @@
       <c r="AD247" s="131"/>
       <c r="AE247" s="327"/>
     </row>
-    <row r="248" spans="1:31" ht="121.5">
+    <row r="248" spans="1:31" ht="120">
       <c r="A248" s="32">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -31140,13 +31135,13 @@
         <v>41</v>
       </c>
       <c r="P248" s="225"/>
-      <c r="Q248" s="583" t="s">
-        <v>2112</v>
-      </c>
-      <c r="R248" s="583"/>
-      <c r="S248" s="584"/>
+      <c r="Q248" s="507" t="s">
+        <v>2110</v>
+      </c>
+      <c r="R248" s="507"/>
+      <c r="S248" s="508"/>
       <c r="T248" s="226" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="U248" s="93"/>
       <c r="V248" s="99" t="s">
@@ -31174,7 +31169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:31" ht="54">
+    <row r="249" spans="1:31" ht="60">
       <c r="A249" s="32">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -31195,7 +31190,7 @@
         <v>1203</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>660</v>
@@ -31222,11 +31217,11 @@
       <c r="P249" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="Q249" s="507" t="s">
-        <v>2033</v>
-      </c>
-      <c r="R249" s="507"/>
-      <c r="S249" s="508"/>
+      <c r="Q249" s="512" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R249" s="512"/>
+      <c r="S249" s="513"/>
       <c r="T249" s="70" t="s">
         <v>662</v>
       </c>
@@ -31254,7 +31249,7 @@
       <c r="AD249" s="160"/>
       <c r="AE249" s="160"/>
     </row>
-    <row r="250" spans="1:31" ht="297">
+    <row r="250" spans="1:31" ht="328">
       <c r="A250" s="32">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -31275,7 +31270,7 @@
         <v>1204</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="H250" s="6" t="s">
         <v>665</v>
@@ -31300,13 +31295,13 @@
         <v>41</v>
       </c>
       <c r="P250" s="119"/>
-      <c r="Q250" s="507" t="s">
-        <v>2035</v>
-      </c>
-      <c r="R250" s="507"/>
-      <c r="S250" s="508"/>
+      <c r="Q250" s="512" t="s">
+        <v>2033</v>
+      </c>
+      <c r="R250" s="512"/>
+      <c r="S250" s="513"/>
       <c r="T250" s="189" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="U250" s="71"/>
       <c r="V250" s="190" t="s">
@@ -31322,13 +31317,13 @@
       <c r="Z250" s="193"/>
       <c r="AA250" s="193"/>
       <c r="AB250" s="334" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AC250" s="335"/>
       <c r="AD250" s="335"/>
       <c r="AE250" s="335"/>
     </row>
-    <row r="251" spans="1:31" ht="27">
+    <row r="251" spans="1:31" ht="30">
       <c r="A251" s="32">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -31349,16 +31344,16 @@
       <c r="M251" s="463" t="s">
         <v>1346</v>
       </c>
-      <c r="N251" s="565" t="s">
+      <c r="N251" s="559" t="s">
         <v>867</v>
       </c>
-      <c r="O251" s="566"/>
-      <c r="P251" s="566"/>
-      <c r="Q251" s="566"/>
-      <c r="R251" s="566"/>
-      <c r="S251" s="566"/>
-      <c r="T251" s="566"/>
-      <c r="U251" s="567"/>
+      <c r="O251" s="560"/>
+      <c r="P251" s="560"/>
+      <c r="Q251" s="560"/>
+      <c r="R251" s="560"/>
+      <c r="S251" s="560"/>
+      <c r="T251" s="560"/>
+      <c r="U251" s="561"/>
       <c r="V251" s="464" t="s">
         <v>128</v>
       </c>
@@ -31382,7 +31377,7 @@
       <c r="AD251" s="160"/>
       <c r="AE251" s="160"/>
     </row>
-    <row r="252" spans="1:31" ht="54">
+    <row r="252" spans="1:31" ht="60">
       <c r="A252" s="32">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -31403,16 +31398,16 @@
       <c r="M252" s="475" t="s">
         <v>1347</v>
       </c>
-      <c r="N252" s="568" t="s">
+      <c r="N252" s="562" t="s">
         <v>667</v>
       </c>
-      <c r="O252" s="569"/>
-      <c r="P252" s="569"/>
-      <c r="Q252" s="569"/>
-      <c r="R252" s="569"/>
-      <c r="S252" s="569"/>
-      <c r="T252" s="569"/>
-      <c r="U252" s="570"/>
+      <c r="O252" s="563"/>
+      <c r="P252" s="563"/>
+      <c r="Q252" s="563"/>
+      <c r="R252" s="563"/>
+      <c r="S252" s="563"/>
+      <c r="T252" s="563"/>
+      <c r="U252" s="564"/>
       <c r="V252" s="476" t="s">
         <v>128</v>
       </c>
@@ -31434,7 +31429,7 @@
       <c r="AD252" s="160"/>
       <c r="AE252" s="160"/>
     </row>
-    <row r="253" spans="1:31" ht="40.5">
+    <row r="253" spans="1:31" ht="45">
       <c r="A253" s="32">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -31455,16 +31450,16 @@
       <c r="M253" s="475" t="s">
         <v>1348</v>
       </c>
-      <c r="N253" s="568" t="s">
+      <c r="N253" s="562" t="s">
         <v>868</v>
       </c>
-      <c r="O253" s="569"/>
-      <c r="P253" s="569"/>
-      <c r="Q253" s="569"/>
-      <c r="R253" s="569"/>
-      <c r="S253" s="569"/>
-      <c r="T253" s="569"/>
-      <c r="U253" s="570"/>
+      <c r="O253" s="563"/>
+      <c r="P253" s="563"/>
+      <c r="Q253" s="563"/>
+      <c r="R253" s="563"/>
+      <c r="S253" s="563"/>
+      <c r="T253" s="563"/>
+      <c r="U253" s="564"/>
       <c r="V253" s="479" t="s">
         <v>128</v>
       </c>
@@ -31488,7 +31483,7 @@
       <c r="AD253" s="160"/>
       <c r="AE253" s="160"/>
     </row>
-    <row r="254" spans="1:31" ht="81">
+    <row r="254" spans="1:31" ht="90">
       <c r="A254" s="32">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -31536,13 +31531,13 @@
       <c r="P254" s="504" t="s">
         <v>11</v>
       </c>
-      <c r="Q254" s="592" t="s">
-        <v>2115</v>
-      </c>
-      <c r="R254" s="592"/>
-      <c r="S254" s="593"/>
+      <c r="Q254" s="522" t="s">
+        <v>2113</v>
+      </c>
+      <c r="R254" s="522"/>
+      <c r="S254" s="523"/>
       <c r="T254" s="486" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="U254" s="487"/>
       <c r="V254" s="488" t="s">
@@ -31555,12 +31550,12 @@
         <v>11</v>
       </c>
       <c r="Y254" s="491" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="Z254" s="491"/>
       <c r="AA254" s="491"/>
       <c r="AB254" s="498" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="AC254" s="340" t="s">
         <v>941</v>
@@ -31568,7 +31563,7 @@
       <c r="AD254" s="341"/>
       <c r="AE254" s="342"/>
     </row>
-    <row r="255" spans="1:31" ht="107.1" customHeight="1">
+    <row r="255" spans="1:31" ht="107" customHeight="1">
       <c r="A255" s="32">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -31606,13 +31601,13 @@
       <c r="P255" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q255" s="512" t="s">
-        <v>2114</v>
-      </c>
-      <c r="R255" s="512"/>
-      <c r="S255" s="513"/>
+      <c r="Q255" s="509" t="s">
+        <v>2112</v>
+      </c>
+      <c r="R255" s="509"/>
+      <c r="S255" s="510"/>
       <c r="T255" s="92" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="U255" s="93"/>
       <c r="V255" s="228" t="s">
@@ -31625,12 +31620,12 @@
         <v>11</v>
       </c>
       <c r="Y255" s="231" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="Z255" s="231"/>
       <c r="AA255" s="314"/>
       <c r="AB255" s="498" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="AC255" s="340" t="s">
         <v>941</v>
@@ -31638,7 +31633,7 @@
       <c r="AD255" s="341"/>
       <c r="AE255" s="342"/>
     </row>
-    <row r="256" spans="1:31" ht="94.5">
+    <row r="256" spans="1:31" ht="105">
       <c r="A256" s="32">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -31676,13 +31671,13 @@
       <c r="P256" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q256" s="512" t="s">
-        <v>2002</v>
-      </c>
-      <c r="R256" s="512"/>
-      <c r="S256" s="513"/>
+      <c r="Q256" s="509" t="s">
+        <v>2000</v>
+      </c>
+      <c r="R256" s="509"/>
+      <c r="S256" s="510"/>
       <c r="T256" s="92" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="U256" s="93" t="s">
         <v>80</v>
@@ -31708,7 +31703,7 @@
       <c r="AD256" s="325"/>
       <c r="AE256" s="325"/>
     </row>
-    <row r="257" spans="1:31">
+    <row r="257" spans="1:31" ht="15">
       <c r="A257" s="32">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -31764,7 +31759,7 @@
       <c r="AD257" s="165"/>
       <c r="AE257" s="165"/>
     </row>
-    <row r="258" spans="1:31" ht="345.95" customHeight="1">
+    <row r="258" spans="1:31" ht="346" customHeight="1">
       <c r="A258" s="32">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -31791,16 +31786,16 @@
       <c r="M258" s="362" t="s">
         <v>1352</v>
       </c>
-      <c r="N258" s="571" t="s">
+      <c r="N258" s="565" t="s">
         <v>1673</v>
       </c>
-      <c r="O258" s="572"/>
-      <c r="P258" s="572"/>
-      <c r="Q258" s="572"/>
-      <c r="R258" s="572"/>
-      <c r="S258" s="572"/>
-      <c r="T258" s="572"/>
-      <c r="U258" s="573"/>
+      <c r="O258" s="566"/>
+      <c r="P258" s="566"/>
+      <c r="Q258" s="566"/>
+      <c r="R258" s="566"/>
+      <c r="S258" s="566"/>
+      <c r="T258" s="566"/>
+      <c r="U258" s="567"/>
       <c r="V258" s="147" t="s">
         <v>158</v>
       </c>
@@ -31826,7 +31821,7 @@
       <c r="AD258" s="165"/>
       <c r="AE258" s="165"/>
     </row>
-    <row r="259" spans="1:31" ht="40.5">
+    <row r="259" spans="1:31" ht="45">
       <c r="A259" s="32">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -31865,16 +31860,16 @@
       <c r="M259" s="362" t="s">
         <v>1353</v>
       </c>
-      <c r="N259" s="571" t="s">
-        <v>1692</v>
-      </c>
-      <c r="O259" s="572"/>
-      <c r="P259" s="572"/>
-      <c r="Q259" s="572"/>
-      <c r="R259" s="572"/>
-      <c r="S259" s="572"/>
-      <c r="T259" s="572"/>
-      <c r="U259" s="573"/>
+      <c r="N259" s="565" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O259" s="566"/>
+      <c r="P259" s="566"/>
+      <c r="Q259" s="566"/>
+      <c r="R259" s="566"/>
+      <c r="S259" s="566"/>
+      <c r="T259" s="566"/>
+      <c r="U259" s="567"/>
       <c r="V259" s="147" t="s">
         <v>158</v>
       </c>
@@ -31900,7 +31895,7 @@
       <c r="AD259" s="165"/>
       <c r="AE259" s="165"/>
     </row>
-    <row r="260" spans="1:31" ht="27">
+    <row r="260" spans="1:31" ht="30">
       <c r="A260" s="32">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -31929,16 +31924,16 @@
       <c r="M260" s="362" t="s">
         <v>1354</v>
       </c>
-      <c r="N260" s="571" t="s">
-        <v>1693</v>
-      </c>
-      <c r="O260" s="572"/>
-      <c r="P260" s="572"/>
-      <c r="Q260" s="572"/>
-      <c r="R260" s="572"/>
-      <c r="S260" s="572"/>
-      <c r="T260" s="572"/>
-      <c r="U260" s="573"/>
+      <c r="N260" s="565" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O260" s="566"/>
+      <c r="P260" s="566"/>
+      <c r="Q260" s="566"/>
+      <c r="R260" s="566"/>
+      <c r="S260" s="566"/>
+      <c r="T260" s="566"/>
+      <c r="U260" s="567"/>
       <c r="V260" s="147" t="s">
         <v>158</v>
       </c>
@@ -31964,7 +31959,7 @@
       <c r="AD260" s="165"/>
       <c r="AE260" s="165"/>
     </row>
-    <row r="261" spans="1:31" ht="67.5">
+    <row r="261" spans="1:31" ht="60">
       <c r="A261" s="32">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -31992,13 +31987,13 @@
         <v>906</v>
       </c>
       <c r="P261" s="240"/>
-      <c r="Q261" s="512" t="s">
+      <c r="Q261" s="509" t="s">
         <v>1681</v>
       </c>
-      <c r="R261" s="512"/>
-      <c r="S261" s="513"/>
+      <c r="R261" s="509"/>
+      <c r="S261" s="510"/>
       <c r="T261" s="241" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="U261" s="93"/>
       <c r="V261" s="242"/>
@@ -32012,7 +32007,7 @@
       <c r="AD261" s="337"/>
       <c r="AE261" s="337"/>
     </row>
-    <row r="262" spans="1:31" ht="121.5">
+    <row r="262" spans="1:31" ht="135">
       <c r="A262" s="32">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -32058,13 +32053,13 @@
         <v>13</v>
       </c>
       <c r="P262" s="119"/>
-      <c r="Q262" s="507" t="s">
+      <c r="Q262" s="512" t="s">
         <v>1680</v>
       </c>
-      <c r="R262" s="507"/>
-      <c r="S262" s="508"/>
+      <c r="R262" s="512"/>
+      <c r="S262" s="513"/>
       <c r="T262" s="51" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="U262" s="71"/>
       <c r="V262" s="147" t="s">
@@ -32090,7 +32085,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="263" spans="1:31" ht="27">
+    <row r="263" spans="1:31" ht="30">
       <c r="A263" s="32">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -32118,11 +32113,11 @@
         <v>906</v>
       </c>
       <c r="P263" s="240"/>
-      <c r="Q263" s="512" t="s">
-        <v>1682</v>
-      </c>
-      <c r="R263" s="512"/>
-      <c r="S263" s="513"/>
+      <c r="Q263" s="509" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R263" s="509"/>
+      <c r="S263" s="510"/>
       <c r="T263" s="241" t="s">
         <v>967</v>
       </c>
@@ -32138,7 +32133,7 @@
       <c r="AD263" s="325"/>
       <c r="AE263" s="325"/>
     </row>
-    <row r="264" spans="1:31" ht="27">
+    <row r="264" spans="1:31" ht="30">
       <c r="A264" s="32">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -32166,11 +32161,11 @@
         <v>13</v>
       </c>
       <c r="P264" s="255"/>
-      <c r="Q264" s="594" t="s">
-        <v>1683</v>
-      </c>
-      <c r="R264" s="594"/>
-      <c r="S264" s="595"/>
+      <c r="Q264" s="592" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R264" s="592"/>
+      <c r="S264" s="593"/>
       <c r="T264" s="226" t="s">
         <v>681</v>
       </c>
@@ -32198,7 +32193,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="265" spans="1:31" ht="67.5">
+    <row r="265" spans="1:31" ht="75">
       <c r="A265" s="32">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -32219,7 +32214,7 @@
         <v>1209</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="H265" s="6" t="s">
         <v>114</v>
@@ -32244,11 +32239,11 @@
         <v>13</v>
       </c>
       <c r="P265" s="119"/>
-      <c r="Q265" s="507" t="s">
-        <v>2037</v>
-      </c>
-      <c r="R265" s="507"/>
-      <c r="S265" s="508"/>
+      <c r="Q265" s="512" t="s">
+        <v>2035</v>
+      </c>
+      <c r="R265" s="512"/>
+      <c r="S265" s="513"/>
       <c r="T265" s="51" t="s">
         <v>984</v>
       </c>
@@ -32266,7 +32261,7 @@
       <c r="AD265" s="159"/>
       <c r="AE265" s="85"/>
     </row>
-    <row r="266" spans="1:31" ht="40.5">
+    <row r="266" spans="1:31" ht="45">
       <c r="A266" s="32">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -32287,7 +32282,7 @@
         <v>1210</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="H266" s="6" t="s">
         <v>686</v>
@@ -32312,11 +32307,11 @@
         <v>13</v>
       </c>
       <c r="P266" s="149"/>
-      <c r="Q266" s="507" t="s">
-        <v>2039</v>
-      </c>
-      <c r="R266" s="507"/>
-      <c r="S266" s="508"/>
+      <c r="Q266" s="512" t="s">
+        <v>2037</v>
+      </c>
+      <c r="R266" s="512"/>
+      <c r="S266" s="513"/>
       <c r="T266" s="70" t="s">
         <v>688</v>
       </c>
@@ -32344,7 +32339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="27">
+    <row r="267" spans="1:31" ht="30">
       <c r="A267" s="32">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -32365,7 +32360,7 @@
         <v>1211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="H267" s="6" t="s">
         <v>1212</v>
@@ -32391,10 +32386,10 @@
       </c>
       <c r="P267" s="149"/>
       <c r="Q267" s="150"/>
-      <c r="R267" s="507" t="s">
-        <v>2041</v>
-      </c>
-      <c r="S267" s="508"/>
+      <c r="R267" s="512" t="s">
+        <v>2039</v>
+      </c>
+      <c r="S267" s="513"/>
       <c r="T267" s="70" t="s">
         <v>692</v>
       </c>
@@ -32424,7 +32419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="27">
+    <row r="268" spans="1:31" ht="30">
       <c r="A268" s="32">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -32471,10 +32466,10 @@
       </c>
       <c r="P268" s="149"/>
       <c r="Q268" s="150"/>
-      <c r="R268" s="507" t="s">
-        <v>2042</v>
-      </c>
-      <c r="S268" s="508"/>
+      <c r="R268" s="512" t="s">
+        <v>2040</v>
+      </c>
+      <c r="S268" s="513"/>
       <c r="T268" s="70" t="s">
         <v>696</v>
       </c>
@@ -32504,7 +32499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:31" ht="54">
+    <row r="269" spans="1:31" ht="45">
       <c r="A269" s="32">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -32525,7 +32520,7 @@
         <v>1215</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="H269" s="6" t="s">
         <v>699</v>
@@ -32550,11 +32545,11 @@
         <v>13</v>
       </c>
       <c r="P269" s="119"/>
-      <c r="Q269" s="507" t="s">
-        <v>2044</v>
-      </c>
-      <c r="R269" s="507"/>
-      <c r="S269" s="508"/>
+      <c r="Q269" s="512" t="s">
+        <v>2042</v>
+      </c>
+      <c r="R269" s="512"/>
+      <c r="S269" s="513"/>
       <c r="T269" s="132" t="s">
         <v>700</v>
       </c>
@@ -32582,7 +32577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:31" ht="81">
+    <row r="270" spans="1:31" ht="90">
       <c r="A270" s="32">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -32603,7 +32598,7 @@
         <v>1216</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="H270" s="6" t="s">
         <v>1155</v>
@@ -32629,10 +32624,10 @@
       </c>
       <c r="P270" s="119"/>
       <c r="Q270" s="120"/>
-      <c r="R270" s="507" t="s">
-        <v>2045</v>
-      </c>
-      <c r="S270" s="508"/>
+      <c r="R270" s="512" t="s">
+        <v>2043</v>
+      </c>
+      <c r="S270" s="513"/>
       <c r="T270" s="132" t="s">
         <v>989</v>
       </c>
@@ -32662,7 +32657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="42.95" customHeight="1">
+    <row r="271" spans="1:31" ht="43" customHeight="1">
       <c r="A271" s="32">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -32691,10 +32686,10 @@
       </c>
       <c r="P271" s="255"/>
       <c r="Q271" s="256"/>
-      <c r="R271" s="594" t="s">
-        <v>2046</v>
-      </c>
-      <c r="S271" s="595"/>
+      <c r="R271" s="592" t="s">
+        <v>2044</v>
+      </c>
+      <c r="S271" s="593"/>
       <c r="T271" s="226"/>
       <c r="U271" s="93"/>
       <c r="V271" s="420"/>
@@ -32708,7 +32703,7 @@
       <c r="AD271" s="425"/>
       <c r="AE271" s="426"/>
     </row>
-    <row r="272" spans="1:31" ht="94.5">
+    <row r="272" spans="1:31" ht="105">
       <c r="A272" s="32">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -32729,7 +32724,7 @@
         <v>1217</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="H272" s="6" t="s">
         <v>705</v>
@@ -32755,10 +32750,10 @@
       </c>
       <c r="P272" s="119"/>
       <c r="Q272" s="120"/>
-      <c r="R272" s="507" t="s">
-        <v>2048</v>
-      </c>
-      <c r="S272" s="508"/>
+      <c r="R272" s="512" t="s">
+        <v>2046</v>
+      </c>
+      <c r="S272" s="513"/>
       <c r="T272" s="132" t="s">
         <v>990</v>
       </c>
@@ -32774,7 +32769,7 @@
       <c r="AD272" s="131"/>
       <c r="AE272" s="327"/>
     </row>
-    <row r="273" spans="1:31" ht="54">
+    <row r="273" spans="1:31" ht="60">
       <c r="A273" s="32">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -32795,7 +32790,7 @@
         <v>1218</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="H273" s="6" t="s">
         <v>1219</v>
@@ -32821,10 +32816,10 @@
       </c>
       <c r="P273" s="119"/>
       <c r="Q273" s="120"/>
-      <c r="R273" s="507" t="s">
-        <v>2050</v>
-      </c>
-      <c r="S273" s="508"/>
+      <c r="R273" s="512" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S273" s="513"/>
       <c r="T273" s="132" t="s">
         <v>708</v>
       </c>
@@ -32840,7 +32835,7 @@
       <c r="AD273" s="131"/>
       <c r="AE273" s="327"/>
     </row>
-    <row r="274" spans="1:31" ht="27">
+    <row r="274" spans="1:31" ht="30">
       <c r="A274" s="32">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -32861,7 +32856,7 @@
         <v>1220</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H274" s="6" t="s">
         <v>1221</v>
@@ -32887,10 +32882,10 @@
       </c>
       <c r="P274" s="119"/>
       <c r="Q274" s="120"/>
-      <c r="R274" s="507" t="s">
-        <v>2052</v>
-      </c>
-      <c r="S274" s="508"/>
+      <c r="R274" s="512" t="s">
+        <v>2050</v>
+      </c>
+      <c r="S274" s="513"/>
       <c r="T274" s="132" t="s">
         <v>711</v>
       </c>
@@ -32920,7 +32915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="27">
+    <row r="275" spans="1:31" ht="30">
       <c r="A275" s="32">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -32941,7 +32936,7 @@
         <v>1222</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="H275" s="6" t="s">
         <v>714</v>
@@ -32967,10 +32962,10 @@
       </c>
       <c r="P275" s="119"/>
       <c r="Q275" s="120"/>
-      <c r="R275" s="507" t="s">
-        <v>2054</v>
-      </c>
-      <c r="S275" s="508"/>
+      <c r="R275" s="512" t="s">
+        <v>2052</v>
+      </c>
+      <c r="S275" s="513"/>
       <c r="T275" s="132" t="s">
         <v>715</v>
       </c>
@@ -33000,7 +32995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="54">
+    <row r="276" spans="1:31" ht="60">
       <c r="A276" s="32">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -33021,7 +33016,7 @@
         <v>1223</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="H276" s="6" t="s">
         <v>1224</v>
@@ -33046,13 +33041,13 @@
         <v>13</v>
       </c>
       <c r="P276" s="119"/>
-      <c r="Q276" s="507" t="s">
-        <v>2056</v>
-      </c>
-      <c r="R276" s="507"/>
-      <c r="S276" s="508"/>
+      <c r="Q276" s="512" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R276" s="512"/>
+      <c r="S276" s="513"/>
       <c r="T276" s="132" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="U276" s="71"/>
       <c r="V276" s="261" t="s">
@@ -33063,12 +33058,12 @@
       </c>
       <c r="X276" s="263"/>
       <c r="Y276" s="264" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="Z276" s="264"/>
       <c r="AA276" s="264"/>
       <c r="AB276" s="329" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AC276" s="183"/>
       <c r="AD276" s="183" t="s">
@@ -33078,7 +33073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="67.5">
+    <row r="277" spans="1:31" ht="75">
       <c r="A277" s="32">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -33125,12 +33120,12 @@
       </c>
       <c r="P277" s="119"/>
       <c r="Q277" s="120"/>
-      <c r="R277" s="507" t="s">
-        <v>2057</v>
-      </c>
-      <c r="S277" s="508"/>
+      <c r="R277" s="512" t="s">
+        <v>2055</v>
+      </c>
+      <c r="S277" s="513"/>
       <c r="T277" s="132" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="U277" s="71"/>
       <c r="V277" s="404" t="s">
@@ -33142,11 +33137,11 @@
       <c r="X277" s="406"/>
       <c r="Y277" s="407"/>
       <c r="Z277" s="407" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AA277" s="407"/>
       <c r="AB277" s="408" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="AC277" s="409" t="s">
         <v>16</v>
@@ -33158,7 +33153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="45.95" customHeight="1">
+    <row r="278" spans="1:31" ht="46" customHeight="1">
       <c r="A278" s="32">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -33177,7 +33172,7 @@
         <v>511</v>
       </c>
       <c r="M278" s="111" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="N278" s="400" t="s">
         <v>158</v>
@@ -33188,7 +33183,7 @@
       <c r="P278" s="402"/>
       <c r="Q278" s="403"/>
       <c r="R278" s="596" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="S278" s="597"/>
       <c r="T278" s="226"/>
@@ -33204,7 +33199,7 @@
       <c r="AD278" s="415"/>
       <c r="AE278" s="415"/>
     </row>
-    <row r="279" spans="1:31" ht="94.5">
+    <row r="279" spans="1:31" ht="105">
       <c r="A279" s="32">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -33225,7 +33220,7 @@
         <v>1227</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="H279" s="6" t="s">
         <v>722</v>
@@ -33251,12 +33246,12 @@
       </c>
       <c r="P279" s="119"/>
       <c r="Q279" s="120"/>
-      <c r="R279" s="507" t="s">
-        <v>2060</v>
-      </c>
-      <c r="S279" s="508"/>
+      <c r="R279" s="512" t="s">
+        <v>2058</v>
+      </c>
+      <c r="S279" s="513"/>
       <c r="T279" s="132" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="U279" s="71"/>
       <c r="V279" s="203"/>
@@ -33270,7 +33265,7 @@
       <c r="AD279" s="200"/>
       <c r="AE279" s="332"/>
     </row>
-    <row r="280" spans="1:31" ht="54">
+    <row r="280" spans="1:31" ht="60">
       <c r="A280" s="32">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -33291,7 +33286,7 @@
         <v>1228</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="H280" s="6" t="s">
         <v>725</v>
@@ -33317,12 +33312,12 @@
       </c>
       <c r="P280" s="119"/>
       <c r="Q280" s="120"/>
-      <c r="R280" s="507" t="s">
-        <v>2062</v>
-      </c>
-      <c r="S280" s="508"/>
+      <c r="R280" s="512" t="s">
+        <v>2060</v>
+      </c>
+      <c r="S280" s="513"/>
       <c r="T280" s="132" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="U280" s="71"/>
       <c r="V280" s="203"/>
@@ -33336,7 +33331,7 @@
       <c r="AD280" s="200"/>
       <c r="AE280" s="332"/>
     </row>
-    <row r="281" spans="1:31" ht="27">
+    <row r="281" spans="1:31" ht="30">
       <c r="A281" s="32">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -33357,7 +33352,7 @@
         <v>1229</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="H281" s="6" t="s">
         <v>1230</v>
@@ -33383,12 +33378,12 @@
       </c>
       <c r="P281" s="119"/>
       <c r="Q281" s="120"/>
-      <c r="R281" s="507" t="s">
-        <v>2064</v>
-      </c>
-      <c r="S281" s="508"/>
+      <c r="R281" s="512" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S281" s="513"/>
       <c r="T281" s="132" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="U281" s="71"/>
       <c r="V281" s="261" t="s">
@@ -33400,11 +33395,11 @@
       <c r="X281" s="263"/>
       <c r="Y281" s="264"/>
       <c r="Z281" s="264" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AA281" s="264"/>
       <c r="AB281" s="329" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="AC281" s="215" t="s">
         <v>16</v>
@@ -33416,7 +33411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:31" ht="27">
+    <row r="282" spans="1:31" ht="30">
       <c r="A282" s="32">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -33437,10 +33432,10 @@
         <v>1231</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="I282" s="13"/>
       <c r="J282" s="73" t="s">
@@ -33463,12 +33458,12 @@
       </c>
       <c r="P282" s="119"/>
       <c r="Q282" s="120"/>
-      <c r="R282" s="507" t="s">
-        <v>2067</v>
-      </c>
-      <c r="S282" s="508"/>
+      <c r="R282" s="512" t="s">
+        <v>2065</v>
+      </c>
+      <c r="S282" s="513"/>
       <c r="T282" s="132" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="U282" s="71"/>
       <c r="V282" s="261" t="s">
@@ -33480,11 +33475,11 @@
       <c r="X282" s="263"/>
       <c r="Y282" s="264"/>
       <c r="Z282" s="264" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="AA282" s="264"/>
       <c r="AB282" s="329" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AC282" s="215" t="s">
         <v>16</v>
@@ -33496,7 +33491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:31" ht="54">
+    <row r="283" spans="1:31" ht="60">
       <c r="A283" s="32">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -33517,7 +33512,7 @@
         <v>1232</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>732</v>
@@ -33544,11 +33539,11 @@
       <c r="P283" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q283" s="507" t="s">
-        <v>2069</v>
-      </c>
-      <c r="R283" s="507"/>
-      <c r="S283" s="508"/>
+      <c r="Q283" s="512" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R283" s="512"/>
+      <c r="S283" s="513"/>
       <c r="T283" s="70" t="s">
         <v>734</v>
       </c>
@@ -33574,7 +33569,7 @@
       <c r="AD283" s="160"/>
       <c r="AE283" s="160"/>
     </row>
-    <row r="284" spans="1:31" ht="162">
+    <row r="284" spans="1:31" ht="180">
       <c r="A284" s="32">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -33625,12 +33620,12 @@
       <c r="Q284" s="503" t="s">
         <v>11</v>
       </c>
-      <c r="R284" s="507" t="s">
-        <v>2120</v>
-      </c>
-      <c r="S284" s="508"/>
+      <c r="R284" s="512" t="s">
+        <v>2118</v>
+      </c>
+      <c r="S284" s="513"/>
       <c r="T284" s="266" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="U284" s="71"/>
       <c r="V284" s="441" t="s">
@@ -33654,7 +33649,7 @@
       <c r="AD284" s="445"/>
       <c r="AE284" s="445"/>
     </row>
-    <row r="285" spans="1:31" ht="81">
+    <row r="285" spans="1:31" ht="90">
       <c r="A285" s="32">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -33683,12 +33678,12 @@
       </c>
       <c r="P285" s="270"/>
       <c r="Q285" s="271"/>
-      <c r="R285" s="590" t="s">
-        <v>2119</v>
-      </c>
-      <c r="S285" s="591"/>
+      <c r="R285" s="594" t="s">
+        <v>2117</v>
+      </c>
+      <c r="S285" s="595"/>
       <c r="T285" s="272" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="U285" s="273"/>
       <c r="V285" s="446"/>
@@ -33702,7 +33697,7 @@
       <c r="AD285" s="451"/>
       <c r="AE285" s="452"/>
     </row>
-    <row r="286" spans="1:31" ht="108">
+    <row r="286" spans="1:31" ht="120">
       <c r="A286" s="32">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -33723,7 +33718,7 @@
         <v>1235</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="H286" s="6" t="s">
         <v>740</v>
@@ -33749,10 +33744,10 @@
       </c>
       <c r="P286" s="119"/>
       <c r="Q286" s="120"/>
-      <c r="R286" s="507" t="s">
-        <v>2071</v>
-      </c>
-      <c r="S286" s="508"/>
+      <c r="R286" s="512" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S286" s="513"/>
       <c r="T286" s="132" t="s">
         <v>986</v>
       </c>
@@ -33768,7 +33763,7 @@
       <c r="AD286" s="131"/>
       <c r="AE286" s="327"/>
     </row>
-    <row r="287" spans="1:31" ht="81">
+    <row r="287" spans="1:31" ht="90">
       <c r="A287" s="32">
         <f t="shared" ref="A287:A309" si="4">ROW()-2</f>
         <v>285</v>
@@ -33789,7 +33784,7 @@
         <v>1236</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="H287" s="6" t="s">
         <v>1237</v>
@@ -33815,10 +33810,10 @@
       </c>
       <c r="P287" s="119"/>
       <c r="Q287" s="120"/>
-      <c r="R287" s="507" t="s">
-        <v>2073</v>
-      </c>
-      <c r="S287" s="508"/>
+      <c r="R287" s="512" t="s">
+        <v>2071</v>
+      </c>
+      <c r="S287" s="513"/>
       <c r="T287" s="132" t="s">
         <v>987</v>
       </c>
@@ -33834,7 +33829,7 @@
       <c r="AD287" s="131"/>
       <c r="AE287" s="327"/>
     </row>
-    <row r="288" spans="1:31" ht="94.5">
+    <row r="288" spans="1:31" ht="105">
       <c r="A288" s="32">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -33855,7 +33850,7 @@
         <v>1238</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="H288" s="6" t="s">
         <v>1239</v>
@@ -33881,10 +33876,10 @@
       </c>
       <c r="P288" s="505"/>
       <c r="Q288" s="503"/>
-      <c r="R288" s="507" t="s">
-        <v>2075</v>
-      </c>
-      <c r="S288" s="508"/>
+      <c r="R288" s="512" t="s">
+        <v>2073</v>
+      </c>
+      <c r="S288" s="513"/>
       <c r="T288" s="279" t="s">
         <v>988</v>
       </c>
@@ -33900,7 +33895,7 @@
       <c r="AD288" s="284"/>
       <c r="AE288" s="284"/>
     </row>
-    <row r="289" spans="1:31" ht="54">
+    <row r="289" spans="1:31" ht="60">
       <c r="A289" s="32">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -33921,7 +33916,7 @@
         <v>1240</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="H289" s="6" t="s">
         <v>1241</v>
@@ -33947,10 +33942,10 @@
       </c>
       <c r="P289" s="119"/>
       <c r="Q289" s="120"/>
-      <c r="R289" s="507" t="s">
-        <v>2077</v>
-      </c>
-      <c r="S289" s="508"/>
+      <c r="R289" s="512" t="s">
+        <v>2075</v>
+      </c>
+      <c r="S289" s="513"/>
       <c r="T289" s="132" t="s">
         <v>985</v>
       </c>
@@ -33966,7 +33961,7 @@
       <c r="AD289" s="131"/>
       <c r="AE289" s="327"/>
     </row>
-    <row r="290" spans="1:31" ht="54">
+    <row r="290" spans="1:31" ht="60">
       <c r="A290" s="32">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -33987,7 +33982,7 @@
         <v>1242</v>
       </c>
       <c r="G290" s="22" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="H290" s="22" t="s">
         <v>1243</v>
@@ -34016,11 +34011,11 @@
       <c r="P290" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q290" s="600" t="s">
-        <v>2118</v>
-      </c>
-      <c r="R290" s="598"/>
-      <c r="S290" s="599"/>
+      <c r="Q290" s="598" t="s">
+        <v>2116</v>
+      </c>
+      <c r="R290" s="599"/>
+      <c r="S290" s="600"/>
       <c r="T290" s="70" t="s">
         <v>749</v>
       </c>
@@ -34046,7 +34041,7 @@
       <c r="AD290" s="160"/>
       <c r="AE290" s="160"/>
     </row>
-    <row r="291" spans="1:31" ht="175.5">
+    <row r="291" spans="1:31" ht="195">
       <c r="A291" s="32">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -34067,7 +34062,7 @@
         <v>1595</v>
       </c>
       <c r="G291" s="22" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="H291" s="22" t="s">
         <v>1596</v>
@@ -34097,10 +34092,10 @@
       <c r="Q291" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R291" s="507" t="s">
-        <v>2079</v>
-      </c>
-      <c r="S291" s="508"/>
+      <c r="R291" s="512" t="s">
+        <v>2077</v>
+      </c>
+      <c r="S291" s="513"/>
       <c r="T291" s="70" t="s">
         <v>887</v>
       </c>
@@ -34134,7 +34129,7 @@
       </c>
       <c r="AE291" s="160"/>
     </row>
-    <row r="292" spans="1:31" ht="40.5">
+    <row r="292" spans="1:31" ht="45">
       <c r="A292" s="32">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -34155,7 +34150,7 @@
         <v>1597</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="H292" s="22" t="s">
         <v>1598</v>
@@ -34185,10 +34180,10 @@
       <c r="Q292" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R292" s="507" t="s">
-        <v>2081</v>
-      </c>
-      <c r="S292" s="508"/>
+      <c r="R292" s="512" t="s">
+        <v>2079</v>
+      </c>
+      <c r="S292" s="513"/>
       <c r="T292" s="70" t="s">
         <v>755</v>
       </c>
@@ -34218,7 +34213,7 @@
       <c r="AD292" s="160"/>
       <c r="AE292" s="160"/>
     </row>
-    <row r="293" spans="1:31" ht="27">
+    <row r="293" spans="1:31" ht="30">
       <c r="A293" s="32">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -34280,7 +34275,7 @@
       <c r="AD293" s="160"/>
       <c r="AE293" s="160"/>
     </row>
-    <row r="294" spans="1:31" s="3" customFormat="1" ht="27">
+    <row r="294" spans="1:31" s="3" customFormat="1" ht="30">
       <c r="A294" s="32">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -34324,7 +34319,7 @@
       <c r="AD294" s="325"/>
       <c r="AE294" s="325"/>
     </row>
-    <row r="295" spans="1:31" s="3" customFormat="1">
+    <row r="295" spans="1:31" s="3" customFormat="1" ht="15">
       <c r="A295" s="32">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -34368,7 +34363,7 @@
       <c r="AD295" s="325"/>
       <c r="AE295" s="325"/>
     </row>
-    <row r="296" spans="1:31" ht="40.5">
+    <row r="296" spans="1:31" ht="45">
       <c r="A296" s="32">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -34389,7 +34384,7 @@
         <v>1244</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="H296" s="6" t="s">
         <v>758</v>
@@ -34416,11 +34411,11 @@
       <c r="P296" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Q296" s="507" t="s">
-        <v>2083</v>
-      </c>
-      <c r="R296" s="507"/>
-      <c r="S296" s="508"/>
+      <c r="Q296" s="512" t="s">
+        <v>2081</v>
+      </c>
+      <c r="R296" s="512"/>
+      <c r="S296" s="513"/>
       <c r="T296" s="70" t="s">
         <v>760</v>
       </c>
@@ -34446,7 +34441,7 @@
       <c r="AD296" s="160"/>
       <c r="AE296" s="160"/>
     </row>
-    <row r="297" spans="1:31" ht="32.1" customHeight="1">
+    <row r="297" spans="1:31" ht="32" customHeight="1">
       <c r="A297" s="32">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -34467,7 +34462,7 @@
         <v>1245</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="H297" s="6" t="s">
         <v>1246</v>
@@ -34497,10 +34492,10 @@
       <c r="Q297" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R297" s="507" t="s">
-        <v>2085</v>
-      </c>
-      <c r="S297" s="508"/>
+      <c r="R297" s="512" t="s">
+        <v>2083</v>
+      </c>
+      <c r="S297" s="513"/>
       <c r="T297" s="70" t="s">
         <v>764</v>
       </c>
@@ -34530,7 +34525,7 @@
       <c r="AD297" s="160"/>
       <c r="AE297" s="160"/>
     </row>
-    <row r="298" spans="1:31" ht="32.1" customHeight="1">
+    <row r="298" spans="1:31" ht="32" customHeight="1">
       <c r="A298" s="32">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -34551,7 +34546,7 @@
         <v>1247</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="H298" s="6" t="s">
         <v>1248</v>
@@ -34581,10 +34576,10 @@
       <c r="Q298" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R298" s="507" t="s">
-        <v>2087</v>
-      </c>
-      <c r="S298" s="508"/>
+      <c r="R298" s="512" t="s">
+        <v>2085</v>
+      </c>
+      <c r="S298" s="513"/>
       <c r="T298" s="70" t="s">
         <v>768</v>
       </c>
@@ -34616,7 +34611,7 @@
       </c>
       <c r="AE298" s="160"/>
     </row>
-    <row r="299" spans="1:31" ht="27">
+    <row r="299" spans="1:31" ht="30">
       <c r="A299" s="32">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -34637,7 +34632,7 @@
         <v>1249</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="H299" s="6" t="s">
         <v>771</v>
@@ -34663,10 +34658,10 @@
       </c>
       <c r="P299" s="119"/>
       <c r="Q299" s="120"/>
-      <c r="R299" s="507" t="s">
-        <v>2089</v>
-      </c>
-      <c r="S299" s="508"/>
+      <c r="R299" s="512" t="s">
+        <v>2087</v>
+      </c>
+      <c r="S299" s="513"/>
       <c r="T299" s="132" t="s">
         <v>772</v>
       </c>
@@ -34684,7 +34679,7 @@
       <c r="AD299" s="131"/>
       <c r="AE299" s="327"/>
     </row>
-    <row r="300" spans="1:31" ht="27">
+    <row r="300" spans="1:31" ht="30">
       <c r="A300" s="32">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -34705,7 +34700,7 @@
         <v>1250</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="H300" s="6" t="s">
         <v>775</v>
@@ -34731,10 +34726,10 @@
       </c>
       <c r="P300" s="119"/>
       <c r="Q300" s="120"/>
-      <c r="R300" s="507" t="s">
-        <v>2091</v>
-      </c>
-      <c r="S300" s="508"/>
+      <c r="R300" s="512" t="s">
+        <v>2089</v>
+      </c>
+      <c r="S300" s="513"/>
       <c r="T300" s="132" t="s">
         <v>776</v>
       </c>
@@ -34752,7 +34747,7 @@
       <c r="AD300" s="131"/>
       <c r="AE300" s="327"/>
     </row>
-    <row r="301" spans="1:31" ht="27">
+    <row r="301" spans="1:31" ht="30">
       <c r="A301" s="32">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -34773,7 +34768,7 @@
         <v>1251</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="H301" s="6" t="s">
         <v>779</v>
@@ -34803,10 +34798,10 @@
       <c r="Q301" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R301" s="507" t="s">
-        <v>2093</v>
-      </c>
-      <c r="S301" s="508"/>
+      <c r="R301" s="512" t="s">
+        <v>2091</v>
+      </c>
+      <c r="S301" s="513"/>
       <c r="T301" s="70" t="s">
         <v>781</v>
       </c>
@@ -34838,7 +34833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="302" spans="1:31" ht="54">
+    <row r="302" spans="1:31" ht="60">
       <c r="A302" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -34859,7 +34854,7 @@
         <v>1252</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H302" s="6" t="s">
         <v>1253</v>
@@ -34885,7 +34880,7 @@
       <c r="Q302" s="120"/>
       <c r="R302" s="120"/>
       <c r="S302" s="506" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="T302" s="132" t="s">
         <v>11</v>
@@ -34906,7 +34901,7 @@
       <c r="AD302" s="131"/>
       <c r="AE302" s="327"/>
     </row>
-    <row r="303" spans="1:31" ht="67.5">
+    <row r="303" spans="1:31" ht="75">
       <c r="A303" s="32">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -34927,7 +34922,7 @@
         <v>1254</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="H303" s="6" t="s">
         <v>786</v>
@@ -34953,10 +34948,10 @@
       </c>
       <c r="P303" s="119"/>
       <c r="Q303" s="120"/>
-      <c r="R303" s="507" t="s">
-        <v>2095</v>
-      </c>
-      <c r="S303" s="508"/>
+      <c r="R303" s="512" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S303" s="513"/>
       <c r="T303" s="132" t="s">
         <v>787</v>
       </c>
@@ -34974,7 +34969,7 @@
       <c r="AD303" s="131"/>
       <c r="AE303" s="327"/>
     </row>
-    <row r="304" spans="1:31" ht="54">
+    <row r="304" spans="1:31" ht="60">
       <c r="A304" s="32">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -35021,7 +35016,7 @@
       <c r="Q304" s="120"/>
       <c r="R304" s="120"/>
       <c r="S304" s="506" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="T304" s="132" t="s">
         <v>790</v>
@@ -35038,7 +35033,7 @@
       <c r="AD304" s="131"/>
       <c r="AE304" s="327"/>
     </row>
-    <row r="305" spans="1:37" ht="27">
+    <row r="305" spans="1:37" ht="30">
       <c r="A305" s="32">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -35059,7 +35054,7 @@
         <v>1256</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="13"/>
@@ -35085,7 +35080,7 @@
       <c r="Q305" s="120"/>
       <c r="R305" s="120"/>
       <c r="S305" s="506" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="T305" s="132" t="s">
         <v>793</v>
@@ -35102,7 +35097,7 @@
       <c r="AD305" s="131"/>
       <c r="AE305" s="327"/>
     </row>
-    <row r="306" spans="1:37" ht="27">
+    <row r="306" spans="1:37" ht="30">
       <c r="A306" s="32">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -35123,7 +35118,7 @@
         <v>1257</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="H306" s="6" t="s">
         <v>796</v>
@@ -35149,10 +35144,10 @@
       </c>
       <c r="P306" s="119"/>
       <c r="Q306" s="120"/>
-      <c r="R306" s="507" t="s">
-        <v>2099</v>
-      </c>
-      <c r="S306" s="508"/>
+      <c r="R306" s="512" t="s">
+        <v>2097</v>
+      </c>
+      <c r="S306" s="513"/>
       <c r="T306" s="132" t="s">
         <v>797</v>
       </c>
@@ -35168,7 +35163,7 @@
       <c r="AD306" s="131"/>
       <c r="AE306" s="327"/>
     </row>
-    <row r="307" spans="1:37" ht="40.5">
+    <row r="307" spans="1:37" ht="45">
       <c r="A307" s="32">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -35189,7 +35184,7 @@
         <v>1258</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="H307" s="6" t="s">
         <v>800</v>
@@ -35215,10 +35210,10 @@
       </c>
       <c r="P307" s="119"/>
       <c r="Q307" s="120"/>
-      <c r="R307" s="507" t="s">
-        <v>2101</v>
-      </c>
-      <c r="S307" s="508"/>
+      <c r="R307" s="512" t="s">
+        <v>2099</v>
+      </c>
+      <c r="S307" s="513"/>
       <c r="T307" s="285" t="s">
         <v>801</v>
       </c>
@@ -35234,7 +35229,7 @@
       <c r="AD307" s="131"/>
       <c r="AE307" s="327"/>
     </row>
-    <row r="308" spans="1:37" ht="27">
+    <row r="308" spans="1:37" ht="30">
       <c r="A308" s="32">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -35255,7 +35250,7 @@
         <v>1259</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="H308" s="6" t="s">
         <v>1260</v>
@@ -35283,7 +35278,7 @@
       <c r="Q308" s="120"/>
       <c r="R308" s="120"/>
       <c r="S308" s="506" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="T308" s="132" t="s">
         <v>804</v>
@@ -35300,7 +35295,7 @@
       <c r="AD308" s="346"/>
       <c r="AE308" s="347"/>
     </row>
-    <row r="309" spans="1:37" ht="27">
+    <row r="309" spans="1:37" ht="30">
       <c r="A309" s="32">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -35321,7 +35316,7 @@
         <v>1261</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="H309" s="6" t="s">
         <v>1262</v>
@@ -35349,7 +35344,7 @@
       <c r="Q309" s="120"/>
       <c r="R309" s="120"/>
       <c r="S309" s="506" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="T309" s="132" t="s">
         <v>807</v>
@@ -35402,14 +35397,14 @@
     <row r="311" spans="1:37">
       <c r="E311" s="287"/>
       <c r="K311" s="287"/>
-      <c r="M311" s="554" t="s">
+      <c r="M311" s="548" t="s">
         <v>997</v>
       </c>
-      <c r="N311" s="555"/>
-      <c r="O311" s="555"/>
-      <c r="P311" s="555"/>
-      <c r="Q311" s="555"/>
-      <c r="R311" s="556"/>
+      <c r="N311" s="549"/>
+      <c r="O311" s="549"/>
+      <c r="P311" s="549"/>
+      <c r="Q311" s="549"/>
+      <c r="R311" s="550"/>
       <c r="S311" s="148" t="s">
         <v>43</v>
       </c>
@@ -35424,17 +35419,17 @@
       <c r="Z311" s="297"/>
       <c r="AA311" s="389"/>
     </row>
-    <row r="312" spans="1:37">
+    <row r="312" spans="1:37" ht="15">
       <c r="E312" s="287"/>
       <c r="K312" s="287"/>
-      <c r="M312" s="557" t="s">
+      <c r="M312" s="551" t="s">
         <v>998</v>
       </c>
-      <c r="N312" s="558"/>
-      <c r="O312" s="558"/>
-      <c r="P312" s="558"/>
-      <c r="Q312" s="558"/>
-      <c r="R312" s="559"/>
+      <c r="N312" s="552"/>
+      <c r="O312" s="552"/>
+      <c r="P312" s="552"/>
+      <c r="Q312" s="552"/>
+      <c r="R312" s="553"/>
       <c r="S312" s="299" t="s">
         <v>16</v>
       </c>
@@ -35452,14 +35447,14 @@
     <row r="313" spans="1:37">
       <c r="E313" s="287"/>
       <c r="K313" s="287"/>
-      <c r="M313" s="546" t="s">
+      <c r="M313" s="538" t="s">
         <v>995</v>
       </c>
-      <c r="N313" s="547"/>
-      <c r="O313" s="547"/>
-      <c r="P313" s="547"/>
-      <c r="Q313" s="547"/>
-      <c r="R313" s="560"/>
+      <c r="N313" s="539"/>
+      <c r="O313" s="539"/>
+      <c r="P313" s="539"/>
+      <c r="Q313" s="539"/>
+      <c r="R313" s="554"/>
       <c r="S313" s="148" t="s">
         <v>56</v>
       </c>
@@ -35477,14 +35472,14 @@
     <row r="314" spans="1:37">
       <c r="E314" s="287"/>
       <c r="K314" s="287"/>
-      <c r="M314" s="551" t="s">
+      <c r="M314" s="544" t="s">
         <v>996</v>
       </c>
-      <c r="N314" s="533"/>
-      <c r="O314" s="533"/>
-      <c r="P314" s="533"/>
-      <c r="Q314" s="533"/>
-      <c r="R314" s="561"/>
+      <c r="N314" s="545"/>
+      <c r="O314" s="545"/>
+      <c r="P314" s="545"/>
+      <c r="Q314" s="545"/>
+      <c r="R314" s="555"/>
       <c r="S314" s="148" t="s">
         <v>96</v>
       </c>
@@ -35499,17 +35494,17 @@
       <c r="Z314" s="297"/>
       <c r="AA314" s="389"/>
     </row>
-    <row r="315" spans="1:37">
+    <row r="315" spans="1:37" ht="15">
       <c r="E315" s="287"/>
       <c r="K315" s="287"/>
-      <c r="M315" s="537" t="s">
+      <c r="M315" s="535" t="s">
         <v>953</v>
       </c>
-      <c r="N315" s="538"/>
-      <c r="O315" s="538"/>
-      <c r="P315" s="538"/>
-      <c r="Q315" s="538"/>
-      <c r="R315" s="553"/>
+      <c r="N315" s="536"/>
+      <c r="O315" s="536"/>
+      <c r="P315" s="536"/>
+      <c r="Q315" s="536"/>
+      <c r="R315" s="547"/>
       <c r="S315" s="299" t="s">
         <v>43</v>
       </c>
@@ -35527,14 +35522,14 @@
     <row r="316" spans="1:37">
       <c r="E316" s="287"/>
       <c r="K316" s="287"/>
-      <c r="M316" s="537" t="s">
+      <c r="M316" s="535" t="s">
         <v>949</v>
       </c>
-      <c r="N316" s="538"/>
-      <c r="O316" s="538"/>
-      <c r="P316" s="538"/>
-      <c r="Q316" s="538"/>
-      <c r="R316" s="553"/>
+      <c r="N316" s="536"/>
+      <c r="O316" s="536"/>
+      <c r="P316" s="536"/>
+      <c r="Q316" s="536"/>
+      <c r="R316" s="547"/>
       <c r="S316" s="166" t="s">
         <v>80</v>
       </c>
@@ -35549,17 +35544,17 @@
       <c r="Z316" s="297"/>
       <c r="AA316" s="389"/>
     </row>
-    <row r="317" spans="1:37">
+    <row r="317" spans="1:37" ht="15">
       <c r="E317" s="287"/>
       <c r="K317" s="287"/>
-      <c r="M317" s="546" t="s">
+      <c r="M317" s="538" t="s">
         <v>823</v>
       </c>
-      <c r="N317" s="547"/>
-      <c r="O317" s="547"/>
-      <c r="P317" s="547"/>
-      <c r="Q317" s="547"/>
-      <c r="R317" s="548"/>
+      <c r="N317" s="539"/>
+      <c r="O317" s="539"/>
+      <c r="P317" s="539"/>
+      <c r="Q317" s="539"/>
+      <c r="R317" s="540"/>
       <c r="S317" s="300" t="s">
         <v>819</v>
       </c>
@@ -35577,15 +35572,15 @@
       <c r="AD317" s="291"/>
       <c r="AE317" s="291"/>
     </row>
-    <row r="318" spans="1:37">
+    <row r="318" spans="1:37" ht="15">
       <c r="E318" s="287"/>
       <c r="K318" s="287"/>
-      <c r="M318" s="549"/>
-      <c r="N318" s="532"/>
-      <c r="O318" s="532"/>
-      <c r="P318" s="532"/>
-      <c r="Q318" s="532"/>
-      <c r="R318" s="550"/>
+      <c r="M318" s="541"/>
+      <c r="N318" s="542"/>
+      <c r="O318" s="542"/>
+      <c r="P318" s="542"/>
+      <c r="Q318" s="542"/>
+      <c r="R318" s="543"/>
       <c r="S318" s="303" t="s">
         <v>820</v>
       </c>
@@ -35603,15 +35598,15 @@
       <c r="AD318" s="291"/>
       <c r="AE318" s="291"/>
     </row>
-    <row r="319" spans="1:37">
+    <row r="319" spans="1:37" ht="15">
       <c r="E319" s="287"/>
       <c r="K319" s="287"/>
-      <c r="M319" s="549"/>
-      <c r="N319" s="532"/>
-      <c r="O319" s="532"/>
-      <c r="P319" s="532"/>
-      <c r="Q319" s="532"/>
-      <c r="R319" s="550"/>
+      <c r="M319" s="541"/>
+      <c r="N319" s="542"/>
+      <c r="O319" s="542"/>
+      <c r="P319" s="542"/>
+      <c r="Q319" s="542"/>
+      <c r="R319" s="543"/>
       <c r="S319" s="304" t="s">
         <v>821</v>
       </c>
@@ -35629,15 +35624,15 @@
       <c r="AD319" s="291"/>
       <c r="AE319" s="291"/>
     </row>
-    <row r="320" spans="1:37">
+    <row r="320" spans="1:37" ht="15">
       <c r="E320" s="287"/>
       <c r="K320" s="287"/>
-      <c r="M320" s="551"/>
-      <c r="N320" s="533"/>
-      <c r="O320" s="533"/>
-      <c r="P320" s="533"/>
-      <c r="Q320" s="533"/>
-      <c r="R320" s="552"/>
+      <c r="M320" s="544"/>
+      <c r="N320" s="545"/>
+      <c r="O320" s="545"/>
+      <c r="P320" s="545"/>
+      <c r="Q320" s="545"/>
+      <c r="R320" s="546"/>
       <c r="S320" s="305" t="s">
         <v>822</v>
       </c>
@@ -35655,17 +35650,17 @@
       <c r="AD320" s="291"/>
       <c r="AE320" s="291"/>
     </row>
-    <row r="321" spans="5:28">
+    <row r="321" spans="5:28" ht="15">
       <c r="E321" s="287"/>
       <c r="K321" s="287"/>
-      <c r="M321" s="537" t="s">
+      <c r="M321" s="535" t="s">
         <v>952</v>
       </c>
-      <c r="N321" s="538"/>
-      <c r="O321" s="538"/>
-      <c r="P321" s="538"/>
-      <c r="Q321" s="538"/>
-      <c r="R321" s="545"/>
+      <c r="N321" s="536"/>
+      <c r="O321" s="536"/>
+      <c r="P321" s="536"/>
+      <c r="Q321" s="536"/>
+      <c r="R321" s="537"/>
       <c r="S321" s="7" t="s">
         <v>950</v>
       </c>
@@ -39259,36 +39254,195 @@
   </sheetData>
   <autoFilter ref="B2:AE596" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="261">
-    <mergeCell ref="Q248:S248"/>
-    <mergeCell ref="Q255:S255"/>
-    <mergeCell ref="P221:S221"/>
-    <mergeCell ref="Q225:S225"/>
-    <mergeCell ref="Q229:S229"/>
-    <mergeCell ref="P222:S222"/>
-    <mergeCell ref="Q214:S214"/>
-    <mergeCell ref="Q215:S215"/>
-    <mergeCell ref="Q216:S216"/>
-    <mergeCell ref="Q217:S217"/>
-    <mergeCell ref="Q218:S218"/>
-    <mergeCell ref="Q220:S220"/>
-    <mergeCell ref="P233:S233"/>
-    <mergeCell ref="Q223:S223"/>
-    <mergeCell ref="Q224:S224"/>
-    <mergeCell ref="Q254:S254"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="Y132:AA132"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="R306:S306"/>
+    <mergeCell ref="R307:S307"/>
+    <mergeCell ref="R298:S298"/>
+    <mergeCell ref="R299:S299"/>
+    <mergeCell ref="R300:S300"/>
+    <mergeCell ref="R301:S301"/>
+    <mergeCell ref="R303:S303"/>
+    <mergeCell ref="R289:S289"/>
+    <mergeCell ref="R291:S291"/>
+    <mergeCell ref="R292:S292"/>
+    <mergeCell ref="Q296:S296"/>
+    <mergeCell ref="R297:S297"/>
+    <mergeCell ref="Q290:S290"/>
+    <mergeCell ref="R282:S282"/>
+    <mergeCell ref="Q283:S283"/>
+    <mergeCell ref="R286:S286"/>
+    <mergeCell ref="R287:S287"/>
+    <mergeCell ref="R288:S288"/>
+    <mergeCell ref="R275:S275"/>
+    <mergeCell ref="Q276:S276"/>
+    <mergeCell ref="R279:S279"/>
+    <mergeCell ref="R280:S280"/>
+    <mergeCell ref="R281:S281"/>
+    <mergeCell ref="R285:S285"/>
+    <mergeCell ref="R277:S277"/>
+    <mergeCell ref="R278:S278"/>
+    <mergeCell ref="R284:S284"/>
+    <mergeCell ref="Q237:S237"/>
+    <mergeCell ref="R238:S238"/>
+    <mergeCell ref="R268:S268"/>
+    <mergeCell ref="Q269:S269"/>
+    <mergeCell ref="R272:S272"/>
+    <mergeCell ref="R273:S273"/>
+    <mergeCell ref="R274:S274"/>
+    <mergeCell ref="Q249:S249"/>
+    <mergeCell ref="Q250:S250"/>
+    <mergeCell ref="Q265:S265"/>
+    <mergeCell ref="Q266:S266"/>
+    <mergeCell ref="R267:S267"/>
+    <mergeCell ref="Q256:S256"/>
+    <mergeCell ref="Q262:S262"/>
+    <mergeCell ref="Q261:S261"/>
+    <mergeCell ref="Q263:S263"/>
+    <mergeCell ref="N259:U259"/>
+    <mergeCell ref="N260:U260"/>
+    <mergeCell ref="Q264:S264"/>
+    <mergeCell ref="R270:S270"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="Q206:S206"/>
+    <mergeCell ref="Q207:S207"/>
+    <mergeCell ref="P208:S208"/>
+    <mergeCell ref="Q209:S209"/>
+    <mergeCell ref="Q212:S212"/>
+    <mergeCell ref="P200:S200"/>
+    <mergeCell ref="Q201:S201"/>
+    <mergeCell ref="Q203:S203"/>
+    <mergeCell ref="Q204:S204"/>
+    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="P190:S190"/>
+    <mergeCell ref="Q191:S191"/>
+    <mergeCell ref="Q192:S192"/>
+    <mergeCell ref="Q193:S193"/>
+    <mergeCell ref="Q195:S195"/>
+    <mergeCell ref="Q164:S164"/>
+    <mergeCell ref="Q165:S165"/>
+    <mergeCell ref="Q166:S166"/>
+    <mergeCell ref="R167:S167"/>
+    <mergeCell ref="R159:S159"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="R161:S161"/>
+    <mergeCell ref="R162:S162"/>
+    <mergeCell ref="P163:S163"/>
+    <mergeCell ref="R154:S154"/>
+    <mergeCell ref="Q155:S155"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="R157:S157"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q150:S150"/>
+    <mergeCell ref="Q151:S151"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="R144:S144"/>
+    <mergeCell ref="R145:S145"/>
+    <mergeCell ref="P146:S146"/>
+    <mergeCell ref="Q147:S147"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="R126:S126"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="R139:S139"/>
+    <mergeCell ref="R140:S140"/>
+    <mergeCell ref="R141:S141"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="Q133:S133"/>
+    <mergeCell ref="R134:S134"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="R136:S136"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="R107:S107"/>
+    <mergeCell ref="P108:S108"/>
+    <mergeCell ref="Q109:S109"/>
+    <mergeCell ref="Q110:S110"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="Q102:S102"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="R149:S149"/>
+    <mergeCell ref="R247:S247"/>
+    <mergeCell ref="Q112:S112"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="R117:S117"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="P119:S119"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="Q121:S121"/>
+    <mergeCell ref="Q122:S122"/>
+    <mergeCell ref="Q213:S213"/>
+    <mergeCell ref="Q227:S227"/>
+    <mergeCell ref="Q228:S228"/>
+    <mergeCell ref="R127:S127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:S84"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="M321:R321"/>
     <mergeCell ref="M317:R320"/>
     <mergeCell ref="M315:R315"/>
@@ -39313,31 +39467,20 @@
     <mergeCell ref="Q132:S132"/>
     <mergeCell ref="Q91:S91"/>
     <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="Y132:AA132"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="P52:S52"/>
     <mergeCell ref="Q61:S61"/>
     <mergeCell ref="Q63:S63"/>
     <mergeCell ref="P58:S58"/>
@@ -39348,122 +39491,22 @@
     <mergeCell ref="Q54:S54"/>
     <mergeCell ref="P55:S55"/>
     <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="P84:S84"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="R149:S149"/>
-    <mergeCell ref="R247:S247"/>
-    <mergeCell ref="Q112:S112"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="R116:S116"/>
-    <mergeCell ref="R117:S117"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="P119:S119"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="Q121:S121"/>
-    <mergeCell ref="Q122:S122"/>
-    <mergeCell ref="Q213:S213"/>
-    <mergeCell ref="Q227:S227"/>
-    <mergeCell ref="Q228:S228"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="R106:S106"/>
-    <mergeCell ref="R107:S107"/>
-    <mergeCell ref="P108:S108"/>
-    <mergeCell ref="Q109:S109"/>
-    <mergeCell ref="Q110:S110"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="Q102:S102"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="R127:S127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="Q130:S130"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="R126:S126"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="R139:S139"/>
-    <mergeCell ref="R140:S140"/>
-    <mergeCell ref="R141:S141"/>
-    <mergeCell ref="R142:S142"/>
-    <mergeCell ref="Q133:S133"/>
-    <mergeCell ref="R134:S134"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="R136:S136"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q150:S150"/>
-    <mergeCell ref="Q151:S151"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="R143:S143"/>
-    <mergeCell ref="R144:S144"/>
-    <mergeCell ref="R145:S145"/>
-    <mergeCell ref="P146:S146"/>
-    <mergeCell ref="Q147:S147"/>
-    <mergeCell ref="R159:S159"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="R161:S161"/>
-    <mergeCell ref="R162:S162"/>
-    <mergeCell ref="P163:S163"/>
-    <mergeCell ref="R154:S154"/>
-    <mergeCell ref="Q155:S155"/>
-    <mergeCell ref="R156:S156"/>
-    <mergeCell ref="R157:S157"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="P190:S190"/>
-    <mergeCell ref="Q191:S191"/>
-    <mergeCell ref="Q192:S192"/>
-    <mergeCell ref="Q193:S193"/>
-    <mergeCell ref="Q195:S195"/>
-    <mergeCell ref="Q164:S164"/>
-    <mergeCell ref="Q165:S165"/>
-    <mergeCell ref="Q166:S166"/>
-    <mergeCell ref="R167:S167"/>
-    <mergeCell ref="Q206:S206"/>
-    <mergeCell ref="Q207:S207"/>
-    <mergeCell ref="P208:S208"/>
-    <mergeCell ref="Q209:S209"/>
-    <mergeCell ref="Q212:S212"/>
-    <mergeCell ref="P200:S200"/>
-    <mergeCell ref="Q201:S201"/>
-    <mergeCell ref="Q203:S203"/>
-    <mergeCell ref="Q204:S204"/>
-    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="Q248:S248"/>
+    <mergeCell ref="Q255:S255"/>
+    <mergeCell ref="P221:S221"/>
+    <mergeCell ref="Q225:S225"/>
+    <mergeCell ref="Q229:S229"/>
+    <mergeCell ref="P222:S222"/>
+    <mergeCell ref="Q214:S214"/>
+    <mergeCell ref="Q215:S215"/>
+    <mergeCell ref="Q216:S216"/>
+    <mergeCell ref="Q217:S217"/>
+    <mergeCell ref="Q218:S218"/>
+    <mergeCell ref="Q220:S220"/>
+    <mergeCell ref="P233:S233"/>
+    <mergeCell ref="Q223:S223"/>
+    <mergeCell ref="Q224:S224"/>
+    <mergeCell ref="Q254:S254"/>
     <mergeCell ref="R239:S239"/>
     <mergeCell ref="P240:S240"/>
     <mergeCell ref="Q241:S241"/>
@@ -39472,54 +39515,6 @@
     <mergeCell ref="Q234:S234"/>
     <mergeCell ref="Q235:S235"/>
     <mergeCell ref="Q236:S236"/>
-    <mergeCell ref="Q237:S237"/>
-    <mergeCell ref="R238:S238"/>
-    <mergeCell ref="R268:S268"/>
-    <mergeCell ref="Q269:S269"/>
-    <mergeCell ref="R272:S272"/>
-    <mergeCell ref="R273:S273"/>
-    <mergeCell ref="R274:S274"/>
-    <mergeCell ref="Q249:S249"/>
-    <mergeCell ref="Q250:S250"/>
-    <mergeCell ref="Q265:S265"/>
-    <mergeCell ref="Q266:S266"/>
-    <mergeCell ref="R267:S267"/>
-    <mergeCell ref="Q256:S256"/>
-    <mergeCell ref="Q262:S262"/>
-    <mergeCell ref="Q261:S261"/>
-    <mergeCell ref="Q263:S263"/>
-    <mergeCell ref="N259:U259"/>
-    <mergeCell ref="N260:U260"/>
-    <mergeCell ref="Q264:S264"/>
-    <mergeCell ref="R270:S270"/>
-    <mergeCell ref="R271:S271"/>
-    <mergeCell ref="R282:S282"/>
-    <mergeCell ref="Q283:S283"/>
-    <mergeCell ref="R286:S286"/>
-    <mergeCell ref="R287:S287"/>
-    <mergeCell ref="R288:S288"/>
-    <mergeCell ref="R275:S275"/>
-    <mergeCell ref="Q276:S276"/>
-    <mergeCell ref="R279:S279"/>
-    <mergeCell ref="R280:S280"/>
-    <mergeCell ref="R281:S281"/>
-    <mergeCell ref="R285:S285"/>
-    <mergeCell ref="R277:S277"/>
-    <mergeCell ref="R278:S278"/>
-    <mergeCell ref="R284:S284"/>
-    <mergeCell ref="R306:S306"/>
-    <mergeCell ref="R307:S307"/>
-    <mergeCell ref="R298:S298"/>
-    <mergeCell ref="R299:S299"/>
-    <mergeCell ref="R300:S300"/>
-    <mergeCell ref="R301:S301"/>
-    <mergeCell ref="R303:S303"/>
-    <mergeCell ref="R289:S289"/>
-    <mergeCell ref="R291:S291"/>
-    <mergeCell ref="R292:S292"/>
-    <mergeCell ref="Q296:S296"/>
-    <mergeCell ref="R297:S297"/>
-    <mergeCell ref="Q290:S290"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="W30:W31 W84:W85 W87:W89 W95:W100 W102:W106 W156:W161 W163:W165 W200:W209 W217 W286:W298 W301 W305 W276:W278 W214:W215 W168:W179 W71 O71 W108:W110 O108:O110 W75:W76 O75 O78:O82 W78:W82 W61 W152:W154 W139:W148 O152:O154 O150 W43:W59 O44:O47 W238:W247 W249:W252 T310 AB310 T311:U315 W33:W35 W37:W38 E249:E255 W254:W255 W281:W283 O281:O283 S311:S320 W311:W316 W257:W261 E257:E261 F310:I310 W63:W68 O112 W112 W150 W2:W27 O2:O22 O25:O27 L310:R310 O192:O193 W181:W193 K2:K61 W271:W273 K264:K277 W91 K63:K68 K70:K87 K89 K91:K92 K94:K110 K112 K150:K212 K214:K226 E214:E226 O221:O232 W221:W232 E228:E247 K228:K247 W114:W137 O114:O137 E2:E212 K114:K148 W321:W596 O322:O596 E264:E596 K279:K596">
